--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Internet" sheetId="6" r:id="rId6"/>
     <sheet name="Personal" sheetId="7" r:id="rId7"/>
     <sheet name="Library" sheetId="8" r:id="rId8"/>
-    <sheet name="Music Supervisors" sheetId="9" r:id="rId9"/>
+    <sheet name="Myself" sheetId="9" r:id="rId9"/>
     <sheet name="Press" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
@@ -1720,13 +1720,296 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Website</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Phone Number</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="F1" t="str">
+        <v>City</v>
+      </c>
+      <c r="G1" t="str">
+        <v>State</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Continent</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Planet</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Favorite Color</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Favorite Food</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Favorite Drink</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Hobby</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Talent</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Mishuba</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://www.youtube.com/channel/UCqTtVsIfhihGuznFiBMXnlA</v>
+      </c>
+      <c r="C2" t="str">
+        <v>mishuba14@gmail.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>8502733609</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1929 Bluff Road</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Columbia</v>
+      </c>
+      <c r="G2" t="str">
+        <v>South Carolina</v>
+      </c>
+      <c r="H2" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I2" t="str">
+        <v>North America</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Earth</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Pink</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Pizza</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Cranberry Juice</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Video Games</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Hardworking</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Chris Maxwell</v>
+      </c>
+      <c r="B3" t="str">
+        <v>www.tsunamiflow.club</v>
+      </c>
+      <c r="C3" t="str">
+        <v>hubertmaxwell34@gmail.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>8505831121</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1407 Alabama Street</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Tallahassee</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Florida</v>
+      </c>
+      <c r="H3" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I3" t="str">
+        <v>North America</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Earth</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Red</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Green Grapes</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Fanta</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Music</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Talking</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Hubert Christopher Maxwell</v>
+      </c>
+      <c r="B4" t="str">
+        <v>www.twitter.com/mishuba</v>
+      </c>
+      <c r="C4" t="str">
+        <v>chris19maxwell90@gmail.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>8502733609</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1023 Delaware Street</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Tallahassee</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Florida</v>
+      </c>
+      <c r="H4" t="str">
+        <v>USA</v>
+      </c>
+      <c r="I4" t="str">
+        <v>North America</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Earth</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Green</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Spaghetti</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Bacardi\</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Sports</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Planning</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ackma Hawk</v>
+      </c>
+      <c r="B5" t="str">
+        <v>www.instagram.com/mishuba</v>
+      </c>
+      <c r="C5" t="str">
+        <v>mishuba@outlook.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1602251199</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1 TsuFlyPeak</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Dreams</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Awareness</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Tycadome</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Berumda Triangle</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Unknown</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Black</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Nacho Cheese Meat Special</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Water</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Drawing</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Dancing</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Duwen Lyric</v>
+      </c>
+      <c r="B6" t="str">
+        <v>www.facebook.com/DragoonMishuba</v>
+      </c>
+      <c r="C6" t="str">
+        <v>TsunamiTeamForever@gmail.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2359647482</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1 TsuFly Peak</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Dreams</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Awareness</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Tycadome</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Berumda Triangle</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Earth</v>
+      </c>
+      <c r="K6" t="str">
+        <v>White</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Goodie Bread</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Sprite</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Music</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Acting</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -4,14 +4,14 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="College" sheetId="1" r:id="rId1"/>
-    <sheet name="Other" sheetId="2" r:id="rId2"/>
+    <sheet name="Personal" sheetId="2" r:id="rId2"/>
     <sheet name="Podcast" sheetId="3" r:id="rId3"/>
     <sheet name="Broadcast" sheetId="4" r:id="rId4"/>
     <sheet name="Satellite" sheetId="5" r:id="rId5"/>
     <sheet name="Internet" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal" sheetId="7" r:id="rId7"/>
-    <sheet name="Library" sheetId="8" r:id="rId8"/>
-    <sheet name="Myself" sheetId="9" r:id="rId9"/>
+    <sheet name="Friends" sheetId="7" r:id="rId7"/>
+    <sheet name="Music Library" sheetId="8" r:id="rId8"/>
+    <sheet name="Family" sheetId="9" r:id="rId9"/>
     <sheet name="Press" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="39">
       <c r="C39" t="str">
-        <v>w</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1694,13 +1694,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Phone Number</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Birthday</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1720,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1730,45 +1745,48 @@
         <v>Name</v>
       </c>
       <c r="B1" t="str">
+        <v>Birthday</v>
+      </c>
+      <c r="C1" t="str">
         <v>Website</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Email</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Phone Number</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Address</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>City</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>State</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>Country</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Continent</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Planet</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Favorite Color</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>Favorite Food</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>Favorite Drink</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>Hobby</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>Talent</v>
       </c>
     </row>
@@ -1777,45 +1795,48 @@
         <v>Mishuba</v>
       </c>
       <c r="B2" t="str">
+        <v>July 11, 1990</v>
+      </c>
+      <c r="C2" t="str">
         <v>https://www.youtube.com/channel/UCqTtVsIfhihGuznFiBMXnlA</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>mishuba14@gmail.com</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>8502733609</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>1929 Bluff Road</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>Columbia</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>South Carolina</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>USA</v>
       </c>
-      <c r="I2" t="str">
-        <v>North America</v>
-      </c>
       <c r="J2" t="str">
+        <v>North America</v>
+      </c>
+      <c r="K2" t="str">
         <v>Earth</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>Pink</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <v>Pizza</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <v>Cranberry Juice</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <v>Video Games</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <v>Hardworking</v>
       </c>
     </row>
@@ -1824,45 +1845,48 @@
         <v>Chris Maxwell</v>
       </c>
       <c r="B3" t="str">
+        <v>July 11, 1990</v>
+      </c>
+      <c r="C3" t="str">
         <v>www.tsunamiflow.club</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>hubertmaxwell34@gmail.com</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>8505831121</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>1407 Alabama Street</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>Tallahassee</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>Florida</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>USA</v>
       </c>
-      <c r="I3" t="str">
-        <v>North America</v>
-      </c>
       <c r="J3" t="str">
+        <v>North America</v>
+      </c>
+      <c r="K3" t="str">
         <v>Earth</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>Red</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <v>Green Grapes</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>Fanta</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>Music</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>Talking</v>
       </c>
     </row>
@@ -1871,45 +1895,48 @@
         <v>Hubert Christopher Maxwell</v>
       </c>
       <c r="B4" t="str">
+        <v>July 11, 1990</v>
+      </c>
+      <c r="C4" t="str">
         <v>www.twitter.com/mishuba</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>chris19maxwell90@gmail.com</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>8502733609</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>1023 Delaware Street</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>Tallahassee</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <v>Florida</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>USA</v>
       </c>
-      <c r="I4" t="str">
-        <v>North America</v>
-      </c>
       <c r="J4" t="str">
+        <v>North America</v>
+      </c>
+      <c r="K4" t="str">
         <v>Earth</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>Green</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <v>Spaghetti</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <v>Bacardi\</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <v>Sports</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <v>Planning</v>
       </c>
     </row>
@@ -1918,45 +1945,48 @@
         <v>Ackma Hawk</v>
       </c>
       <c r="B5" t="str">
+        <v>July 11, 1990</v>
+      </c>
+      <c r="C5" t="str">
         <v>www.instagram.com/mishuba</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>mishuba@outlook.com</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>1602251199</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>1 TsuFlyPeak</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>Dreams</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <v>Awareness</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <v>Tycadome</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>Berumda Triangle</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>Unknown</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>Black</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <v>Nacho Cheese Meat Special</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <v>Water</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <v>Drawing</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <v>Dancing</v>
       </c>
     </row>
@@ -1965,51 +1995,54 @@
         <v>Duwen Lyric</v>
       </c>
       <c r="B6" t="str">
+        <v>July 11, 1990</v>
+      </c>
+      <c r="C6" t="str">
         <v>www.facebook.com/DragoonMishuba</v>
       </c>
-      <c r="C6" t="str">
-        <v>TsunamiTeamForever@gmail.com</v>
-      </c>
       <c r="D6" t="str">
+        <v>TsunamiTeamForever@outlook.com</v>
+      </c>
+      <c r="E6" t="str">
         <v>2359647482</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>1 TsuFly Peak</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <v>Dreams</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <v>Awareness</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <v>Tycadome</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <v>Berumda Triangle</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <v>Earth</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <v>White</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <v>Goodie Bread</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <v>Sprite</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O6" t="str">
         <v>Music</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <v>Acting</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1603,13 +1603,287 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="str">
+        <v>Cam FM 97.2</v>
+      </c>
+      <c r="B39" t="str">
+        <v>University of Cambridge</v>
+      </c>
       <c r="C39" t="str">
-        <v/>
+        <v>https://www.camfm.co.uk/</v>
+      </c>
+      <c r="D39" t="str">
+        <v>committee@camfm.co.uk</v>
+      </c>
+      <c r="E39" t="str">
+        <v>music@camfm.co.uk</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H39" t="str">
+        <v>England</v>
+      </c>
+      <c r="I39" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Cambridge</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Source Radio</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Coventry University</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://www.cusu.org/</v>
+      </c>
+      <c r="D40" t="str">
+        <v>infooffice.su@coventry.ac.uk</v>
+      </c>
+      <c r="E40" t="str">
+        <v>London.su@coventry.ac.uk</v>
+      </c>
+      <c r="F40" t="str">
+        <v>02477 651030</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H40" t="str">
+        <v>England</v>
+      </c>
+      <c r="I40" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Coventry</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Purple Radio</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Durham University</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://www.purpleradio.co.uk/</v>
+      </c>
+      <c r="D41" t="str">
+        <v>station.manager@purpleradio.co.uk</v>
+      </c>
+      <c r="E41" t="str">
+        <v>hello@purpleradio.co.uk</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H41" t="str">
+        <v>England</v>
+      </c>
+      <c r="I41" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Durham</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Insanity Radio</v>
+      </c>
+      <c r="B42" t="str">
+        <v>University of London</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://insanityradio.com/</v>
+      </c>
+      <c r="D42" t="str">
+        <v>studio@insanityradio.com</v>
+      </c>
+      <c r="E42" t="str">
+        <v>music@insanityradio.com</v>
+      </c>
+      <c r="F42" t="str">
+        <v>01784 818188</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H42" t="str">
+        <v>England</v>
+      </c>
+      <c r="I42" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Egham</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Bailrigg FM</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Lancaster University</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://bailriggradio.lancastersu.co.uk/</v>
+      </c>
+      <c r="D43" t="str">
+        <v>studio@bailriggfm.co.uk</v>
+      </c>
+      <c r="E43" t="str">
+        <v>music@bailriggfm.co.uk</v>
+      </c>
+      <c r="F43" t="str">
+        <v>01524566549</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H43" t="str">
+        <v>England</v>
+      </c>
+      <c r="I43" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Lancaster</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>LSRfm</v>
+      </c>
+      <c r="B44" t="str">
+        <v>University of Leeds</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://www.thisislsr.com/</v>
+      </c>
+      <c r="D44" t="str">
+        <v>programming@thisislsr.com</v>
+      </c>
+      <c r="E44" t="str">
+        <v>music@thisislsr.com</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H44" t="str">
+        <v>England</v>
+      </c>
+      <c r="I44" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Leeds</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Fuse FM</v>
+      </c>
+      <c r="B45" t="str">
+        <v>University of Manchester</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://web.archive.org/web/20080915101206/http://www.fusefm.co.uk/contact</v>
+      </c>
+      <c r="D45" t="str">
+        <v>info@fusefm.co.uk</v>
+      </c>
+      <c r="E45" t="str">
+        <v>studio@fusefm.co.uk</v>
+      </c>
+      <c r="F45" t="str">
+        <v>0161 275 7071</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H45" t="str">
+        <v>England</v>
+      </c>
+      <c r="I45" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Manchester</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Air3</v>
+      </c>
+      <c r="B46" t="str">
+        <v>University of Stirling</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://air3radio.com/</v>
+      </c>
+      <c r="D46" t="str">
+        <v>bookings@air3radio.com</v>
+      </c>
+      <c r="E46" t="str">
+        <v>promotions@air3radio.com</v>
+      </c>
+      <c r="F46" t="str">
+        <v>01786 467166</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H46" t="str">
+        <v>England</v>
+      </c>
+      <c r="I46" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Stirling</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>University Radio York</v>
+      </c>
+      <c r="B47" t="str">
+        <v>University of York</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://ury.org.uk/</v>
+      </c>
+      <c r="D47" t="str">
+        <v>newsroom@ury.org.uk</v>
+      </c>
+      <c r="E47" t="str">
+        <v>music@ury.org.uk</v>
+      </c>
+      <c r="F47" t="str">
+        <v>44 1904321350</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="H47" t="str">
+        <v>England</v>
+      </c>
+      <c r="I47" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="J47" t="str">
+        <v>York</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J47"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -2009,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2063,6 +2063,42 @@
       <c r="P1" t="str">
         <v>Talent</v>
       </c>
+      <c r="Q1" t="str">
+        <v>Zodiac SIgn</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Chinese Zodiiac</v>
+      </c>
+      <c r="S1" t="str">
+        <v>DISC</v>
+      </c>
+      <c r="T1" t="str">
+        <v>BusinessPersonalityType</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Perceiving Or Judging</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Thinking or Feeling</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Sensing or Intuition</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Introverted or Extraverted</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>LearningType</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>LoveLanguage</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>SpiritAnimal</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Religion</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -2113,6 +2149,42 @@
       <c r="P2" t="str">
         <v>Hardworking</v>
       </c>
+      <c r="Q2" t="str">
+        <v>Gemini</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Horse</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Influence</v>
+      </c>
+      <c r="T2" t="str">
+        <v>ENTJ</v>
+      </c>
+      <c r="U2" t="str">
+        <v>Perceiving</v>
+      </c>
+      <c r="V2" t="str">
+        <v>Feeling</v>
+      </c>
+      <c r="W2" t="str">
+        <v>Intuition</v>
+      </c>
+      <c r="X2" t="str">
+        <v>Introverted</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>Solitary</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>Physical Touch</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>Dragon</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>Spiritual</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2128,16 +2200,16 @@
         <v>hubertmaxwell34@gmail.com</v>
       </c>
       <c r="E3" t="str">
-        <v>8505831121</v>
+        <v>2542848098</v>
       </c>
       <c r="F3" t="str">
-        <v>1407 Alabama Street</v>
+        <v xml:space="preserve">asomke </v>
       </c>
       <c r="G3" t="str">
-        <v>Tallahassee</v>
+        <v>Harker Heights</v>
       </c>
       <c r="H3" t="str">
-        <v>Florida</v>
+        <v>Texas</v>
       </c>
       <c r="I3" t="str">
         <v>USA</v>
@@ -2155,7 +2227,7 @@
         <v>Green Grapes</v>
       </c>
       <c r="N3" t="str">
-        <v>Fanta</v>
+        <v>Soda</v>
       </c>
       <c r="O3" t="str">
         <v>Music</v>
@@ -2163,10 +2235,46 @@
       <c r="P3" t="str">
         <v>Talking</v>
       </c>
+      <c r="Q3" t="str">
+        <v>Cancer</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Horse</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Support</v>
+      </c>
+      <c r="T3" t="str">
+        <v>INTP</v>
+      </c>
+      <c r="U3" t="str">
+        <v>Judging</v>
+      </c>
+      <c r="V3" t="str">
+        <v>Thinking</v>
+      </c>
+      <c r="W3" t="str">
+        <v>Intuition</v>
+      </c>
+      <c r="X3" t="str">
+        <v>Introverted</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>Logical(Mathematical)</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>Quality Time</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>Cheetah</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>Christian</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Hubert Christopher Maxwell</v>
+        <v>Hubert C Maxwell</v>
       </c>
       <c r="B4" t="str">
         <v>July 11, 1990</v>
@@ -2205,13 +2313,49 @@
         <v>Spaghetti</v>
       </c>
       <c r="N4" t="str">
-        <v>Bacardi\</v>
+        <v>Bacardi</v>
       </c>
       <c r="O4" t="str">
         <v>Sports</v>
       </c>
       <c r="P4" t="str">
         <v>Planning</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Cancer</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Horse</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Drive</v>
+      </c>
+      <c r="T4" t="str">
+        <v>ENTP</v>
+      </c>
+      <c r="U4" t="str">
+        <v>Judging</v>
+      </c>
+      <c r="V4" t="str">
+        <v>Feeling</v>
+      </c>
+      <c r="W4" t="str">
+        <v>Intuition</v>
+      </c>
+      <c r="X4" t="str">
+        <v>Extraverted</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>Verbal (Linguistic)</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>Acts of Service</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>Wolf</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>God</v>
       </c>
     </row>
     <row r="5">
@@ -2263,6 +2407,42 @@
       <c r="P5" t="str">
         <v>Dancing</v>
       </c>
+      <c r="Q5" t="str">
+        <v>Gemini</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Horse</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Drive</v>
+      </c>
+      <c r="T5" t="str">
+        <v>ENTJ</v>
+      </c>
+      <c r="U5" t="str">
+        <v>Perceiving</v>
+      </c>
+      <c r="V5" t="str">
+        <v>Thinking</v>
+      </c>
+      <c r="W5" t="str">
+        <v>Intuition</v>
+      </c>
+      <c r="X5" t="str">
+        <v>Introverted</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Physical (Kinesthetic)</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>Words of Affirmation</v>
+      </c>
+      <c r="AA5" t="str">
+        <v>Hawk</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>Universe</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2313,10 +2493,46 @@
       <c r="P6" t="str">
         <v>Acting</v>
       </c>
+      <c r="Q6" t="str">
+        <v>Cancer</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Horse</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Influence</v>
+      </c>
+      <c r="T6" t="str">
+        <v>INTP</v>
+      </c>
+      <c r="U6" t="str">
+        <v>Judging</v>
+      </c>
+      <c r="V6" t="str">
+        <v>Feeling</v>
+      </c>
+      <c r="W6" t="str">
+        <v>Intuition</v>
+      </c>
+      <c r="X6" t="str">
+        <v>Extraverted</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Visual (Spatial)</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>Receiving Gifts</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>Gorilla</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>Spiritual</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AB6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -1968,28 +1968,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Phone Number</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Birthday</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2009,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2076,28 +2067,22 @@
         <v>BusinessPersonalityType</v>
       </c>
       <c r="U1" t="str">
-        <v>Perceiving Or Judging</v>
+        <v>LearningType</v>
       </c>
       <c r="V1" t="str">
-        <v>Thinking or Feeling</v>
+        <v>LoveLanguage</v>
       </c>
       <c r="W1" t="str">
-        <v>Sensing or Intuition</v>
+        <v>SpiritAnimal</v>
       </c>
       <c r="X1" t="str">
-        <v>Introverted or Extraverted</v>
+        <v>Life Dream Goal</v>
       </c>
       <c r="Y1" t="str">
-        <v>LearningType</v>
+        <v>Favorite Sport</v>
       </c>
       <c r="Z1" t="str">
-        <v>LoveLanguage</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>SpiritAnimal</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>Religion</v>
+        <v>Favorite Song</v>
       </c>
     </row>
     <row r="2">
@@ -2162,28 +2147,22 @@
         <v>ENTJ</v>
       </c>
       <c r="U2" t="str">
-        <v>Perceiving</v>
+        <v>Solitary</v>
       </c>
       <c r="V2" t="str">
-        <v>Feeling</v>
+        <v>Physical Touch</v>
       </c>
       <c r="W2" t="str">
-        <v>Intuition</v>
+        <v>Dragon</v>
       </c>
       <c r="X2" t="str">
-        <v>Introverted</v>
+        <v>Legendary Musician</v>
       </c>
       <c r="Y2" t="str">
-        <v>Solitary</v>
+        <v>Basketball</v>
       </c>
       <c r="Z2" t="str">
-        <v>Physical Touch</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>Dragon</v>
-      </c>
-      <c r="AB2" t="str">
-        <v>Spiritual</v>
+        <v xml:space="preserve">The Drop </v>
       </c>
     </row>
     <row r="3">
@@ -2248,28 +2227,22 @@
         <v>INTP</v>
       </c>
       <c r="U3" t="str">
-        <v>Judging</v>
+        <v>Logical(Mathematical)</v>
       </c>
       <c r="V3" t="str">
-        <v>Thinking</v>
+        <v>Quality Time</v>
       </c>
       <c r="W3" t="str">
-        <v>Intuition</v>
+        <v>Cheetah</v>
       </c>
       <c r="X3" t="str">
-        <v>Introverted</v>
+        <v>Reiannase Man</v>
       </c>
       <c r="Y3" t="str">
-        <v>Logical(Mathematical)</v>
+        <v>Track &amp; Field</v>
       </c>
       <c r="Z3" t="str">
-        <v>Quality Time</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>Cheetah</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>Christian</v>
+        <v>Desire Want and Need</v>
       </c>
     </row>
     <row r="4">
@@ -2334,28 +2307,22 @@
         <v>ENTP</v>
       </c>
       <c r="U4" t="str">
-        <v>Judging</v>
+        <v>Verbal (Linguistic)</v>
       </c>
       <c r="V4" t="str">
-        <v>Feeling</v>
+        <v>Acts of Service</v>
       </c>
       <c r="W4" t="str">
-        <v>Intuition</v>
+        <v>Wolf</v>
       </c>
       <c r="X4" t="str">
-        <v>Extraverted</v>
+        <v>$10 mil Mansion</v>
       </c>
       <c r="Y4" t="str">
-        <v>Verbal (Linguistic)</v>
+        <v>Poker</v>
       </c>
       <c r="Z4" t="str">
-        <v>Acts of Service</v>
-      </c>
-      <c r="AA4" t="str">
-        <v>Wolf</v>
-      </c>
-      <c r="AB4" t="str">
-        <v>God</v>
+        <v>Fallin</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2387,22 @@
         <v>ENTJ</v>
       </c>
       <c r="U5" t="str">
-        <v>Perceiving</v>
+        <v>Physical (Kinesthetic)</v>
       </c>
       <c r="V5" t="str">
-        <v>Thinking</v>
+        <v>Words of Affirmation</v>
       </c>
       <c r="W5" t="str">
-        <v>Intuition</v>
+        <v>Hawk</v>
       </c>
       <c r="X5" t="str">
-        <v>Introverted</v>
+        <v>Universal Peace</v>
       </c>
       <c r="Y5" t="str">
-        <v>Physical (Kinesthetic)</v>
+        <v>Chess</v>
       </c>
       <c r="Z5" t="str">
-        <v>Words of Affirmation</v>
-      </c>
-      <c r="AA5" t="str">
-        <v>Hawk</v>
-      </c>
-      <c r="AB5" t="str">
-        <v>Universe</v>
+        <v>Freestyle 213</v>
       </c>
     </row>
     <row r="6">
@@ -2506,33 +2467,27 @@
         <v>INTP</v>
       </c>
       <c r="U6" t="str">
-        <v>Judging</v>
+        <v>Visual (Spatial)</v>
       </c>
       <c r="V6" t="str">
-        <v>Feeling</v>
+        <v>Receiving Gifts</v>
       </c>
       <c r="W6" t="str">
-        <v>Intuition</v>
+        <v>Gorilla</v>
       </c>
       <c r="X6" t="str">
-        <v>Extraverted</v>
+        <v>Become better</v>
       </c>
       <c r="Y6" t="str">
-        <v>Visual (Spatial)</v>
+        <v>Chess</v>
       </c>
       <c r="Z6" t="str">
-        <v>Receiving Gifts</v>
-      </c>
-      <c r="AA6" t="str">
-        <v>Gorilla</v>
-      </c>
-      <c r="AB6" t="str">
-        <v>Spiritual</v>
+        <v>Fly Away</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Z6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="College" sheetId="1" r:id="rId1"/>
+    <sheet name="InternationalCollege" sheetId="1" r:id="rId1"/>
     <sheet name="Personal" sheetId="2" r:id="rId2"/>
     <sheet name="Podcast" sheetId="3" r:id="rId3"/>
     <sheet name="Broadcast" sheetId="4" r:id="rId4"/>

--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -8,8 +8,8 @@
     <sheet name="InternationalBroadcast" sheetId="3" r:id="rId3"/>
     <sheet name="NationalBroadcast" sheetId="4" r:id="rId4"/>
     <sheet name="Satellite" sheetId="5" r:id="rId5"/>
-    <sheet name="Podcast" sheetId="6" r:id="rId6"/>
-    <sheet name="Friends" sheetId="7" r:id="rId7"/>
+    <sheet name="Blogs" sheetId="6" r:id="rId6"/>
+    <sheet name="Podcasts" sheetId="7" r:id="rId7"/>
     <sheet name="Music Library" sheetId="8" r:id="rId8"/>
     <sheet name="Family" sheetId="9" r:id="rId9"/>
     <sheet name="Press" sheetId="10" r:id="rId10"/>
@@ -1798,13 +1798,2764 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>website</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1146 Miles</v>
+      </c>
+      <c r="B2" t="str">
+        <v>submissions@1146miles.com</v>
+      </c>
+      <c r="C2" t="str">
+        <v>http://1146miles.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>3hive</v>
+      </c>
+      <c r="B3" t="str">
+        <v>3hive.com@gmail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>http://www.3hive.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>7inches</v>
+      </c>
+      <c r="B4" t="str">
+        <v>jdean99@gmail.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>http://7inches.blogspot.com</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Absolute Powerpop</v>
+      </c>
+      <c r="B5" t="str">
+        <v>chiltonbell@aol.com</v>
+      </c>
+      <c r="C5" t="str">
+        <v>http://absolutepowerpop.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>An Idiot's Guide to Dreaming</v>
+      </c>
+      <c r="B6" t="str">
+        <v>farmerglitch@gmail.com</v>
+      </c>
+      <c r="C6" t="str">
+        <v>http://loki23.blogspot.com</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ANON Magazine</v>
+      </c>
+      <c r="B7" t="str">
+        <v>info@anonmagazine.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>http://anonmagazine.com</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Appetite For Distraction</v>
+      </c>
+      <c r="B8" t="str">
+        <v>aodblog@gmail.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>http://appetitefordistraction.blogspot.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Asian Dan</v>
+      </c>
+      <c r="B9" t="str">
+        <v>asiandanblog@gmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>http://www.asianmandan.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Awaiting the Flood</v>
+      </c>
+      <c r="B10" t="str">
+        <v>jason@driftwoodmediagroup.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>http://awaitingtheflood.com</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Baby Black Widows</v>
+      </c>
+      <c r="B11" t="str">
+        <v>babyblackwidows@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>http://www.babyblackwidows.com</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Badass Bands Blogs</v>
+      </c>
+      <c r="B12" t="str">
+        <v>BadassBandsBlog@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>http://badassbandsblog.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>BeatsCrave</v>
+      </c>
+      <c r="B13" t="str">
+        <v>tips@beatcrave.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>http://beatcrave.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Berkeley Place</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ekalett@yahoo.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>http://www.berkeleyplaceblog.com</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>BIRP! / BIRP! TV</v>
+      </c>
+      <c r="B15" t="str">
+        <v>submit@birp.fm</v>
+      </c>
+      <c r="C15" t="str">
+        <v>http://www.birp.fm</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>blahblahblahscience</v>
+      </c>
+      <c r="B16" t="str">
+        <v>music@blahblahblahscience.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>http://blahblahblahscience.com</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Birghtside Live</v>
+      </c>
+      <c r="B17" t="str">
+        <v>thegang@brightsidelive.com</v>
+      </c>
+      <c r="C17" t="str">
+        <v>http://www.brightsidelive.com</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Christmas Underground</v>
+      </c>
+      <c r="B18" t="str">
+        <v>christmasunderground@gmail.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>http://christmasunderground.com</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>clicky clicky</v>
+      </c>
+      <c r="B19" t="str">
+        <v>breitling@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>http://clickyclickymusic.com</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>DeadJournalist.com</v>
+      </c>
+      <c r="B20" t="str">
+        <v>deadjournalist@gmail.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>http://www.deadjournalist.com/DJdc</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Dingus</v>
+      </c>
+      <c r="B21" t="str">
+        <v>dingus.tips@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>http://www.dingusonmusic.com</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Dog Gone Blog</v>
+      </c>
+      <c r="B22" t="str">
+        <v>doggoneblog@gmail.com</v>
+      </c>
+      <c r="C22" t="str">
+        <v>http://doggoneblog.com</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Elephant Talk</v>
+      </c>
+      <c r="B23" t="str">
+        <v>elephanttalksubmissions@gmail.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>http://elephanttalkindie.wordpress.com</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>The Eclectic Ear</v>
+      </c>
+      <c r="B24" t="str">
+        <v>tbrosnan@live.com</v>
+      </c>
+      <c r="C24" t="str">
+        <v>http://timbrosnan.wordpress.com</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Enter The Shell Blog and Podcast</v>
+      </c>
+      <c r="B25" t="str">
+        <v>mailo@entertheshell.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>http://www.entertheshell.com</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Feast of Beast</v>
+      </c>
+      <c r="B26" t="str">
+        <v>feastofbeast@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>http://feastofbeast.tumblr.com</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Fingertips</v>
+      </c>
+      <c r="B27" t="str">
+        <v>fingertipsmusic@gmail.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>http://www.fingertipsmusic.com</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Forest Gospel</v>
+      </c>
+      <c r="B28" t="str">
+        <v>forestgospel@hotmail.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>http://forestgospel.blogspot.com</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Friends With Both Arms</v>
+      </c>
+      <c r="B29" t="str">
+        <v>nalic11@gmail.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v>http://www.friendswithbotharms.com</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>GIMME TINNITUS</v>
+      </c>
+      <c r="B30" t="str">
+        <v>gimmetinnitus@gmail.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>http://gimmetinnitus.com</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>gorilla vs. bear</v>
+      </c>
+      <c r="B31" t="str">
+        <v>chris@gorillavsbear.net</v>
+      </c>
+      <c r="C31" t="str">
+        <v>http://www.gorillavsbear.net</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Hear, Hear!</v>
+      </c>
+      <c r="B32" t="str">
+        <v>kroessman@gmail.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>http://hearhearmusic.com</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>HearYa</v>
+      </c>
+      <c r="B33" t="str">
+        <v>hearyablog@yahoo.com</v>
+      </c>
+      <c r="C33" t="str">
+        <v>http://www.hearya.com</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>The Hood Internet</v>
+      </c>
+      <c r="B34" t="str">
+        <v>thehoodinternet@gmail.com</v>
+      </c>
+      <c r="C34" t="str">
+        <v>http://thehoodinternet.com</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>I Guess I'm Floating</v>
+      </c>
+      <c r="B35" t="str">
+        <v>contact.iguessimfloating@gmail.com</v>
+      </c>
+      <c r="C35" t="str">
+        <v>http://iguessimfloating.blogspot.com</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>I Listen So You Don't Have To.</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ilsudh2@gmail.com</v>
+      </c>
+      <c r="C36" t="str">
+        <v>http://ilistensoyoudonthaveto.com</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>I Rock Cleveland</v>
+      </c>
+      <c r="B37" t="str">
+        <v>irockcleveland@gmail.com</v>
+      </c>
+      <c r="C37" t="str">
+        <v>http://blog.irockcleveland.com</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Indie Obsessive</v>
+      </c>
+      <c r="B38" t="str">
+        <v>IndieObsessive@gmail.com</v>
+      </c>
+      <c r="C38" t="str">
+        <v>http://indieobsessive.blogspot.com</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>The Indie Place</v>
+      </c>
+      <c r="B39" t="str">
+        <v>raymie@theindieplace.com</v>
+      </c>
+      <c r="C39" t="str">
+        <v>http://theindieplace.com</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Indie Shuffle</v>
+      </c>
+      <c r="B40" t="str">
+        <v>submissions@indieshuffle.com</v>
+      </c>
+      <c r="C40" t="str">
+        <v>http://www.indieshuffle.com</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Indie Today</v>
+      </c>
+      <c r="B41" t="str">
+        <v>drh994@gmail.com</v>
+      </c>
+      <c r="C41" t="str">
+        <v>http://indietoday.net</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>The JogTunes Indie Podcast</v>
+      </c>
+      <c r="B42" t="str">
+        <v>jogtunes@gmail.com</v>
+      </c>
+      <c r="C42" t="str">
+        <v>http://jogtunes.com</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Jon Ali's Blog</v>
+      </c>
+      <c r="B43" t="str">
+        <v>jon@jonaslisblog.com</v>
+      </c>
+      <c r="C43" t="str">
+        <v>http://jonaslisblog.com</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Jungle Indie Rock</v>
+      </c>
+      <c r="B44" t="str">
+        <v>jimdoindierockmusic@yahoo.com</v>
+      </c>
+      <c r="C44" t="str">
+        <v>http://www.jungleindierock.com</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Kings of A&amp;R</v>
+      </c>
+      <c r="B45" t="str">
+        <v>dean@kingsofar.com</v>
+      </c>
+      <c r="C45" t="str">
+        <v>http://www.kingsofar.com</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Knox Road</v>
+      </c>
+      <c r="B46" t="str">
+        <v>knoxroadblog@gmail.com</v>
+      </c>
+      <c r="C46" t="str">
+        <v>http://www.knoxroad.com</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Largehearted Boy</v>
+      </c>
+      <c r="B47" t="str">
+        <v>boy@largeheartedboy.com</v>
+      </c>
+      <c r="C47" t="str">
+        <v>http://blog.largeheartedboy.com</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Loudersoft</v>
+      </c>
+      <c r="B48" t="str">
+        <v>promo@loudersoft.com</v>
+      </c>
+      <c r="C48" t="str">
+        <v>http://loudersoft.com</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>lyriquediscorde</v>
+      </c>
+      <c r="B49" t="str">
+        <v>lyrique.discorde@gmail.com</v>
+      </c>
+      <c r="C49" t="str">
+        <v>http://lyriquediscorde.com</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Maimed and Tamed</v>
+      </c>
+      <c r="B50" t="str">
+        <v>info@maimedandtamed.com</v>
+      </c>
+      <c r="C50" t="str">
+        <v>http://maimedandtamed.com</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>The Modern Folk Music of America</v>
+      </c>
+      <c r="B51" t="str">
+        <v>modern.folk@gmail.com</v>
+      </c>
+      <c r="C51" t="str">
+        <v>http://www.themodernfolk.net</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Mostly Junkfood</v>
+      </c>
+      <c r="B52" t="str">
+        <v>press@mostlyjunkfood.com</v>
+      </c>
+      <c r="C52" t="str">
+        <v>http://mostlyjunkfood.com</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Muruch</v>
+      </c>
+      <c r="B53" t="str">
+        <v>muruch@gmail.com</v>
+      </c>
+      <c r="C53" t="str">
+        <v>http://www.muruch.com</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>The Music Ninja</v>
+      </c>
+      <c r="B54" t="str">
+        <v>blas@themusicninja.com</v>
+      </c>
+      <c r="C54" t="str">
+        <v>http://www.themusicninja.com</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>MusicBoxPete</v>
+      </c>
+      <c r="B55" t="str">
+        <v>musicboxpete@gmail.com</v>
+      </c>
+      <c r="C55" t="str">
+        <v>http://www.musicboxpete.com</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Needcoffee.com</v>
+      </c>
+      <c r="B56" t="str">
+        <v>loonies@needcoffee.com</v>
+      </c>
+      <c r="C56" t="str">
+        <v>http://www.needcoffee.com</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Newdust</v>
+      </c>
+      <c r="B57" t="str">
+        <v>travis@newdust.com</v>
+      </c>
+      <c r="C57" t="str">
+        <v>http://www.newdust.com</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Now This Sound Is Brave</v>
+      </c>
+      <c r="B58" t="str">
+        <v>jennifer@nowthissound.com</v>
+      </c>
+      <c r="C58" t="str">
+        <v>http://www.nowthissound.com</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Now Tune In</v>
+      </c>
+      <c r="B59" t="str">
+        <v>info@nowtunein.com</v>
+      </c>
+      <c r="C59" t="str">
+        <v>http://www.nowtunein.com</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Obscure Sound</v>
+      </c>
+      <c r="B60" t="str">
+        <v>mike@obscuresound.com</v>
+      </c>
+      <c r="C60" t="str">
+        <v>http://obscuresound.com</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Oh So Fresh! Music</v>
+      </c>
+      <c r="B61" t="str">
+        <v>osfeditor@gmail.com</v>
+      </c>
+      <c r="C61" t="str">
+        <v>http://www.ohsofreshmusic.com</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Pigeons and Planes</v>
+      </c>
+      <c r="B62" t="str">
+        <v>pigeonsandplanes@gmail.com</v>
+      </c>
+      <c r="C62" t="str">
+        <v>http://pigeonsandplanes.com</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Popa's Tunes</v>
+      </c>
+      <c r="B63" t="str">
+        <v>msubject2change@gmail.com</v>
+      </c>
+      <c r="C63" t="str">
+        <v>http://popatunes.blogspot.com</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Popdose</v>
+      </c>
+      <c r="B64" t="str">
+        <v>creighton.keith@gmail.com</v>
+      </c>
+      <c r="C64" t="str">
+        <v>http://www.popdose.com</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>PowerPop</v>
+      </c>
+      <c r="B65" t="str">
+        <v>ssimels@gmail.com</v>
+      </c>
+      <c r="C65" t="str">
+        <v>http://www.powerpop.blogspot.com</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Powerpopulist</v>
+      </c>
+      <c r="B66" t="str">
+        <v>powerpopulist@yahoo.com</v>
+      </c>
+      <c r="C66" t="str">
+        <v>http://powerpopulist.blogspot.com</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Pretty Much Amazing</v>
+      </c>
+      <c r="B67" t="str">
+        <v>editor@gmail.com</v>
+      </c>
+      <c r="C67" t="str">
+        <v>http://prettymuchamazing.com</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Rawblog</v>
+      </c>
+      <c r="B68" t="str">
+        <v>rawkblog@gmail.com</v>
+      </c>
+      <c r="C68" t="str">
+        <v>http://www.rawblog.net</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Rollo &amp; Grady</v>
+      </c>
+      <c r="B69" t="str">
+        <v>rollogrady@gmail.com</v>
+      </c>
+      <c r="C69" t="str">
+        <v>http://www.rollogrady.com</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Ryan's Smashing Life</v>
+      </c>
+      <c r="B70" t="str">
+        <v>rsl@rslblog.com</v>
+      </c>
+      <c r="C70" t="str">
+        <v>http://www.rslblog.com</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Side One: Track One</v>
+      </c>
+      <c r="B71" t="str">
+        <v>sideonetrackone@gmail.com</v>
+      </c>
+      <c r="C71" t="str">
+        <v>http://www.sideonetrackone.com</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>The Singles Jukebox</v>
+      </c>
+      <c r="B72" t="str">
+        <v>info@thesinglesjukebox.com</v>
+      </c>
+      <c r="C72" t="str">
+        <v>http://www.thesinglesjukebox.com</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>skatterbrain</v>
+      </c>
+      <c r="B73" t="str">
+        <v>skatterbrainpop@gmail.com</v>
+      </c>
+      <c r="C73" t="str">
+        <v>http://skatterbrain.org</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Sleeping Hedgehog</v>
+      </c>
+      <c r="B74" t="str">
+        <v>editor@sleepinghedgehog.com</v>
+      </c>
+      <c r="C74" t="str">
+        <v>http://sleepinghedgehod.com</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>songsfortheday</v>
+      </c>
+      <c r="B75" t="str">
+        <v>songsfortheday@gmail.com</v>
+      </c>
+      <c r="C75" t="str">
+        <v>http://songsfortheday.wordpress.com</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Sound In The Signals Magazine</v>
+      </c>
+      <c r="B76" t="str">
+        <v>soundinthesignals@gmail.com</v>
+      </c>
+      <c r="C76" t="str">
+        <v>http://www.soundinthesignals.tk</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>The Sound of Indie</v>
+      </c>
+      <c r="B77" t="str">
+        <v>kevin@thesoundofindie.com</v>
+      </c>
+      <c r="C77" t="str">
+        <v>http://www.thesoundofindie.com</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Speakers in Code</v>
+      </c>
+      <c r="B78" t="str">
+        <v>jason.speakersincode@gmail.com</v>
+      </c>
+      <c r="C78" t="str">
+        <v>http://www.speakersincode.com</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>The Stark Online</v>
+      </c>
+      <c r="B79" t="str">
+        <v>starkny@thestarkonline.com</v>
+      </c>
+      <c r="C79" t="str">
+        <v>http://www.thestarkonline.com</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Stricklysocial</v>
+      </c>
+      <c r="B80" t="str">
+        <v>submissions@strictlysocial.com</v>
+      </c>
+      <c r="C80" t="str">
+        <v>http://www.strictlysocial.com</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Sunset in the Rearview</v>
+      </c>
+      <c r="B81" t="str">
+        <v>music@sunsetintherearview.com</v>
+      </c>
+      <c r="C81" t="str">
+        <v>http://sunsetintherearview.com</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>The University of Music</v>
+      </c>
+      <c r="B82" t="str">
+        <v>theuofmusic@gmail.com</v>
+      </c>
+      <c r="C82" t="str">
+        <v>http://uofmusic.com</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>We All Want Someone To Shout For</v>
+      </c>
+      <c r="B83" t="str">
+        <v>weallwantsomeone@gmail.com</v>
+      </c>
+      <c r="C83" t="str">
+        <v>http://www.weallwantsomeone.org</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>We Listen For You</v>
+      </c>
+      <c r="B84" t="str">
+        <v>welistenforyoublog@gmail.com</v>
+      </c>
+      <c r="C84" t="str">
+        <v>http://www.welistenforyou.com</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>What's Hip</v>
+      </c>
+      <c r="B85" t="str">
+        <v>whatshipmusic@gmail.com</v>
+      </c>
+      <c r="C85" t="str">
+        <v>http://whatship.net</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Wongie's Music World</v>
+      </c>
+      <c r="B86" t="str">
+        <v>wongiesworld@yahoo.com</v>
+      </c>
+      <c r="C86" t="str">
+        <v>http://www.wongiesmusicworld.blogspot.com</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>The World in a Paper Cup</v>
+      </c>
+      <c r="B87" t="str">
+        <v>emma@theworldinapapercup.com</v>
+      </c>
+      <c r="C87" t="str">
+        <v>http://www.theworldinapapercup.com</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Yours Truly</v>
+      </c>
+      <c r="B88" t="str">
+        <v>me@yourstru.ly</v>
+      </c>
+      <c r="C88" t="str">
+        <v>http://yourstru.ly</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>A Good Day For Airplay</v>
+      </c>
+      <c r="B89" t="str">
+        <v>gooddayairplay@gmail.com</v>
+      </c>
+      <c r="C89" t="str">
+        <v>http://www.agooddayforairplay.com</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>AWmusic.ca</v>
+      </c>
+      <c r="B90" t="str">
+        <v>acheng88@gmail.com</v>
+      </c>
+      <c r="C90" t="str">
+        <v>http://www.awmusic.ca</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>The Delete Bin</v>
+      </c>
+      <c r="B91" t="str">
+        <v>clippernolan@gmail.com</v>
+      </c>
+      <c r="C91" t="str">
+        <v>http://www.thedeletebin.com</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Hillydilly</v>
+      </c>
+      <c r="B92" t="str">
+        <v>submit@hillydilly.com</v>
+      </c>
+      <c r="C92" t="str">
+        <v>http://hillydilly.com</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>radio free canuckistan</v>
+      </c>
+      <c r="B93" t="str">
+        <v>mmmbarclay@gmail.com</v>
+      </c>
+      <c r="C93" t="str">
+        <v>http://www.radiofreecanuckistan.blogspot.com</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Said the Gramophone</v>
+      </c>
+      <c r="B94" t="str">
+        <v>jordan@saidthegramophone.com</v>
+      </c>
+      <c r="C94" t="str">
+        <v>http://www.saidthegramophone.com</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Soft Signal</v>
+      </c>
+      <c r="B95" t="str">
+        <v>contact@softsignal.net</v>
+      </c>
+      <c r="C95" t="str">
+        <v>http://www.softsignal.net</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Blog Musicologas</v>
+      </c>
+      <c r="B96" t="str">
+        <v>musicologas@gmail.com</v>
+      </c>
+      <c r="C96" t="str">
+        <v>http://musicologas.blogspot.com</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>indieHearts</v>
+      </c>
+      <c r="B97" t="str">
+        <v>hola@indiehearts.com</v>
+      </c>
+      <c r="C97" t="str">
+        <v>http://www.indiehearts.com</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Sonido Indie</v>
+      </c>
+      <c r="B98" t="str">
+        <v>sonidoindie@gmail.com</v>
+      </c>
+      <c r="C98" t="str">
+        <v>http://sonidoindie.blogspot.com</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>All, Everyone, United</v>
+      </c>
+      <c r="B99" t="str">
+        <v>alleveryoneunited@gmail.com</v>
+      </c>
+      <c r="C99" t="str">
+        <v>http://alleveryone.blogspot.com</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>One Chord To Another</v>
+      </c>
+      <c r="B100" t="str">
+        <v>veslau@onechord.net</v>
+      </c>
+      <c r="C100" t="str">
+        <v>http://www.onechord.net</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>alain finkielkrautrock</v>
+      </c>
+      <c r="B101" t="str">
+        <v>alainfinkelkrautrock@gmail.com</v>
+      </c>
+      <c r="C101" t="str">
+        <v>http://www.alainfinkiekrautrock.com</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>My Head is a Jukebox</v>
+      </c>
+      <c r="B102" t="str">
+        <v>myheadisajukebox@gmail.com</v>
+      </c>
+      <c r="C102" t="str">
+        <v>http://myheadisajukebox.blogspot.com</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>das klienicum</v>
+      </c>
+      <c r="B103" t="str">
+        <v>klienicum@yahoo.de</v>
+      </c>
+      <c r="C103" t="str">
+        <v>http://dasklienicum.blogspot.com</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>No Fear Of Pop</v>
+      </c>
+      <c r="B104" t="str">
+        <v>submissions@nofearofpop.net</v>
+      </c>
+      <c r="C104" t="str">
+        <v>http://nofearofpop.net</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Sexyloser</v>
+      </c>
+      <c r="B105" t="str">
+        <v>dirk.huppertz@gmx.de</v>
+      </c>
+      <c r="C105" t="str">
+        <v>http://www.sexy-loser.blogspot.com</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Barrygruff</v>
+      </c>
+      <c r="B106" t="str">
+        <v>barrygruff@gmail.com</v>
+      </c>
+      <c r="C106" t="str">
+        <v>http://barrygruff.com</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>The G-Man</v>
+      </c>
+      <c r="B107" t="str">
+        <v>bands@thegmanworld.com</v>
+      </c>
+      <c r="C107" t="str">
+        <v>http://www.thegmanworld.com</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>mp3hugger</v>
+      </c>
+      <c r="B108" t="str">
+        <v>contact@mp3hugger.com</v>
+      </c>
+      <c r="C108" t="str">
+        <v>http://www.mp3hugger.com</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Nialler9</v>
+      </c>
+      <c r="B109" t="str">
+        <v>promo@nialler9.com</v>
+      </c>
+      <c r="C109" t="str">
+        <v>http://nialler9.com</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Indie for Bunnies</v>
+      </c>
+      <c r="B110" t="str">
+        <v>indieforbunnies@gmail.com</v>
+      </c>
+      <c r="C110" t="str">
+        <v>http://www.indieforbunnies.com</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>polaroid - un blog alla radio</v>
+      </c>
+      <c r="B111" t="str">
+        <v>blog@polaroidallaradio.it</v>
+      </c>
+      <c r="C111" t="str">
+        <v>http://polaroid.blogspot.com</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Music Eye Reviews</v>
+      </c>
+      <c r="B112" t="str">
+        <v>justinas@aliveway.net</v>
+      </c>
+      <c r="C112" t="str">
+        <v>http://www.musiceyereviews.com</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Fine Fine Music</v>
+      </c>
+      <c r="B113" t="str">
+        <v>mail@finefinemusic.com</v>
+      </c>
+      <c r="C113" t="str">
+        <v>http://www.finefinemusic.com</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>alltomorrowmusic</v>
+      </c>
+      <c r="B114" t="str">
+        <v>alltomorrowmusic@gmail.com</v>
+      </c>
+      <c r="C114" t="str">
+        <v>http://www.alltomorrowmusic.com</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Bolachas</v>
+      </c>
+      <c r="B115" t="str">
+        <v>submit@bolachas.org</v>
+      </c>
+      <c r="C115" t="str">
+        <v>http://bolachas.org</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>ZME Music</v>
+      </c>
+      <c r="B116" t="str">
+        <v>tibipuiu@gmail.com</v>
+      </c>
+      <c r="C116" t="str">
+        <v>http://www.zmemusic.com</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>In The Riff</v>
+      </c>
+      <c r="B117" t="str">
+        <v>mail@intheriff.com</v>
+      </c>
+      <c r="C117" t="str">
+        <v>http://www.intheriff.com</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Jungle Indie Rock</v>
+      </c>
+      <c r="B118" t="str">
+        <v>jimdoindierockmusic@yahoo.com</v>
+      </c>
+      <c r="C118" t="str">
+        <v>http://jungleindierockspain.tumblr.com</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>17 Seconds</v>
+      </c>
+      <c r="B119" t="str">
+        <v>seventeensecondsblog@hotmail.co.uk</v>
+      </c>
+      <c r="C119" t="str">
+        <v>http://17seconds.co.uk</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Aye Tunes</v>
+      </c>
+      <c r="B120" t="str">
+        <v>jim@ayetunes.org.uk</v>
+      </c>
+      <c r="C120" t="str">
+        <v>http://blog.ayetunes.org.uk</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>The Blue Walrus</v>
+      </c>
+      <c r="B121" t="str">
+        <v>walrae@thebluewalrus.com</v>
+      </c>
+      <c r="C121" t="str">
+        <v>http://www.thebluewalrus.com</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Bynar's Indie Disco</v>
+      </c>
+      <c r="B122" t="str">
+        <v>info@djbynar.com</v>
+      </c>
+      <c r="C122" t="str">
+        <v>http://www.djbynar.com</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Cougar Microbes</v>
+      </c>
+      <c r="B123" t="str">
+        <v>team@cougarmicrobes.com</v>
+      </c>
+      <c r="C123" t="str">
+        <v>http://www.cougarmicrobes.com</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Misfit City</v>
+      </c>
+      <c r="B124" t="str">
+        <v>misfitcitymail@gmail.com</v>
+      </c>
+      <c r="C124" t="str">
+        <v>http://misfitcity.org</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>GoldFlakePaint</v>
+      </c>
+      <c r="B125" t="str">
+        <v>mail@goldflakepaint.co.uk</v>
+      </c>
+      <c r="C125" t="str">
+        <v>http://www.goldflakepaint.co.uk</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Hey Man, Check My Band</v>
+      </c>
+      <c r="B126" t="str">
+        <v>heymancheckmyband@gmail.com</v>
+      </c>
+      <c r="C126" t="str">
+        <v>http://heymancheckmyband.wordpress.com</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>[last year's girl]</v>
+      </c>
+      <c r="B127" t="str">
+        <v>lisamarie@pixlet.net</v>
+      </c>
+      <c r="C127" t="str">
+        <v>http://lastyearsgirl.pixlet.net</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>The Mad Mackerel</v>
+      </c>
+      <c r="B128" t="str">
+        <v>madmackerel@me.com</v>
+      </c>
+      <c r="C128" t="str">
+        <v>http://madmackerel.wordpress.com</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>The Metaphorical  Boat</v>
+      </c>
+      <c r="B129" t="str">
+        <v>christophermcbride@outlook.com</v>
+      </c>
+      <c r="C129" t="str">
+        <v>http://metaphoricalboat.blogspot.ie</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>The Monitors</v>
+      </c>
+      <c r="B130" t="str">
+        <v>info@the-monitors.com</v>
+      </c>
+      <c r="C130" t="str">
+        <v>http://www.the-monitors.com</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Music Liberation</v>
+      </c>
+      <c r="B131" t="str">
+        <v>musicliberation@hotmail.co.uk</v>
+      </c>
+      <c r="C131" t="str">
+        <v>http://www.musicliberation.blogspot.com</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Music Like Dirt</v>
+      </c>
+      <c r="B132" t="str">
+        <v>musiclikedirt@gmail.com</v>
+      </c>
+      <c r="C132" t="str">
+        <v>http://www.musiclikedirt.com</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>My Band's Better Than Your Band</v>
+      </c>
+      <c r="B133" t="str">
+        <v>ollierussian@gmail.com</v>
+      </c>
+      <c r="C133" t="str">
+        <v>http://mybandsbetterthanyourband.com</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>The Real Brit Jean</v>
+      </c>
+      <c r="B134" t="str">
+        <v>brit@therealbritjean.com</v>
+      </c>
+      <c r="C134" t="str">
+        <v>http://therealbritjean.com</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>No Rock &amp; Roll Fun</v>
+      </c>
+      <c r="B135" t="str">
+        <v>simonb@gmail.com</v>
+      </c>
+      <c r="C135" t="str">
+        <v>http://xrrf.blogspot.com</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Song, by Toad</v>
+      </c>
+      <c r="B136" t="str">
+        <v>toad@songbytoad.com</v>
+      </c>
+      <c r="C136" t="str">
+        <v>http://www.songbytoad.com</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Spools Paradise</v>
+      </c>
+      <c r="B137" t="str">
+        <v>spoolsparadise@live.co.uk</v>
+      </c>
+      <c r="C137" t="str">
+        <v>http://spoolsparadise.blogspot.com</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Wake the Deaf</v>
+      </c>
+      <c r="B138" t="str">
+        <v>wakethedeaf@hotmail.co.uk</v>
+      </c>
+      <c r="C138" t="str">
+        <v>http://wakethedeaf.co.uk</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Doubtful Sounds</v>
+      </c>
+      <c r="B139" t="str">
+        <v>doubtfulsounds@iprimus.com.au</v>
+      </c>
+      <c r="C139" t="str">
+        <v>http://doubtfulsounds.net</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Indie30.com</v>
+      </c>
+      <c r="B140" t="str">
+        <v>info@indie30.com</v>
+      </c>
+      <c r="C140" t="str">
+        <v>http://www.indie30.com</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Oceans Never Listen</v>
+      </c>
+      <c r="B141" t="str">
+        <v>oceansneverlisten@gmail.com</v>
+      </c>
+      <c r="C141" t="str">
+        <v>http://oceansneverlisten.blogspot.com</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Songs That Should Be Mainstream</v>
+      </c>
+      <c r="B142" t="str">
+        <v>songs.that.should.be.famous@gmail.com</v>
+      </c>
+      <c r="C142" t="str">
+        <v>http://songs-that-should-be-mainstream.blogspot.com.au</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Woozy</v>
+      </c>
+      <c r="B143" t="str">
+        <v>wooozy@spli-t.com</v>
+      </c>
+      <c r="C143" t="str">
+        <v>http://www.wooozy.cn</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Gold Soundz</v>
+      </c>
+      <c r="B144" t="str">
+        <v>marc@goldsoundzblog.com</v>
+      </c>
+      <c r="C144" t="str">
+        <v>http://goldsoundzblog.com</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Hi-Hi-Whoopee</v>
+      </c>
+      <c r="B145" t="str">
+        <v>hihiwhoopee@gmail.com</v>
+      </c>
+      <c r="C145" t="str">
+        <v>http://hihiwhoopee.tumblr.com</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Keep Cool Fool</v>
+      </c>
+      <c r="B146" t="str">
+        <v>kokubunj@gmail.com</v>
+      </c>
+      <c r="C146" t="str">
+        <v>http://blog.livedoor.jp/summerbreeze1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Honest Listener</v>
+      </c>
+      <c r="B147" t="str">
+        <v>honestlistener@gmail.com</v>
+      </c>
+      <c r="C147" t="str">
+        <v>http://honestlistener.blogspot.jp</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Lights and Music</v>
+      </c>
+      <c r="B148" t="str">
+        <v>lightsandmusic@gmail.com</v>
+      </c>
+      <c r="C148" t="str">
+        <v>http://lightsandmusic.net</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>music-islands.com mp3 blog</v>
+      </c>
+      <c r="B149" t="str">
+        <v>fishthemusic@gmail.com</v>
+      </c>
+      <c r="C149" t="str">
+        <v>http://music-islands.com/blog</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Public Rhythm</v>
+      </c>
+      <c r="B150" t="str">
+        <v>info@publicrhythm.com</v>
+      </c>
+      <c r="C150" t="str">
+        <v>http://publicrhythm.com</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>sittingbythechurchwithdan</v>
+      </c>
+      <c r="B151" t="str">
+        <v>sittingbythechurchwithdan@gmail.com</v>
+      </c>
+      <c r="C151" t="str">
+        <v>http://sittingbythechurchwithdan.wordpress.com</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Anti-Gravity Bunny</v>
+      </c>
+      <c r="B152" t="str">
+        <v>justin@antigravitybunny.com</v>
+      </c>
+      <c r="C152" t="str">
+        <v>http://antigravitybunny.com</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Avant Music News</v>
+      </c>
+      <c r="B153" t="str">
+        <v>mike@avantmusicnews.com</v>
+      </c>
+      <c r="C153" t="str">
+        <v>http://avantmusicnews.com</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Microphones in the Trees</v>
+      </c>
+      <c r="B154" t="str">
+        <v>apenina@mundo-r.com</v>
+      </c>
+      <c r="C154" t="str">
+        <v>http://calmintrees.blogspot.com</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Music For Maniacs</v>
+      </c>
+      <c r="B155" t="str">
+        <v>mrfab3@hotmail.com</v>
+      </c>
+      <c r="C155" t="str">
+        <v>http://musicformaniacs.blogspot.com</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Wrong Division Blog</v>
+      </c>
+      <c r="B156" t="str">
+        <v>wrongdivision@kdhx.org</v>
+      </c>
+      <c r="C156" t="str">
+        <v>http://wrongdivision.blogspot.com</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>2kLIFE</v>
+      </c>
+      <c r="B157" t="str">
+        <v>2klifeblog@gmail.com</v>
+      </c>
+      <c r="C157" t="str">
+        <v>http://www.2klife.net</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>2Lsonacloud</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2Lsonacloud@gmail.com</v>
+      </c>
+      <c r="C158" t="str">
+        <v>http://www.2lsonacloud.com</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>2words The Top</v>
+      </c>
+      <c r="B159" t="str">
+        <v>2wordsthetop@gmail.com</v>
+      </c>
+      <c r="C159" t="str">
+        <v>http://2wordsthetop.com</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>40s and Phillies</v>
+      </c>
+      <c r="B160" t="str">
+        <v>JJ@40sandPhillies.com</v>
+      </c>
+      <c r="C160" t="str">
+        <v>http://40sandphillies.com</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>718UNLIMITED.COM</v>
+      </c>
+      <c r="B161" t="str">
+        <v>718unlimited@gmail.com</v>
+      </c>
+      <c r="C161" t="str">
+        <v>http://www.718unlimited.com</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>808Crate</v>
+      </c>
+      <c r="B162" t="str">
+        <v>808CrateMusic@gmail.com</v>
+      </c>
+      <c r="C162" t="str">
+        <v>http://www.808crate.com</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>ACT LIVE MUSIC</v>
+      </c>
+      <c r="B163" t="str">
+        <v>info@actlivemusic.com</v>
+      </c>
+      <c r="C163" t="str">
+        <v>http://www.actlivemusic.com</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Adam's World</v>
+      </c>
+      <c r="B164" t="str">
+        <v>adamsworldblog@gmail.com</v>
+      </c>
+      <c r="C164" t="str">
+        <v>http://adambernard.blogspot.com</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>AGirlandHerHipHop</v>
+      </c>
+      <c r="B165" t="str">
+        <v>rog@agirlandherhiphop.com</v>
+      </c>
+      <c r="C165" t="str">
+        <v>http://www.agirlandherhiphop.com</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>AllNewMusic.net</v>
+      </c>
+      <c r="B166" t="str">
+        <v>info@allnewmusic.net</v>
+      </c>
+      <c r="C166" t="str">
+        <v>http://allnewmusic.net</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Analog Giant</v>
+      </c>
+      <c r="B167" t="str">
+        <v>analoggiant@gmail.com</v>
+      </c>
+      <c r="C167" t="str">
+        <v>http://www.analoggiant.com</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Artistic Manifesto</v>
+      </c>
+      <c r="B168" t="str">
+        <v>artisticmanifesto@gmail.com</v>
+      </c>
+      <c r="C168" t="str">
+        <v>http://www.artisticmanifesto.com</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>ATLJunkie</v>
+      </c>
+      <c r="B169" t="str">
+        <v>atljunkie09@gmail.com</v>
+      </c>
+      <c r="C169" t="str">
+        <v>http://www.atljunkie.com</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Audio Politics</v>
+      </c>
+      <c r="B170" t="str">
+        <v>brandonbelt12@gmail.com</v>
+      </c>
+      <c r="C170" t="str">
+        <v>http://www.audiopolitics.com</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>AUDIOFEIGN</v>
+      </c>
+      <c r="B171" t="str">
+        <v>AudioFeign@gmail.com</v>
+      </c>
+      <c r="C171" t="str">
+        <v>http://audiofeign.com</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>#AvaTheAnarchist Blogazine</v>
+      </c>
+      <c r="B172" t="str">
+        <v>info@AvaTheAnarchist.com</v>
+      </c>
+      <c r="C172" t="str">
+        <v>http://www.avatheanarchist.com</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Back2Pluto</v>
+      </c>
+      <c r="B173" t="str">
+        <v>backtopluto@gmail.com</v>
+      </c>
+      <c r="C173" t="str">
+        <v>http://back2pluto.com</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Backpacks &amp; Traps</v>
+      </c>
+      <c r="B174" t="str">
+        <v>BackpacksAndTraps@gmail.com</v>
+      </c>
+      <c r="C174" t="str">
+        <v>http://www.backpacksandtraps.com</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>BEATSPILL</v>
+      </c>
+      <c r="B175" t="str">
+        <v>beatspillblog@gmail.com</v>
+      </c>
+      <c r="C175" t="str">
+        <v>http://beatspill.com</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Brain of BMW</v>
+      </c>
+      <c r="B176" t="str">
+        <v>submissions.brainofbmw@gmail.com</v>
+      </c>
+      <c r="C176" t="str">
+        <v>http://brainofbmw.com</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Brick To Ya Face</v>
+      </c>
+      <c r="B177" t="str">
+        <v>bricktoyaface@gmail.com</v>
+      </c>
+      <c r="C177" t="str">
+        <v>http://bricktoyaface.com</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>CeezWorld</v>
+      </c>
+      <c r="B178" t="str">
+        <v>ceezworld215@gmail.com</v>
+      </c>
+      <c r="C178" t="str">
+        <v>http://www.ceezworld.com</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>ChopsAndKicks</v>
+      </c>
+      <c r="B179" t="str">
+        <v>chopsandkicks@gmail.com</v>
+      </c>
+      <c r="C179" t="str">
+        <v>http://chopsandkicks.com</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>The Chronicles of Aqua</v>
+      </c>
+      <c r="B180" t="str">
+        <v>contentofaqua@gmail.com</v>
+      </c>
+      <c r="C180" t="str">
+        <v>http://www.aqualeague.com</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>The Chuckness</v>
+      </c>
+      <c r="B181" t="str">
+        <v>press@thechuckness.com</v>
+      </c>
+      <c r="C181" t="str">
+        <v>http://www.thechuckness.com</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>CollegeDJ.net</v>
+      </c>
+      <c r="B182" t="str">
+        <v>collegedj@gmail.com</v>
+      </c>
+      <c r="C182" t="str">
+        <v>http://www.collegedj.net</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Cracked Atoms</v>
+      </c>
+      <c r="B183" t="str">
+        <v>crackedatoms@gmail.com</v>
+      </c>
+      <c r="C183" t="str">
+        <v>http://crackedatoms.com</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>CULTURE KING</v>
+      </c>
+      <c r="B184" t="str">
+        <v>culturekingblog@gmail.com</v>
+      </c>
+      <c r="C184" t="str">
+        <v>http://culturekingmedia.com</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Earmilk</v>
+      </c>
+      <c r="B185" t="str">
+        <v>press@earmilk.com</v>
+      </c>
+      <c r="C185" t="str">
+        <v>http://www.earmilk.com</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Fashionably Early</v>
+      </c>
+      <c r="B186" t="str">
+        <v>fashionablyearlysubmissions@gmail.com</v>
+      </c>
+      <c r="C186" t="str">
+        <v>http://fashionably-early.com</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>The Fresh Heir</v>
+      </c>
+      <c r="B187" t="str">
+        <v>thefreshheir90@gmail.com</v>
+      </c>
+      <c r="C187" t="str">
+        <v>http://thefreshheir.com</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Go Hard Magazine</v>
+      </c>
+      <c r="B188" t="str">
+        <v>gohardmagazine@yahoo.com</v>
+      </c>
+      <c r="C188" t="str">
+        <v>http://www.gohardmagazine.blogspot.com</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Good*Fella Media</v>
+      </c>
+      <c r="B189" t="str">
+        <v>info@GoodFellaMedia.com</v>
+      </c>
+      <c r="C189" t="str">
+        <v>http://www.goodfellamedia.com</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>GRANDGOOD</v>
+      </c>
+      <c r="B190" t="str">
+        <v>people@grandgood.com</v>
+      </c>
+      <c r="C190" t="str">
+        <v>http://grandgood.com</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>HeatCasters.com</v>
+      </c>
+      <c r="B191" t="str">
+        <v>info@heatcasters.com</v>
+      </c>
+      <c r="C191" t="str">
+        <v>http://www.heatcasters.com</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Highbrow Hip Hop</v>
+      </c>
+      <c r="B192" t="str">
+        <v>tom@highbrowhiphop.com</v>
+      </c>
+      <c r="C192" t="str">
+        <v>http://highbrowhiphop.com</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Hip Hop Isn't Dead</v>
+      </c>
+      <c r="B193" t="str">
+        <v>max.hiphopisntdead@gmail.com</v>
+      </c>
+      <c r="C193" t="str">
+        <v>http://hiphopisntdead.blogspot.com</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Hip Hop Push</v>
+      </c>
+      <c r="B194" t="str">
+        <v>realhiphoppush@gmail.com</v>
+      </c>
+      <c r="C194" t="str">
+        <v>http://www.hiphoppush.com</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>HipHopSince1987</v>
+      </c>
+      <c r="B195" t="str">
+        <v>HHS1987submissions@gmail.com</v>
+      </c>
+      <c r="C195" t="str">
+        <v>https://hiphopsince1987.com</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>HotNewHipHop.com</v>
+      </c>
+      <c r="B196" t="str">
+        <v>submissions@hotnewhiphop.com</v>
+      </c>
+      <c r="C196" t="str">
+        <v>http://www.hotnewhiphop.com</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>IndieRapBLOG.com</v>
+      </c>
+      <c r="B197" t="str">
+        <v>indierapblog@gmail.com</v>
+      </c>
+      <c r="C197" t="str">
+        <v>http://indierapblog.com</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Loud Music 247</v>
+      </c>
+      <c r="B198" t="str">
+        <v>media@LoudMusic247.com</v>
+      </c>
+      <c r="C198" t="str">
+        <v>http://www.loudmusic247.com</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>luvindiehiphop</v>
+      </c>
+      <c r="B199" t="str">
+        <v>luvindiehiphop@gmail.com</v>
+      </c>
+      <c r="C199" t="str">
+        <v>http://www.luvindiehiphop.com</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>MixtapeBreak</v>
+      </c>
+      <c r="B200" t="str">
+        <v>mixtapebreak@gmail.com</v>
+      </c>
+      <c r="C200" t="str">
+        <v>http://mixtapebreak.com</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Nah Right</v>
+      </c>
+      <c r="B201" t="str">
+        <v>nah.right.music@gmail.com</v>
+      </c>
+      <c r="C201" t="str">
+        <v>http://nahright.com</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Notes from a Different Kitchen</v>
+      </c>
+      <c r="B202" t="str">
+        <v>different.kitchen@gmail.com</v>
+      </c>
+      <c r="C202" t="str">
+        <v>http://www.different-kitchen.com</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Pothoes in My Blog</v>
+      </c>
+      <c r="B203" t="str">
+        <v>pothoesmusic@gmail.com</v>
+      </c>
+      <c r="C203" t="str">
+        <v>http://potholesinmyblog.com</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Praverb Dot Net</v>
+      </c>
+      <c r="B204" t="str">
+        <v>praverb@gmail.com</v>
+      </c>
+      <c r="C204" t="str">
+        <v>http://www.praverb.net</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Rock the Dub</v>
+      </c>
+      <c r="B205" t="str">
+        <v>khal@rockthedub.com</v>
+      </c>
+      <c r="C205" t="str">
+        <v>http://www.rockthedub.com</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Scratched Vinyl</v>
+      </c>
+      <c r="B206" t="str">
+        <v>cheech@scratchedvinyl.com</v>
+      </c>
+      <c r="C206" t="str">
+        <v>http://www.scratchedvinyl.com</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Sugar Cayne</v>
+      </c>
+      <c r="B207" t="str">
+        <v>info@sugarcayne.com</v>
+      </c>
+      <c r="C207" t="str">
+        <v>http://www.sugarcayne.com</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>the9elements</v>
+      </c>
+      <c r="B208" t="str">
+        <v>the9elements@gmail.com</v>
+      </c>
+      <c r="C208" t="str">
+        <v>http://www.the9elements.com</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>UnsungHipHop.com</v>
+      </c>
+      <c r="B209" t="str">
+        <v>unsunghiphop@gmail.com</v>
+      </c>
+      <c r="C209" t="str">
+        <v>http://www.unsunghiphop.com</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>The Word is Bond</v>
+      </c>
+      <c r="B210" t="str">
+        <v>music@thewordisbond.com</v>
+      </c>
+      <c r="C210" t="str">
+        <v>http://www.thewordisbond.com</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Boi-1da.net</v>
+      </c>
+      <c r="B211" t="str">
+        <v>submissions@boi-1da.net</v>
+      </c>
+      <c r="C211" t="str">
+        <v>http://boi-1da.net</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Bound 2 Hip Hop</v>
+      </c>
+      <c r="B212" t="str">
+        <v>submissions@bound2hiphop.com</v>
+      </c>
+      <c r="C212" t="str">
+        <v>http://www.bound2hiphop.com</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Cabezas Underground</v>
+      </c>
+      <c r="B213" t="str">
+        <v>erick_uheads@cabezasunderground.com</v>
+      </c>
+      <c r="C213" t="str">
+        <v>http://www.cabezasunderground.com</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Blog Macacos Me Mordam</v>
+      </c>
+      <c r="B214" t="str">
+        <v>blogmacacosmemordam@gmail.com</v>
+      </c>
+      <c r="C214" t="str">
+        <v>http://www.blogmacacosmemordam.com</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Blackout Hip Hop</v>
+      </c>
+      <c r="B215" t="str">
+        <v>blackouthiphop@gmail.com</v>
+      </c>
+      <c r="C215" t="str">
+        <v>http://www.blackouthiphop.com</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>BBaRaK.cz</v>
+      </c>
+      <c r="B216" t="str">
+        <v>bobby@bbarak.cz</v>
+      </c>
+      <c r="C216" t="str">
+        <v>http://www.bbarak.cz</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>BEAT TROTTERZ</v>
+      </c>
+      <c r="B217" t="str">
+        <v>beattrotterz@gmail.com</v>
+      </c>
+      <c r="C217" t="str">
+        <v>http://beattrotterz.wordpress.com</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>World Maze Music</v>
+      </c>
+      <c r="B218" t="str">
+        <v>worldmazemusic@gmail.com</v>
+      </c>
+      <c r="C218" t="str">
+        <v>http://worldmazemusic.blogspot.com</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>boombap.org</v>
+      </c>
+      <c r="B219" t="str">
+        <v>bapboomblog@gmail.com</v>
+      </c>
+      <c r="C219" t="str">
+        <v>http://boombap.org</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>ACTUAL FACTS</v>
+      </c>
+      <c r="B220" t="str">
+        <v>actualfactsblog@gmail.com</v>
+      </c>
+      <c r="C220" t="str">
+        <v>http://actual-facts.tumblr.com</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Popkiller</v>
+      </c>
+      <c r="B221" t="str">
+        <v>redakcja@popkiller.pl</v>
+      </c>
+      <c r="C221" t="str">
+        <v>http://www.popkiller.pl</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>U Call That Love</v>
+      </c>
+      <c r="B222" t="str">
+        <v>ucallthatlove@gmail.com</v>
+      </c>
+      <c r="C222" t="str">
+        <v>http://ucallthatlove.com</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>The Lost Tapes</v>
+      </c>
+      <c r="B223" t="str">
+        <v>lost.tapes.claaa7@gmail.com</v>
+      </c>
+      <c r="C223" t="str">
+        <v>http://claaa7.blogspot.com</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>The 273</v>
+      </c>
+      <c r="B224" t="str">
+        <v>2wo7even3hree@gmail.com</v>
+      </c>
+      <c r="C224" t="str">
+        <v>http://the273.com</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>All In A Days Work</v>
+      </c>
+      <c r="B225" t="str">
+        <v>aBoyCalledMatt@hotmail.co.uk</v>
+      </c>
+      <c r="C225" t="str">
+        <v>http://www.thatkiddfromldn.com</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>All That Dope Shit</v>
+      </c>
+      <c r="B226" t="str">
+        <v>allthatdopeshitpromo@gmail.com</v>
+      </c>
+      <c r="C226" t="str">
+        <v>http://allthatdopeshit.blogspot.co.uk</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Can't Stop Fanatics</v>
+      </c>
+      <c r="B227" t="str">
+        <v>cantstopfanatics@gmail.com</v>
+      </c>
+      <c r="C227" t="str">
+        <v>http://cantstopfanaticsblogspot.com</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Hip Hop Life and Times</v>
+      </c>
+      <c r="B228" t="str">
+        <v>hhlifeandtimes@gmail.com</v>
+      </c>
+      <c r="C228" t="str">
+        <v>http://hiphoplifeandtimes.com</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Hip-HopKings.com</v>
+      </c>
+      <c r="B229" t="str">
+        <v>r.maxwell@hip-hopkings.com</v>
+      </c>
+      <c r="C229" t="str">
+        <v>http://www.hip-hopkings.com</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>MusicCrib</v>
+      </c>
+      <c r="B230" t="str">
+        <v>musiccrib.moz@gmail.com</v>
+      </c>
+      <c r="C230" t="str">
+        <v>http://www.musiccrib.net</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>256UP</v>
+      </c>
+      <c r="B231" t="str">
+        <v>256hiphop@gmail.com</v>
+      </c>
+      <c r="C231" t="str">
+        <v>http://256up.blogspot.com</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Sampling-Love Blog</v>
+      </c>
+      <c r="B232" t="str">
+        <v>info@sampling-love.com</v>
+      </c>
+      <c r="C232" t="str">
+        <v>http://samplinglove.blog94.fc2.com</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>BamaLoveSoul</v>
+      </c>
+      <c r="B233" t="str">
+        <v>submit2@bamalovesoul.com</v>
+      </c>
+      <c r="C233" t="str">
+        <v>http://bamalovesoul.com</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Funk It</v>
+      </c>
+      <c r="B234" t="str">
+        <v>funkit@virose.net</v>
+      </c>
+      <c r="C234" t="str">
+        <v>http://funkit.virose.net</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Grown Folks Music</v>
+      </c>
+      <c r="B235" t="str">
+        <v>music@grownfolksmusic.com</v>
+      </c>
+      <c r="C235" t="str">
+        <v>http://grownfolksmusic.com</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Kick Mag</v>
+      </c>
+      <c r="B236" t="str">
+        <v>blakcitrus@gmail.com</v>
+      </c>
+      <c r="C236" t="str">
+        <v>http://www.kickmag.net</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Live For The Funk</v>
+      </c>
+      <c r="B237" t="str">
+        <v>submissions@liveforthefunk.com</v>
+      </c>
+      <c r="C237" t="str">
+        <v>http://www.liveforthefunk.com</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>RnB Music</v>
+      </c>
+      <c r="B238" t="str">
+        <v>contact@rnbmusicblog.com</v>
+      </c>
+      <c r="C238" t="str">
+        <v>http://www.rnbmusicblog.com</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Soul-Sides</v>
+      </c>
+      <c r="B239" t="str">
+        <v>soulsides@gmail.com</v>
+      </c>
+      <c r="C239" t="str">
+        <v>http://soul-sides.com</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Urban Radio Nation</v>
+      </c>
+      <c r="B240" t="str">
+        <v>urbanradionation@gmail.com</v>
+      </c>
+      <c r="C240" t="str">
+        <v>http://www.urbanradionation.com</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Beats, Rymes and Basslines</v>
+      </c>
+      <c r="B241" t="str">
+        <v>djthageneral@hotmail.com</v>
+      </c>
+      <c r="C241" t="str">
+        <v>http://beatsrymesandbasslines.blogspot.com</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>PinBoard</v>
+      </c>
+      <c r="B242" t="str">
+        <v>info@pinboardblog.com</v>
+      </c>
+      <c r="C242" t="str">
+        <v>http://pinboardblog.com</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>UK Soul Features</v>
+      </c>
+      <c r="B243" t="str">
+        <v>info@soulfeatures.com</v>
+      </c>
+      <c r="C243" t="str">
+        <v>http://www.soulfeatures.com</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Cultura Soul</v>
+      </c>
+      <c r="B244" t="str">
+        <v>culturasoul@gmail.com</v>
+      </c>
+      <c r="C244" t="str">
+        <v>http://culturasoul.tumblr.com</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Dub Dot Dash</v>
+      </c>
+      <c r="B245" t="str">
+        <v>dubdotdub@gmail.com</v>
+      </c>
+      <c r="C245" t="str">
+        <v>http://dubdotdash.blogspot.com</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>WeLove Music</v>
+      </c>
+      <c r="B246" t="str">
+        <v>sue.miod@gmail.com</v>
+      </c>
+      <c r="C246" t="str">
+        <v>http://welove-music.blogspot.com</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>7INCHCRUST</v>
+      </c>
+      <c r="B247" t="str">
+        <v>7inchcrust@gmail.com</v>
+      </c>
+      <c r="C247" t="str">
+        <v>http://7inchcrust.blogspot.com</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>The Bent Unit</v>
+      </c>
+      <c r="B248" t="str">
+        <v>thebentunit@gmail.com</v>
+      </c>
+      <c r="C248" t="str">
+        <v>http://www.thebentunit.com</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Cut &amp; Paste</v>
+      </c>
+      <c r="B249" t="str">
+        <v>cowboysareindians@yahoo.com</v>
+      </c>
+      <c r="C249" t="str">
+        <v>http://cutnpasteyoface.blogspot.com</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Dr. Drunk Ruins It For Everyone</v>
+      </c>
+      <c r="B250" t="str">
+        <v>drdrunk@earthlink.net</v>
+      </c>
+      <c r="C250" t="str">
+        <v>http://drdrunkruinsitforeveryone.blogspot.com</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C250"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -1733,13 +1733,3118 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Website</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Continent</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="F1" t="str">
+        <v>State</v>
+      </c>
+      <c r="G1" t="str">
+        <v>City</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Zip Code</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Phone Number</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Alabama Public Radio</v>
+      </c>
+      <c r="B2" t="str">
+        <v>comments@apr.org</v>
+      </c>
+      <c r="C2" t="str">
+        <v>http://www.apr.org</v>
+      </c>
+      <c r="D2" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E2" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Alabama</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Tuscaloosa</v>
+      </c>
+      <c r="H2" t="str">
+        <v>PO Box 870370</v>
+      </c>
+      <c r="I2" t="str">
+        <v>35487-0370</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2053486644</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>WALW</v>
+      </c>
+      <c r="B3" t="str">
+        <v>walwfm@bellsouth.net</v>
+      </c>
+      <c r="C3" t="str">
+        <v>http://www.walw.org</v>
+      </c>
+      <c r="D3" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Alabama</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Moulton, AL</v>
+      </c>
+      <c r="H3" t="str">
+        <v>531 Walnut St</v>
+      </c>
+      <c r="I3" t="str">
+        <v>35650</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2569054400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>KBBI</v>
+      </c>
+      <c r="B4" t="str">
+        <v>kathleen@kbbi.org</v>
+      </c>
+      <c r="C4" t="str">
+        <v>http://www.kbbi.org</v>
+      </c>
+      <c r="D4" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E4" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Alaska</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Homer</v>
+      </c>
+      <c r="H4" t="str">
+        <v>3913 Kachemak Way</v>
+      </c>
+      <c r="I4" t="str">
+        <v>99603</v>
+      </c>
+      <c r="J4" t="str">
+        <v>9072357721</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>KMXT</v>
+      </c>
+      <c r="B5" t="str">
+        <v>gm@kmxt.org</v>
+      </c>
+      <c r="C5" t="str">
+        <v>http://www.kmxt.org</v>
+      </c>
+      <c r="D5" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E5" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Alaska</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Kodiak</v>
+      </c>
+      <c r="H5" t="str">
+        <v>620 Egan Way</v>
+      </c>
+      <c r="I5" t="str">
+        <v>99615</v>
+      </c>
+      <c r="J5" t="str">
+        <v>9074865698</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KSTK</v>
+      </c>
+      <c r="B6" t="str">
+        <v>renee@kstk.org</v>
+      </c>
+      <c r="C6" t="str">
+        <v>http://www.kstk.org</v>
+      </c>
+      <c r="D6" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E6" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Alaska</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Wrangell</v>
+      </c>
+      <c r="H6" t="str">
+        <v>PO Box 1141</v>
+      </c>
+      <c r="I6" t="str">
+        <v>99929</v>
+      </c>
+      <c r="J6" t="str">
+        <v>9078742345</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>KBRP</v>
+      </c>
+      <c r="B7" t="str">
+        <v>kbrp@kbrp.org</v>
+      </c>
+      <c r="C7" t="str">
+        <v>http://www.kbrpradio.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E7" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Arizona</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Bisbee</v>
+      </c>
+      <c r="H7" t="str">
+        <v>PO Box 1501 Bisbee</v>
+      </c>
+      <c r="I7" t="str">
+        <v>85603</v>
+      </c>
+      <c r="J7" t="str">
+        <v>5204321400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>KXCI</v>
+      </c>
+      <c r="B8" t="str">
+        <v>duncan@kxci.org</v>
+      </c>
+      <c r="C8" t="str">
+        <v>http://www.kxci.org</v>
+      </c>
+      <c r="D8" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E8" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Arizona</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Tucson</v>
+      </c>
+      <c r="H8" t="str">
+        <v>220 S. 4th Ave.</v>
+      </c>
+      <c r="I8" t="str">
+        <v>85701</v>
+      </c>
+      <c r="J8" t="str">
+        <v>5206231000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>X Wave 104.9 FM</v>
+      </c>
+      <c r="B9" t="str">
+        <v>marklucke@qwestoffice.net</v>
+      </c>
+      <c r="C9" t="str">
+        <v>http://www.xwave1049.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E9" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Arizona</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Willcox</v>
+      </c>
+      <c r="H9" t="str">
+        <v>PO BOx 1250</v>
+      </c>
+      <c r="I9" t="str">
+        <v>85644</v>
+      </c>
+      <c r="J9" t="str">
+        <v>5203844626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>KABF</v>
+      </c>
+      <c r="B10" t="str">
+        <v>programs@kabf.org</v>
+      </c>
+      <c r="C10" t="str">
+        <v>http://www.kabf.org</v>
+      </c>
+      <c r="D10" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E10" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Arkansas</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Little Rock</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2101 Main St.</v>
+      </c>
+      <c r="I10" t="str">
+        <v>72206</v>
+      </c>
+      <c r="J10" t="str">
+        <v>5013726119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Free Radio Santa Cruz</v>
+      </c>
+      <c r="B11" t="str">
+        <v>frsc@freakradio.org</v>
+      </c>
+      <c r="C11" t="str">
+        <v>http://www.freakradio.org</v>
+      </c>
+      <c r="D11" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E11" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F11" t="str">
+        <v>California</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Santa Cruz</v>
+      </c>
+      <c r="H11" t="str">
+        <v>PO Box 7811</v>
+      </c>
+      <c r="I11" t="str">
+        <v>95061</v>
+      </c>
+      <c r="J11" t="str">
+        <v>8314273772</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Indie 103</v>
+      </c>
+      <c r="B12" t="str">
+        <v>submissions@indie1031.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>http://www.indie1031.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E12" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F12" t="str">
+        <v>California</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H12" t="str">
+        <v>5700 Wilshire Blvd #250</v>
+      </c>
+      <c r="I12" t="str">
+        <v>90036</v>
+      </c>
+      <c r="J12" t="str">
+        <v>8774521031</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>iRADIO La</v>
+      </c>
+      <c r="B13" t="str">
+        <v>info@indie104.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>http://www.iradiola.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E13" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F13" t="str">
+        <v>California</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Covina</v>
+      </c>
+      <c r="H13" t="str">
+        <v>PO Box 1403</v>
+      </c>
+      <c r="I13" t="str">
+        <v>91722</v>
+      </c>
+      <c r="J13" t="str">
+        <v>6267806323</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>KALW</v>
+      </c>
+      <c r="B14" t="str">
+        <v>kalw@kalw.org</v>
+      </c>
+      <c r="C14" t="str">
+        <v>http://www.kalw.org</v>
+      </c>
+      <c r="D14" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E14" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F14" t="str">
+        <v>California</v>
+      </c>
+      <c r="G14" t="str">
+        <v>San Francisco</v>
+      </c>
+      <c r="H14" t="str">
+        <v>500 Mansell St</v>
+      </c>
+      <c r="I14" t="str">
+        <v>94134</v>
+      </c>
+      <c r="J14" t="str">
+        <v>4158414121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>KCXX</v>
+      </c>
+      <c r="B15" t="str">
+        <v>john@x1039.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>http://www.x1039.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E15" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F15" t="str">
+        <v>California</v>
+      </c>
+      <c r="G15" t="str">
+        <v>San Bernardino</v>
+      </c>
+      <c r="H15" t="str">
+        <v>242 E. Airport Dr. #106</v>
+      </c>
+      <c r="I15" t="str">
+        <v>92408</v>
+      </c>
+      <c r="J15" t="str">
+        <v>9098905904</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>KFCF</v>
+      </c>
+      <c r="B16" t="str">
+        <v>rwithers@kfcf.org</v>
+      </c>
+      <c r="C16" t="str">
+        <v>http://www.kfcf.org</v>
+      </c>
+      <c r="D16" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E16" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F16" t="str">
+        <v>California</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Fresno</v>
+      </c>
+      <c r="H16" t="str">
+        <v>PO Box 4363</v>
+      </c>
+      <c r="I16" t="str">
+        <v>93744</v>
+      </c>
+      <c r="J16" t="str">
+        <v>5592332221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>KFJC</v>
+      </c>
+      <c r="B17" t="str">
+        <v>music@kfjc.org</v>
+      </c>
+      <c r="C17" t="str">
+        <v>http://www.kfjc.org</v>
+      </c>
+      <c r="D17" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E17" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F17" t="str">
+        <v>California</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Los Altos Hills</v>
+      </c>
+      <c r="H17" t="str">
+        <v>12345 El Monte Rd</v>
+      </c>
+      <c r="I17" t="str">
+        <v>940222</v>
+      </c>
+      <c r="J17" t="str">
+        <v>6509497092</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>KFOK</v>
+      </c>
+      <c r="B18" t="str">
+        <v>music@kfok.org</v>
+      </c>
+      <c r="C18" t="str">
+        <v>http://www.kfok.org</v>
+      </c>
+      <c r="D18" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E18" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F18" t="str">
+        <v>California</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Georgetown</v>
+      </c>
+      <c r="H18" t="str">
+        <v>PO Box 4238</v>
+      </c>
+      <c r="I18" t="str">
+        <v>95634</v>
+      </c>
+      <c r="J18" t="str">
+        <v>5303334300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>KGUP 106.5FM</v>
+      </c>
+      <c r="B19" t="str">
+        <v>kgup1065@gmail.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>http://www.kgup1065.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E19" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F19" t="str">
+        <v>California</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Covina</v>
+      </c>
+      <c r="H19" t="str">
+        <v>PO Box 4545</v>
+      </c>
+      <c r="I19" t="str">
+        <v>91723</v>
+      </c>
+      <c r="J19" t="str">
+        <v>6263442279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>KISL</v>
+      </c>
+      <c r="B20" t="str">
+        <v>marko@kislavalon.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>http://www.kisl.org</v>
+      </c>
+      <c r="D20" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E20" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F20" t="str">
+        <v>California</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Avalon</v>
+      </c>
+      <c r="H20" t="str">
+        <v>PO Box 1980</v>
+      </c>
+      <c r="I20" t="str">
+        <v>90704</v>
+      </c>
+      <c r="J20" t="str">
+        <v>3105107469</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>KKUP</v>
+      </c>
+      <c r="B21" t="str">
+        <v>kkup.pd@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>http://kmud.org</v>
+      </c>
+      <c r="D21" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E21" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F21" t="str">
+        <v>California</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Santa Clara</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Attn: Music Director, 1275 Franklin Mall, PMB 9150</v>
+      </c>
+      <c r="I21" t="str">
+        <v>95050</v>
+      </c>
+      <c r="J21" t="str">
+        <v>4082602999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>KMUD</v>
+      </c>
+      <c r="B22" t="str">
+        <v>music@kmud.org</v>
+      </c>
+      <c r="C22" t="str">
+        <v>http://kmud.org</v>
+      </c>
+      <c r="D22" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E22" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F22" t="str">
+        <v>California</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Redway</v>
+      </c>
+      <c r="H22" t="str">
+        <v>1144 Redway Dr.</v>
+      </c>
+      <c r="I22" t="str">
+        <v>95560</v>
+      </c>
+      <c r="J22" t="str">
+        <v>7079232513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>KNYO</v>
+      </c>
+      <c r="B23" t="str">
+        <v>bobb@poetworld.net</v>
+      </c>
+      <c r="C23" t="str">
+        <v>http://www.knyo.org</v>
+      </c>
+      <c r="D23" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E23" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F23" t="str">
+        <v>California</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Fort Bragg</v>
+      </c>
+      <c r="H23" t="str">
+        <v>PO Box 1651</v>
+      </c>
+      <c r="I23" t="str">
+        <v>95437</v>
+      </c>
+      <c r="J23" t="str">
+        <v>7079647277</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>KPFA</v>
+      </c>
+      <c r="B24" t="str">
+        <v>music@kpfa.org</v>
+      </c>
+      <c r="C24" t="str">
+        <v>http://www.kpfa.org</v>
+      </c>
+      <c r="D24" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E24" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F24" t="str">
+        <v>California</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Berkeley</v>
+      </c>
+      <c r="H24" t="str">
+        <v>1929 MLK Jr. Way</v>
+      </c>
+      <c r="I24" t="str">
+        <v>94704</v>
+      </c>
+      <c r="J24" t="str">
+        <v>5108486767</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>KPFK</v>
+      </c>
+      <c r="B25" t="str">
+        <v>pd@kpfk.org</v>
+      </c>
+      <c r="C25" t="str">
+        <v>http://www.kpfk.org</v>
+      </c>
+      <c r="D25" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E25" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F25" t="str">
+        <v>California</v>
+      </c>
+      <c r="G25" t="str">
+        <v>North Hollywood</v>
+      </c>
+      <c r="H25" t="str">
+        <v>3729 Cahuenga Blvd. W.</v>
+      </c>
+      <c r="I25" t="str">
+        <v>91604</v>
+      </c>
+      <c r="J25" t="str">
+        <v>8189852711</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>KPRI</v>
+      </c>
+      <c r="B26" t="str">
+        <v>info@kprifm@.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>http://www.kprifm.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E26" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F26" t="str">
+        <v>California</v>
+      </c>
+      <c r="G26" t="str">
+        <v>San Diego</v>
+      </c>
+      <c r="H26" t="str">
+        <v>9710 Scfranton Rd #200</v>
+      </c>
+      <c r="I26" t="str">
+        <v>92121</v>
+      </c>
+      <c r="J26" t="str">
+        <v>8586780102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>KROV</v>
+      </c>
+      <c r="B27" t="str">
+        <v>info@krov.fm</v>
+      </c>
+      <c r="C27" t="str">
+        <v>http://krov.fm</v>
+      </c>
+      <c r="D27" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E27" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F27" t="str">
+        <v>California</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Oroville</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2360 Oro Quincy Hwy</v>
+      </c>
+      <c r="I27" t="str">
+        <v>95966</v>
+      </c>
+      <c r="J27" t="str">
+        <v>5305341200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>KRSH</v>
+      </c>
+      <c r="B28" t="str">
+        <v>andre@krsh.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v>http://www.krsh.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E28" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F28" t="str">
+        <v>California</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Santa Rosa</v>
+      </c>
+      <c r="H28" t="str">
+        <v>3565 Standish Ave</v>
+      </c>
+      <c r="I28" t="str">
+        <v>95407</v>
+      </c>
+      <c r="J28" t="str">
+        <v>7075889999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>KWMR</v>
+      </c>
+      <c r="B29" t="str">
+        <v>amanda@kwmr.org</v>
+      </c>
+      <c r="C29" t="str">
+        <v>http://www.kwmr.org</v>
+      </c>
+      <c r="D29" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E29" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F29" t="str">
+        <v>California</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Point Reyes Station</v>
+      </c>
+      <c r="H29" t="str">
+        <v>PO Box 1262, 11431 State Rt. One #8</v>
+      </c>
+      <c r="I29" t="str">
+        <v>94956</v>
+      </c>
+      <c r="J29" t="str">
+        <v>4156638492</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>KZFR</v>
+      </c>
+      <c r="B30" t="str">
+        <v>info@kzfr.org</v>
+      </c>
+      <c r="C30" t="str">
+        <v>http://www.kzfr.org</v>
+      </c>
+      <c r="D30" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E30" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F30" t="str">
+        <v>California</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Chico</v>
+      </c>
+      <c r="H30" t="str">
+        <v>341 Broadway #411</v>
+      </c>
+      <c r="I30" t="str">
+        <v>95928</v>
+      </c>
+      <c r="J30" t="str">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>KZYX</v>
+      </c>
+      <c r="B31" t="str">
+        <v>gm@kzyx.org</v>
+      </c>
+      <c r="C31" t="str">
+        <v>http://www.kzyx.org</v>
+      </c>
+      <c r="D31" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E31" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F31" t="str">
+        <v>California</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Philo</v>
+      </c>
+      <c r="H31" t="str">
+        <v>PO Box 1</v>
+      </c>
+      <c r="I31" t="str">
+        <v>95466</v>
+      </c>
+      <c r="J31" t="str">
+        <v>7078952324</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Morning Becomes Eclectic</v>
+      </c>
+      <c r="B32" t="str">
+        <v>music@kcrw.org</v>
+      </c>
+      <c r="C32" t="str">
+        <v>http://www.kcrw.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E32" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F32" t="str">
+        <v>California</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Santa Monica</v>
+      </c>
+      <c r="H32" t="str">
+        <v>1900 Pico Blvd</v>
+      </c>
+      <c r="I32" t="str">
+        <v>90405</v>
+      </c>
+      <c r="J32" t="str">
+        <v>3104505183</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Sheena Metal Experience</v>
+      </c>
+      <c r="B33" t="str">
+        <v>sheenametal@onemain.com</v>
+      </c>
+      <c r="C33" t="str">
+        <v>http://www.latalkradio.com/Sheena.php</v>
+      </c>
+      <c r="D33" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E33" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F33" t="str">
+        <v>California</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Sherman Oaks</v>
+      </c>
+      <c r="H33" t="str">
+        <v>15030 Ventura Blvd #843</v>
+      </c>
+      <c r="I33" t="str">
+        <v>91403</v>
+      </c>
+      <c r="J33" t="str">
+        <v>8186024929</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>etown</v>
+      </c>
+      <c r="B34" t="str">
+        <v>info@etown.org</v>
+      </c>
+      <c r="C34" t="str">
+        <v>http://www.etown.org</v>
+      </c>
+      <c r="D34" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E34" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Boulder</v>
+      </c>
+      <c r="H34" t="str">
+        <v>PO Box 954</v>
+      </c>
+      <c r="I34" t="str">
+        <v>80306</v>
+      </c>
+      <c r="J34" t="str">
+        <v>3034438696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>KAFM</v>
+      </c>
+      <c r="B35" t="str">
+        <v>alicia@kafmradio.org</v>
+      </c>
+      <c r="C35" t="str">
+        <v>http://www.kafmradio.org</v>
+      </c>
+      <c r="D35" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E35" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Grand Junction</v>
+      </c>
+      <c r="H35" t="str">
+        <v>1310 Ute Ave</v>
+      </c>
+      <c r="I35" t="str">
+        <v>81501</v>
+      </c>
+      <c r="J35" t="str">
+        <v>9702418801</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>KBUT</v>
+      </c>
+      <c r="B36" t="str">
+        <v>music@kbut.org</v>
+      </c>
+      <c r="C36" t="str">
+        <v>http://kbut.org</v>
+      </c>
+      <c r="D36" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E36" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Crested Butte</v>
+      </c>
+      <c r="H36" t="str">
+        <v>PO Box 308</v>
+      </c>
+      <c r="I36" t="str">
+        <v>81224</v>
+      </c>
+      <c r="J36" t="str">
+        <v>9703495225</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>KDNK</v>
+      </c>
+      <c r="B37" t="str">
+        <v>luke@kdnk.org</v>
+      </c>
+      <c r="C37" t="str">
+        <v>http://www.kdnk.org</v>
+      </c>
+      <c r="D37" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E37" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Carbondale</v>
+      </c>
+      <c r="H37" t="str">
+        <v>PO Box 1388</v>
+      </c>
+      <c r="I37" t="str">
+        <v>81623</v>
+      </c>
+      <c r="J37" t="str">
+        <v>9709630139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>KRFC</v>
+      </c>
+      <c r="B38" t="str">
+        <v>df@krfcfm.org</v>
+      </c>
+      <c r="C38" t="str">
+        <v>http://krfcfm.org</v>
+      </c>
+      <c r="D38" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E38" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Fort Collins</v>
+      </c>
+      <c r="H38" t="str">
+        <v>619 S. College Ave. #4</v>
+      </c>
+      <c r="I38" t="str">
+        <v>80524</v>
+      </c>
+      <c r="J38" t="str">
+        <v>9702215075</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>KSJD</v>
+      </c>
+      <c r="B39" t="str">
+        <v>tom@ksjd.org</v>
+      </c>
+      <c r="C39" t="str">
+        <v>http://www.ksjd.org</v>
+      </c>
+      <c r="D39" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E39" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Cortez</v>
+      </c>
+      <c r="H39" t="str">
+        <v>PO Box 116</v>
+      </c>
+      <c r="I39" t="str">
+        <v>81321</v>
+      </c>
+      <c r="J39" t="str">
+        <v>9705640808</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>KSUT</v>
+      </c>
+      <c r="B40" t="str">
+        <v>stasia@ksut.org</v>
+      </c>
+      <c r="C40" t="str">
+        <v>http://www.ksut.org</v>
+      </c>
+      <c r="D40" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E40" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Ignacio</v>
+      </c>
+      <c r="H40" t="str">
+        <v>PO Box 737, 123 Capote Dr. Ignacio</v>
+      </c>
+      <c r="I40" t="str">
+        <v>81137</v>
+      </c>
+      <c r="J40" t="str">
+        <v>9705630255</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>KVNF</v>
+      </c>
+      <c r="B41" t="str">
+        <v>candy@kvnf.org</v>
+      </c>
+      <c r="C41" t="str">
+        <v>http://www.kvnf.org</v>
+      </c>
+      <c r="D41" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E41" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Colorado</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Paonia</v>
+      </c>
+      <c r="H41" t="str">
+        <v>PO Box 1350</v>
+      </c>
+      <c r="I41" t="str">
+        <v>81428</v>
+      </c>
+      <c r="J41" t="str">
+        <v>9705274868</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>WPKN</v>
+      </c>
+      <c r="B42" t="str">
+        <v>gm@wpkn.org</v>
+      </c>
+      <c r="C42" t="str">
+        <v>http://www.wpkn.org</v>
+      </c>
+      <c r="D42" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E42" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Connecticut</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Bridgeport</v>
+      </c>
+      <c r="H42" t="str">
+        <v>224. U Ave</v>
+      </c>
+      <c r="I42" t="str">
+        <v>06604</v>
+      </c>
+      <c r="J42" t="str">
+        <v>2033319756</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>WSLR</v>
+      </c>
+      <c r="B43" t="str">
+        <v>info@wslr.org</v>
+      </c>
+      <c r="C43" t="str">
+        <v>http://www.wslr.org</v>
+      </c>
+      <c r="D43" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E43" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Florida</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Sarasota</v>
+      </c>
+      <c r="H43" t="str">
+        <v>PO Box 2540</v>
+      </c>
+      <c r="I43" t="str">
+        <v>34230</v>
+      </c>
+      <c r="J43" t="str">
+        <v>9418946469</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Georgia Public Broadcasting</v>
+      </c>
+      <c r="B44" t="str">
+        <v>ask@gpb.org</v>
+      </c>
+      <c r="C44" t="str">
+        <v>http://www.gpb.org/radio</v>
+      </c>
+      <c r="D44" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E44" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Atlanta</v>
+      </c>
+      <c r="H44" t="str">
+        <v>260 14th St. NW</v>
+      </c>
+      <c r="I44" t="str">
+        <v>30318</v>
+      </c>
+      <c r="J44" t="str">
+        <v>8002226006</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>WRFG</v>
+      </c>
+      <c r="B45" t="str">
+        <v>info@wrfg.org</v>
+      </c>
+      <c r="C45" t="str">
+        <v>http://www.wrfg.org</v>
+      </c>
+      <c r="D45" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E45" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Atlanta</v>
+      </c>
+      <c r="H45" t="str">
+        <v>1083 Austin Ave. NE</v>
+      </c>
+      <c r="I45" t="str">
+        <v>30307</v>
+      </c>
+      <c r="J45" t="str">
+        <v>4045238989</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>WSVH/WWIO</v>
+      </c>
+      <c r="B46" t="str">
+        <v>publicradio@wsvh.org</v>
+      </c>
+      <c r="C46" t="str">
+        <v>http://www.wsvh.org</v>
+      </c>
+      <c r="D46" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E46" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Savannah</v>
+      </c>
+      <c r="H46" t="str">
+        <v>13040 Abercorn St #8</v>
+      </c>
+      <c r="I46" t="str">
+        <v>31419</v>
+      </c>
+      <c r="J46" t="str">
+        <v>9123443565</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Hawaii</v>
+      </c>
+      <c r="B47" t="str">
+        <v>gschiller@hawaiipublicradio.org</v>
+      </c>
+      <c r="C47" t="str">
+        <v>http://www.hawaiipublicradio.org</v>
+      </c>
+      <c r="D47" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E47" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Hawaii</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Honolulu</v>
+      </c>
+      <c r="H47" t="str">
+        <v>738 Kaheka St. #101</v>
+      </c>
+      <c r="I47" t="str">
+        <v>96814</v>
+      </c>
+      <c r="J47" t="str">
+        <v>8089558821</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>KKCR</v>
+      </c>
+      <c r="B48" t="str">
+        <v>gm@kkcr.org</v>
+      </c>
+      <c r="C48" t="str">
+        <v>http://www.kkcr.org</v>
+      </c>
+      <c r="D48" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E48" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Hawaii</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Hanalei</v>
+      </c>
+      <c r="H48" t="str">
+        <v>PO Box 825</v>
+      </c>
+      <c r="I48" t="str">
+        <v>96714</v>
+      </c>
+      <c r="J48" t="str">
+        <v>8088267771</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>KRFP</v>
+      </c>
+      <c r="B49" t="str">
+        <v>bond00666@msn.com</v>
+      </c>
+      <c r="C49" t="str">
+        <v>http://www.radiofreemoscow.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E49" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Idaho</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Moscow</v>
+      </c>
+      <c r="H49" t="str">
+        <v>114 E. 3rd St</v>
+      </c>
+      <c r="I49" t="str">
+        <v>83843</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2088929300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>WDBX</v>
+      </c>
+      <c r="B50" t="str">
+        <v>wdbx911@yahoo.com</v>
+      </c>
+      <c r="C50" t="str">
+        <v>http://www.wdbx.org</v>
+      </c>
+      <c r="D50" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E50" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Illinois</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Carbondale</v>
+      </c>
+      <c r="H50" t="str">
+        <v>224 N. Washington St.</v>
+      </c>
+      <c r="I50" t="str">
+        <v>62901</v>
+      </c>
+      <c r="J50" t="str">
+        <v>6184573691</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>WEFT</v>
+      </c>
+      <c r="B51" t="str">
+        <v>music@weft.org</v>
+      </c>
+      <c r="C51" t="str">
+        <v>http://www.weft.org</v>
+      </c>
+      <c r="D51" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E51" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Illinois</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Champaign</v>
+      </c>
+      <c r="H51" t="str">
+        <v>113 N. Market St.</v>
+      </c>
+      <c r="I51" t="str">
+        <v>61820</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2173599338</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>WQNA</v>
+      </c>
+      <c r="B52" t="str">
+        <v>info@wqna.org</v>
+      </c>
+      <c r="C52" t="str">
+        <v>http://www.wqna.org</v>
+      </c>
+      <c r="D52" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E52" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Illinois</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Springfield</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2201 Toronto Rd</v>
+      </c>
+      <c r="I52" t="str">
+        <v>62712</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2175295431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Revol Radio</v>
+      </c>
+      <c r="B53" t="str">
+        <v>studio@revolradio.com</v>
+      </c>
+      <c r="C53" t="str">
+        <v>http://www.revolradio.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E53" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Indiana</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Alexandria</v>
+      </c>
+      <c r="H53" t="str">
+        <v>416 E. Washington St.</v>
+      </c>
+      <c r="I53" t="str">
+        <v>46001</v>
+      </c>
+      <c r="J53" t="str">
+        <v>7657247510</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>WFHB</v>
+      </c>
+      <c r="B54" t="str">
+        <v>music@wfhb.org</v>
+      </c>
+      <c r="C54" t="str">
+        <v>http://www.wfhb.org</v>
+      </c>
+      <c r="D54" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E54" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Indiana</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Bloomington</v>
+      </c>
+      <c r="H54" t="str">
+        <v>108 W. Fourth St.</v>
+      </c>
+      <c r="I54" t="str">
+        <v>47404</v>
+      </c>
+      <c r="J54" t="str">
+        <v>8122000332</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>WVLP</v>
+      </c>
+      <c r="B55" t="str">
+        <v>info@wvlp.org</v>
+      </c>
+      <c r="C55" t="str">
+        <v>http://www.wvlp.org</v>
+      </c>
+      <c r="D55" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E55" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Indiana</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Valparaiso</v>
+      </c>
+      <c r="H55" t="str">
+        <v>256 W. Indiana Ave.</v>
+      </c>
+      <c r="I55" t="str">
+        <v>46383</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2194769000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Iowa Public Radio</v>
+      </c>
+      <c r="B56" t="str">
+        <v>info@iowapublicradio.org</v>
+      </c>
+      <c r="C56" t="str">
+        <v>http://iowapublicradio.org</v>
+      </c>
+      <c r="D56" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E56" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Iowa</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Cedar Falls</v>
+      </c>
+      <c r="H56" t="str">
+        <v>322 Communication Arts Ctr.</v>
+      </c>
+      <c r="I56" t="str">
+        <v>50614</v>
+      </c>
+      <c r="J56" t="str">
+        <v>3192736400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>KJAG</v>
+      </c>
+      <c r="B57" t="str">
+        <v>kjagradio@kjagradio.com</v>
+      </c>
+      <c r="C57" t="str">
+        <v>http://www.facebook.com/kjagradio</v>
+      </c>
+      <c r="D57" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E57" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Kansas</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Hutchinson</v>
+      </c>
+      <c r="H57" t="str">
+        <v>209 E. Ave. A #A</v>
+      </c>
+      <c r="I57" t="str">
+        <v>67501</v>
+      </c>
+      <c r="J57" t="str">
+        <v>6204020878</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>WFPK</v>
+      </c>
+      <c r="B58" t="str">
+        <v>sowen@wfpk.org</v>
+      </c>
+      <c r="C58" t="str">
+        <v>http://www.wfpk.org</v>
+      </c>
+      <c r="D58" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E58" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Kentucky</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Louisville</v>
+      </c>
+      <c r="H58" t="str">
+        <v>619 S. 4th St.</v>
+      </c>
+      <c r="I58" t="str">
+        <v>40202</v>
+      </c>
+      <c r="J58" t="str">
+        <v>5028146500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>WMMT</v>
+      </c>
+      <c r="B59" t="str">
+        <v>wmmtfm@appalshop.org</v>
+      </c>
+      <c r="C59" t="str">
+        <v>http://appalshop.org/wmmtfm</v>
+      </c>
+      <c r="D59" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E59" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Kentucky</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Whitesburg</v>
+      </c>
+      <c r="H59" t="str">
+        <v>91 Madison St.</v>
+      </c>
+      <c r="I59" t="str">
+        <v>41858</v>
+      </c>
+      <c r="J59" t="str">
+        <v>6066331208</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>WERU</v>
+      </c>
+      <c r="B60" t="str">
+        <v>denis@weru.org</v>
+      </c>
+      <c r="C60" t="str">
+        <v>http://www.weru.org</v>
+      </c>
+      <c r="D60" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E60" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Maine</v>
+      </c>
+      <c r="G60" t="str">
+        <v>East Orland</v>
+      </c>
+      <c r="H60" t="str">
+        <v>PO Box 170, 1186 Acadia Hwy</v>
+      </c>
+      <c r="I60" t="str">
+        <v>04431</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2079417116</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Fiendish Shallow-Brained Rubbish</v>
+      </c>
+      <c r="B61" t="str">
+        <v>fiendishsbr@yahoo.com</v>
+      </c>
+      <c r="C61" t="str">
+        <v>http://www.berkshireradio.org</v>
+      </c>
+      <c r="D61" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E61" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Great Barrington</v>
+      </c>
+      <c r="H61" t="str">
+        <v>PO Box 152</v>
+      </c>
+      <c r="I61" t="str">
+        <v>01230</v>
+      </c>
+      <c r="J61" t="str">
+        <v>4136449797</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>in the Spirit of Play</v>
+      </c>
+      <c r="B62" t="str">
+        <v>playyes@palyreflections.com</v>
+      </c>
+      <c r="C62" t="str">
+        <v>http://www.playreflections.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E62" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Great Barrington</v>
+      </c>
+      <c r="H62" t="str">
+        <v>PO Box 152</v>
+      </c>
+      <c r="I62" t="str">
+        <v>01230</v>
+      </c>
+      <c r="J62" t="str">
+        <v>4136449797</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>The Melting Pot</v>
+      </c>
+      <c r="B63" t="str">
+        <v>timscha@gmail.com</v>
+      </c>
+      <c r="C63" t="str">
+        <v>http://www.berkshireradio.org</v>
+      </c>
+      <c r="D63" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E63" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Great Barrington</v>
+      </c>
+      <c r="H63" t="str">
+        <v>PO Box 152</v>
+      </c>
+      <c r="I63" t="str">
+        <v>01230</v>
+      </c>
+      <c r="J63" t="str">
+        <v>4136449797</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Radio Cures</v>
+      </c>
+      <c r="B64" t="str">
+        <v>radiocures0330@gmail.com</v>
+      </c>
+      <c r="C64" t="str">
+        <v>http://www.berkshireradio.org</v>
+      </c>
+      <c r="D64" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E64" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Great Barrington</v>
+      </c>
+      <c r="H64" t="str">
+        <v>PO Box 152</v>
+      </c>
+      <c r="I64" t="str">
+        <v>01230</v>
+      </c>
+      <c r="J64" t="str">
+        <v>4136449797</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>WCUW</v>
+      </c>
+      <c r="B65" t="str">
+        <v>wcuw@wcuw.org</v>
+      </c>
+      <c r="C65" t="str">
+        <v>http://www.wcuw.org</v>
+      </c>
+      <c r="D65" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E65" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Worcester</v>
+      </c>
+      <c r="H65" t="str">
+        <v>910 Main St</v>
+      </c>
+      <c r="I65" t="str">
+        <v>01610</v>
+      </c>
+      <c r="J65" t="str">
+        <v>5087531012</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>WIQH</v>
+      </c>
+      <c r="B66" t="str">
+        <v>wiqh@colonial.net</v>
+      </c>
+      <c r="C66" t="str">
+        <v>http://www.wiqh.org</v>
+      </c>
+      <c r="D66" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E66" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Concord</v>
+      </c>
+      <c r="H66" t="str">
+        <v>500 Walden St</v>
+      </c>
+      <c r="I66" t="str">
+        <v>01742</v>
+      </c>
+      <c r="J66" t="str">
+        <v>9783692440</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>WOMR</v>
+      </c>
+      <c r="B67" t="str">
+        <v>info@womr.org</v>
+      </c>
+      <c r="C67" t="str">
+        <v>http://www.womr.org</v>
+      </c>
+      <c r="D67" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E67" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Provincetown</v>
+      </c>
+      <c r="H67" t="str">
+        <v>PO Box 975</v>
+      </c>
+      <c r="I67" t="str">
+        <v>02657</v>
+      </c>
+      <c r="J67" t="str">
+        <v>5084872619</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>WOZQ</v>
+      </c>
+      <c r="B68" t="str">
+        <v>wozq@smith.edu</v>
+      </c>
+      <c r="C68" t="str">
+        <v>http://sophia.smith.edu/org/wozq</v>
+      </c>
+      <c r="D68" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E68" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Massachusetts</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Northampton</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Campus Ctr. 106, 100 Elm St.</v>
+      </c>
+      <c r="I68" t="str">
+        <v>01063</v>
+      </c>
+      <c r="J68" t="str">
+        <v>4135854956</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>WCMU</v>
+      </c>
+      <c r="B69" t="str">
+        <v>ford1r@cmich.edu</v>
+      </c>
+      <c r="C69" t="str">
+        <v>http://www.wcmu.org</v>
+      </c>
+      <c r="D69" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E69" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Michigan</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Mi. Pleasant</v>
+      </c>
+      <c r="H69" t="str">
+        <v>1999 E. Campus Dr.</v>
+      </c>
+      <c r="I69" t="str">
+        <v>48859</v>
+      </c>
+      <c r="J69" t="str">
+        <v>9897743105</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>KAXE</v>
+      </c>
+      <c r="B70" t="str">
+        <v>khedlund@kaxe.org</v>
+      </c>
+      <c r="C70" t="str">
+        <v>http://www.kaxe.org</v>
+      </c>
+      <c r="D70" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E70" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Minnesota</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Grand Rapids</v>
+      </c>
+      <c r="H70" t="str">
+        <v>260 NE 2nd St</v>
+      </c>
+      <c r="I70" t="str">
+        <v>55744</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2183261234</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>KFAI</v>
+      </c>
+      <c r="B71" t="str">
+        <v>miguelvargas@kfai.org</v>
+      </c>
+      <c r="C71" t="str">
+        <v>http://www.kfai.org</v>
+      </c>
+      <c r="D71" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E71" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F71" t="str">
+        <v>MInnesota</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Minneapolis</v>
+      </c>
+      <c r="H71" t="str">
+        <v>1808 Riverside Ave.</v>
+      </c>
+      <c r="I71" t="str">
+        <v>55454</v>
+      </c>
+      <c r="J71" t="str">
+        <v>6123413144</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>KRLX</v>
+      </c>
+      <c r="B72" t="str">
+        <v>music@krlx.org</v>
+      </c>
+      <c r="C72" t="str">
+        <v>http://krlx.org</v>
+      </c>
+      <c r="D72" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E72" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Minnesota</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Northfield</v>
+      </c>
+      <c r="H72" t="str">
+        <v>300 N. College St.</v>
+      </c>
+      <c r="I72" t="str">
+        <v>55057</v>
+      </c>
+      <c r="J72" t="str">
+        <v>5072224102</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>WELY</v>
+      </c>
+      <c r="B73" t="str">
+        <v>welydj@wely.com</v>
+      </c>
+      <c r="C73" t="str">
+        <v>http://www.wely.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E73" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Minnesota</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Ely</v>
+      </c>
+      <c r="H73" t="str">
+        <v>133 E. Chapman St.</v>
+      </c>
+      <c r="I73" t="str">
+        <v>55731</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2183654444</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>WTIP</v>
+      </c>
+      <c r="B74" t="str">
+        <v>wtip@boreal.org</v>
+      </c>
+      <c r="C74" t="str">
+        <v>http://wtip.org</v>
+      </c>
+      <c r="D74" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E74" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Minnesota</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Grand Marais</v>
+      </c>
+      <c r="H74" t="str">
+        <v>1712 W. Highway 61, PO Box 1005</v>
+      </c>
+      <c r="I74" t="str">
+        <v>55604</v>
+      </c>
+      <c r="J74" t="str">
+        <v>218387`070</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>KDHX</v>
+      </c>
+      <c r="B75" t="str">
+        <v>musicdepartment@kdhx.org</v>
+      </c>
+      <c r="C75" t="str">
+        <v>http://www.kdhx.org</v>
+      </c>
+      <c r="D75" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E75" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Missouri</v>
+      </c>
+      <c r="G75" t="str">
+        <v>St. Louis</v>
+      </c>
+      <c r="H75" t="str">
+        <v>3504 Magnolia St.</v>
+      </c>
+      <c r="I75" t="str">
+        <v>63118</v>
+      </c>
+      <c r="J75" t="str">
+        <v>3146643955</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>KKFI</v>
+      </c>
+      <c r="B76" t="str">
+        <v>newmusic@kkfi.org</v>
+      </c>
+      <c r="C76" t="str">
+        <v>http://www.kkfi.org</v>
+      </c>
+      <c r="D76" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E76" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Missouri</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Kansas City</v>
+      </c>
+      <c r="H76" t="str">
+        <v>PO Box 32250</v>
+      </c>
+      <c r="I76" t="str">
+        <v>64171</v>
+      </c>
+      <c r="J76" t="str">
+        <v>8169313122</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>KOPN</v>
+      </c>
+      <c r="B77" t="str">
+        <v>md@kopnmusic.org</v>
+      </c>
+      <c r="C77" t="str">
+        <v>http://www.lopn.org</v>
+      </c>
+      <c r="D77" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E77" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Missouri</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Columbia</v>
+      </c>
+      <c r="H77" t="str">
+        <v>915 E. Broadway St.</v>
+      </c>
+      <c r="I77" t="str">
+        <v>65201</v>
+      </c>
+      <c r="J77" t="str">
+        <v>5738741139</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>KTBG</v>
+      </c>
+      <c r="B78" t="str">
+        <v>jhart@ktbg.fm</v>
+      </c>
+      <c r="C78" t="str">
+        <v>http://ktbg.fm</v>
+      </c>
+      <c r="D78" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E78" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Missouri</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Warrenburg</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Wood 11</v>
+      </c>
+      <c r="I78" t="str">
+        <v>64093</v>
+      </c>
+      <c r="J78" t="str">
+        <v>6605434491</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>KZUM</v>
+      </c>
+      <c r="B79" t="str">
+        <v>programming@kzum.org</v>
+      </c>
+      <c r="C79" t="str">
+        <v>http://www.kzum.org</v>
+      </c>
+      <c r="D79" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E79" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Nebraska</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Lincoln</v>
+      </c>
+      <c r="H79" t="str">
+        <v>3534 S 48th St. #6</v>
+      </c>
+      <c r="I79" t="str">
+        <v>68506</v>
+      </c>
+      <c r="J79" t="str">
+        <v>4024725086</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>WSCA</v>
+      </c>
+      <c r="B80" t="str">
+        <v>music_director@wscafm.org</v>
+      </c>
+      <c r="C80" t="str">
+        <v>http://portsmouthcommunityradio.org</v>
+      </c>
+      <c r="D80" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E80" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F80" t="str">
+        <v>New Hampshire</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Portsmouth</v>
+      </c>
+      <c r="H80" t="str">
+        <v>PO Box 6532</v>
+      </c>
+      <c r="I80" t="str">
+        <v>03802</v>
+      </c>
+      <c r="J80" t="str">
+        <v>6034309722</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Death Valley Radio</v>
+      </c>
+      <c r="B81" t="str">
+        <v>info@deathvalleyradio.org</v>
+      </c>
+      <c r="C81" t="str">
+        <v>http://deathvalleyradio.org</v>
+      </c>
+      <c r="D81" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E81" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F81" t="str">
+        <v>New Jersey</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Hackettstown</v>
+      </c>
+      <c r="H81" t="str">
+        <v>400 Jefferson St.</v>
+      </c>
+      <c r="I81" t="str">
+        <v>07840</v>
+      </c>
+      <c r="J81" t="str">
+        <v>9088524545</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Dogbites</v>
+      </c>
+      <c r="B82" t="str">
+        <v>michael.watterson@verizon.net</v>
+      </c>
+      <c r="C82" t="str">
+        <v>http://www.wnti.org</v>
+      </c>
+      <c r="D82" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E82" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F82" t="str">
+        <v>New Jersey</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Hackettstown</v>
+      </c>
+      <c r="H82" t="str">
+        <v>400 Jefferson St.</v>
+      </c>
+      <c r="I82" t="str">
+        <v>07840</v>
+      </c>
+      <c r="J82" t="str">
+        <v>9088524545</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>WDVR</v>
+      </c>
+      <c r="B83" t="str">
+        <v>carla@carlavandyk.com</v>
+      </c>
+      <c r="C83" t="str">
+        <v>http://www.wdvrfm.org</v>
+      </c>
+      <c r="D83" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E83" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F83" t="str">
+        <v>New Jersey</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Sergeantsville</v>
+      </c>
+      <c r="H83" t="str">
+        <v>PO Box 191</v>
+      </c>
+      <c r="I83" t="str">
+        <v>08557</v>
+      </c>
+      <c r="J83" t="str">
+        <v>6093971620</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>KGLP</v>
+      </c>
+      <c r="B84" t="str">
+        <v>manager@kglp.org</v>
+      </c>
+      <c r="C84" t="str">
+        <v>http://www.kglp.org</v>
+      </c>
+      <c r="D84" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E84" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F84" t="str">
+        <v>New Mexico</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Gallup</v>
+      </c>
+      <c r="H84" t="str">
+        <v>705 Gurley Ave.</v>
+      </c>
+      <c r="I84" t="str">
+        <v>87301</v>
+      </c>
+      <c r="J84" t="str">
+        <v>5058637625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>WAMC</v>
+      </c>
+      <c r="B85" t="str">
+        <v>mail@wamc.org</v>
+      </c>
+      <c r="C85" t="str">
+        <v>http://www.wamc.org</v>
+      </c>
+      <c r="D85" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E85" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F85" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Albany</v>
+      </c>
+      <c r="H85" t="str">
+        <v>PO Box 66600</v>
+      </c>
+      <c r="I85" t="str">
+        <v>12206</v>
+      </c>
+      <c r="J85" t="str">
+        <v>5184655233</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>WDST</v>
+      </c>
+      <c r="B86" t="str">
+        <v>live@radiowoodstock.com</v>
+      </c>
+      <c r="C86" t="str">
+        <v>http://www.wdst.com</v>
+      </c>
+      <c r="D86" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E86" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F86" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Woodstock</v>
+      </c>
+      <c r="H86" t="str">
+        <v>293 Tinker St.</v>
+      </c>
+      <c r="I86" t="str">
+        <v>12498</v>
+      </c>
+      <c r="J86" t="str">
+        <v>8456797600</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>WDYN</v>
+      </c>
+      <c r="B87" t="str">
+        <v>wdyn@wdyn.net</v>
+      </c>
+      <c r="C87" t="str">
+        <v>http://dynamicradio.net</v>
+      </c>
+      <c r="D87" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E87" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F87" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Rochester</v>
+      </c>
+      <c r="H87" t="str">
+        <v>2844-46 Dewey Ave</v>
+      </c>
+      <c r="I87" t="str">
+        <v>14616</v>
+      </c>
+      <c r="J87" t="str">
+        <v>5856216270</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>WIOX</v>
+      </c>
+      <c r="B88" t="str">
+        <v>wioxhq@gmail.com</v>
+      </c>
+      <c r="C88" t="str">
+        <v>http://www.wioxradio.org</v>
+      </c>
+      <c r="D88" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E88" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F88" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Roxbury</v>
+      </c>
+      <c r="H88" t="str">
+        <v>PO Box 100</v>
+      </c>
+      <c r="I88" t="str">
+        <v>12474</v>
+      </c>
+      <c r="J88" t="str">
+        <v>6073263900</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>WJFF</v>
+      </c>
+      <c r="B89" t="str">
+        <v>wjff@wjffradio.org</v>
+      </c>
+      <c r="C89" t="str">
+        <v>http://www.wjffradio.org</v>
+      </c>
+      <c r="D89" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E89" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F89" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Jeffersonville</v>
+      </c>
+      <c r="H89" t="str">
+        <v>4765 State Rt. 52 PO Box 546</v>
+      </c>
+      <c r="I89" t="str">
+        <v>12748</v>
+      </c>
+      <c r="J89" t="str">
+        <v>8454824141</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>WKZE</v>
+      </c>
+      <c r="B90" t="str">
+        <v>info@wkze.com</v>
+      </c>
+      <c r="C90" t="str">
+        <v>http://www.wkze.com</v>
+      </c>
+      <c r="D90" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E90" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F90" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Red Hook</v>
+      </c>
+      <c r="H90" t="str">
+        <v>7564 N. Broadway</v>
+      </c>
+      <c r="I90" t="str">
+        <v>12571</v>
+      </c>
+      <c r="J90" t="str">
+        <v>8457589810</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>WONY</v>
+      </c>
+      <c r="B91" t="str">
+        <v>wonymusic@gmail.com</v>
+      </c>
+      <c r="C91" t="str">
+        <v>http://www.wonyfm.com</v>
+      </c>
+      <c r="D91" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E91" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F91" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Oneonta</v>
+      </c>
+      <c r="H91" t="str">
+        <v>1A Alumni Hall</v>
+      </c>
+      <c r="I91" t="str">
+        <v>13820</v>
+      </c>
+      <c r="J91" t="str">
+        <v>6074362712</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>WUSB</v>
+      </c>
+      <c r="B92" t="str">
+        <v>md@wusb.fm</v>
+      </c>
+      <c r="C92" t="str">
+        <v>http://www.wusb.fm</v>
+      </c>
+      <c r="D92" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E92" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F92" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Ithaca</v>
+      </c>
+      <c r="H92" t="str">
+        <v>957-B Mitchell St</v>
+      </c>
+      <c r="I92" t="str">
+        <v>14850</v>
+      </c>
+      <c r="J92" t="str">
+        <v>6072734000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>WCOM</v>
+      </c>
+      <c r="B93" t="str">
+        <v>stationmanager@wcomfm.org</v>
+      </c>
+      <c r="C93" t="str">
+        <v>http://www.wcomfm.org</v>
+      </c>
+      <c r="D93" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E93" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F93" t="str">
+        <v>North Carolina</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Carrboro</v>
+      </c>
+      <c r="H93" t="str">
+        <v>300-G E Main St.</v>
+      </c>
+      <c r="I93" t="str">
+        <v>27510</v>
+      </c>
+      <c r="J93" t="str">
+        <v>9199299601</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>WNCW's Music Mix</v>
+      </c>
+      <c r="B94" t="str">
+        <v>josephdkendrick@gmail.com</v>
+      </c>
+      <c r="C94" t="str">
+        <v>http://whatitisradio.org</v>
+      </c>
+      <c r="D94" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E94" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F94" t="str">
+        <v>North Carolina</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Spindale</v>
+      </c>
+      <c r="H94" t="str">
+        <v>286 ICC Loop Rd.</v>
+      </c>
+      <c r="I94" t="str">
+        <v>28160</v>
+      </c>
+      <c r="J94" t="str">
+        <v>8282878000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>WPVM</v>
+      </c>
+      <c r="B95" t="str">
+        <v>music@main-fm.org</v>
+      </c>
+      <c r="C95" t="str">
+        <v>http://main-fm.org</v>
+      </c>
+      <c r="D95" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E95" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F95" t="str">
+        <v>North Carolina</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Asheville</v>
+      </c>
+      <c r="H95" t="str">
+        <v>75 Haywood St</v>
+      </c>
+      <c r="I95" t="str">
+        <v>28801</v>
+      </c>
+      <c r="J95" t="str">
+        <v>8282580085</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>The Cream of Broccoli Radio Hour</v>
+      </c>
+      <c r="B96" t="str">
+        <v>md@wruw.org</v>
+      </c>
+      <c r="C96" t="str">
+        <v>http://www.wruw.org</v>
+      </c>
+      <c r="D96" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E96" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Cleveland</v>
+      </c>
+      <c r="H96" t="str">
+        <v>11220 Bellflower Rd.</v>
+      </c>
+      <c r="I96" t="str">
+        <v>44106</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2163682208</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Independent Playground</v>
+      </c>
+      <c r="B97" t="str">
+        <v>tbutler@cd101.com</v>
+      </c>
+      <c r="C97" t="str">
+        <v>http://www.facebook.com/TheIndependentPlayground</v>
+      </c>
+      <c r="D97" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E97" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Columbus</v>
+      </c>
+      <c r="H97" t="str">
+        <v>1036 S. Front St</v>
+      </c>
+      <c r="I97" t="str">
+        <v>43206</v>
+      </c>
+      <c r="J97" t="str">
+        <v>6142219923</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J97"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1759,13 +4864,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A82:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B82" t="str">
+        <v>email</v>
+      </c>
+      <c r="C82" t="str">
+        <v>address</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A82:C82"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1798,7 +4915,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1981,2581 +5098,2636 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Birghtside Live</v>
+        <v>Christmas Underground</v>
       </c>
       <c r="B17" t="str">
-        <v>thegang@brightsidelive.com</v>
+        <v>christmasunderground@gmail.com</v>
       </c>
       <c r="C17" t="str">
-        <v>http://www.brightsidelive.com</v>
+        <v>http://christmasunderground.com</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Christmas Underground</v>
+        <v>clicky clicky</v>
       </c>
       <c r="B18" t="str">
-        <v>christmasunderground@gmail.com</v>
+        <v>breitling@gmail.com</v>
       </c>
       <c r="C18" t="str">
-        <v>http://christmasunderground.com</v>
+        <v>http://clickyclickymusic.com</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>clicky clicky</v>
+        <v>DeadJournalist.com</v>
       </c>
       <c r="B19" t="str">
-        <v>breitling@gmail.com</v>
+        <v>deadjournalist@gmail.com</v>
       </c>
       <c r="C19" t="str">
-        <v>http://clickyclickymusic.com</v>
+        <v>http://www.deadjournalist.com/DJdc</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>DeadJournalist.com</v>
+        <v>Dingus</v>
       </c>
       <c r="B20" t="str">
-        <v>deadjournalist@gmail.com</v>
+        <v>dingus.tips@gmail.com</v>
       </c>
       <c r="C20" t="str">
-        <v>http://www.deadjournalist.com/DJdc</v>
+        <v>http://www.dingusonmusic.com</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Dingus</v>
+        <v>Dog Gone Blog</v>
       </c>
       <c r="B21" t="str">
-        <v>dingus.tips@gmail.com</v>
+        <v>doggoneblog@gmail.com</v>
       </c>
       <c r="C21" t="str">
-        <v>http://www.dingusonmusic.com</v>
+        <v>http://doggoneblog.com</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Dog Gone Blog</v>
+        <v>Elephant Talk</v>
       </c>
       <c r="B22" t="str">
-        <v>doggoneblog@gmail.com</v>
+        <v>elephanttalksubmissions@gmail.com</v>
       </c>
       <c r="C22" t="str">
-        <v>http://doggoneblog.com</v>
+        <v>http://elephanttalkindie.wordpress.com</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Elephant Talk</v>
+        <v>The Eclectic Ear</v>
       </c>
       <c r="B23" t="str">
-        <v>elephanttalksubmissions@gmail.com</v>
+        <v>tbrosnan@live.com</v>
       </c>
       <c r="C23" t="str">
-        <v>http://elephanttalkindie.wordpress.com</v>
+        <v>http://timbrosnan.wordpress.com</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>The Eclectic Ear</v>
+        <v>Enter The Shell Blog and Podcast</v>
       </c>
       <c r="B24" t="str">
-        <v>tbrosnan@live.com</v>
+        <v>mailo@entertheshell.com</v>
       </c>
       <c r="C24" t="str">
-        <v>http://timbrosnan.wordpress.com</v>
+        <v>http://www.entertheshell.com</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Enter The Shell Blog and Podcast</v>
+        <v>Feast of Beast</v>
       </c>
       <c r="B25" t="str">
-        <v>mailo@entertheshell.com</v>
+        <v>feastofbeast@gmail.com</v>
       </c>
       <c r="C25" t="str">
-        <v>http://www.entertheshell.com</v>
+        <v>http://feastofbeast.tumblr.com</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Feast of Beast</v>
+        <v>Fingertips</v>
       </c>
       <c r="B26" t="str">
-        <v>feastofbeast@gmail.com</v>
+        <v>fingertipsmusic@gmail.com</v>
       </c>
       <c r="C26" t="str">
-        <v>http://feastofbeast.tumblr.com</v>
+        <v>http://www.fingertipsmusic.com</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Fingertips</v>
+        <v>Forest Gospel</v>
       </c>
       <c r="B27" t="str">
-        <v>fingertipsmusic@gmail.com</v>
+        <v>forestgospel@hotmail.com</v>
       </c>
       <c r="C27" t="str">
-        <v>http://www.fingertipsmusic.com</v>
+        <v>http://forestgospel.blogspot.com</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Forest Gospel</v>
+        <v>Friends With Both Arms</v>
       </c>
       <c r="B28" t="str">
-        <v>forestgospel@hotmail.com</v>
+        <v>nalic11@gmail.com</v>
       </c>
       <c r="C28" t="str">
-        <v>http://forestgospel.blogspot.com</v>
+        <v>http://www.friendswithbotharms.com</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Friends With Both Arms</v>
+        <v>GIMME TINNITUS</v>
       </c>
       <c r="B29" t="str">
-        <v>nalic11@gmail.com</v>
+        <v>gimmetinnitus@gmail.com</v>
       </c>
       <c r="C29" t="str">
-        <v>http://www.friendswithbotharms.com</v>
+        <v>http://gimmetinnitus.com</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>GIMME TINNITUS</v>
+        <v>gorilla vs. bear</v>
       </c>
       <c r="B30" t="str">
-        <v>gimmetinnitus@gmail.com</v>
+        <v>chris@gorillavsbear.net</v>
       </c>
       <c r="C30" t="str">
-        <v>http://gimmetinnitus.com</v>
+        <v>http://www.gorillavsbear.net</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>gorilla vs. bear</v>
+        <v>Hear, Hear!</v>
       </c>
       <c r="B31" t="str">
-        <v>chris@gorillavsbear.net</v>
+        <v>kroessman@gmail.com</v>
       </c>
       <c r="C31" t="str">
-        <v>http://www.gorillavsbear.net</v>
+        <v>http://hearhearmusic.com</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Hear, Hear!</v>
+        <v>HearYa</v>
       </c>
       <c r="B32" t="str">
-        <v>kroessman@gmail.com</v>
+        <v>hearyablog@yahoo.com</v>
       </c>
       <c r="C32" t="str">
-        <v>http://hearhearmusic.com</v>
+        <v>http://www.hearya.com</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>HearYa</v>
+        <v>The Hood Internet</v>
       </c>
       <c r="B33" t="str">
-        <v>hearyablog@yahoo.com</v>
+        <v>thehoodinternet@gmail.com</v>
       </c>
       <c r="C33" t="str">
-        <v>http://www.hearya.com</v>
+        <v>http://thehoodinternet.com</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>The Hood Internet</v>
+        <v>I Guess I'm Floating</v>
       </c>
       <c r="B34" t="str">
-        <v>thehoodinternet@gmail.com</v>
+        <v>contact.iguessimfloating@gmail.com</v>
       </c>
       <c r="C34" t="str">
-        <v>http://thehoodinternet.com</v>
+        <v>http://iguessimfloating.blogspot.com</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>I Guess I'm Floating</v>
+        <v>I Listen So You Don't Have To.</v>
       </c>
       <c r="B35" t="str">
-        <v>contact.iguessimfloating@gmail.com</v>
+        <v>ilsudh2@gmail.com</v>
       </c>
       <c r="C35" t="str">
-        <v>http://iguessimfloating.blogspot.com</v>
+        <v>http://ilistensoyoudonthaveto.com</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>I Listen So You Don't Have To.</v>
+        <v>I Rock Cleveland</v>
       </c>
       <c r="B36" t="str">
-        <v>ilsudh2@gmail.com</v>
+        <v>irockcleveland@gmail.com</v>
       </c>
       <c r="C36" t="str">
-        <v>http://ilistensoyoudonthaveto.com</v>
+        <v>http://blog.irockcleveland.com</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>I Rock Cleveland</v>
+        <v>Indie Obsessive</v>
       </c>
       <c r="B37" t="str">
-        <v>irockcleveland@gmail.com</v>
+        <v>IndieObsessive@gmail.com</v>
       </c>
       <c r="C37" t="str">
-        <v>http://blog.irockcleveland.com</v>
+        <v>http://indieobsessive.blogspot.com</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Indie Obsessive</v>
+        <v>The Indie Place</v>
       </c>
       <c r="B38" t="str">
-        <v>IndieObsessive@gmail.com</v>
+        <v>raymie@theindieplace.com</v>
       </c>
       <c r="C38" t="str">
-        <v>http://indieobsessive.blogspot.com</v>
+        <v>http://theindieplace.com</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>The Indie Place</v>
+        <v>Indie Shuffle</v>
       </c>
       <c r="B39" t="str">
-        <v>raymie@theindieplace.com</v>
+        <v>submissions@indieshuffle.com</v>
       </c>
       <c r="C39" t="str">
-        <v>http://theindieplace.com</v>
+        <v>http://www.indieshuffle.com</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Indie Shuffle</v>
+        <v>Indie Today</v>
       </c>
       <c r="B40" t="str">
-        <v>submissions@indieshuffle.com</v>
+        <v>drh994@gmail.com</v>
       </c>
       <c r="C40" t="str">
-        <v>http://www.indieshuffle.com</v>
+        <v>http://indietoday.net</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Indie Today</v>
+        <v>The JogTunes Indie Podcast</v>
       </c>
       <c r="B41" t="str">
-        <v>drh994@gmail.com</v>
+        <v>jogtunes@gmail.com</v>
       </c>
       <c r="C41" t="str">
-        <v>http://indietoday.net</v>
+        <v>http://jogtunes.com</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>The JogTunes Indie Podcast</v>
+        <v>Jungle Indie Rock</v>
       </c>
       <c r="B42" t="str">
-        <v>jogtunes@gmail.com</v>
+        <v>jimdoindierockmusic@yahoo.com</v>
       </c>
       <c r="C42" t="str">
-        <v>http://jogtunes.com</v>
+        <v>http://www.jungleindierock.com</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Jon Ali's Blog</v>
+        <v>Kings of A&amp;R</v>
       </c>
       <c r="B43" t="str">
-        <v>jon@jonaslisblog.com</v>
+        <v>dean@kingsofar.com</v>
       </c>
       <c r="C43" t="str">
-        <v>http://jonaslisblog.com</v>
+        <v>http://www.kingsofar.com</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jungle Indie Rock</v>
+        <v>Knox Road</v>
       </c>
       <c r="B44" t="str">
-        <v>jimdoindierockmusic@yahoo.com</v>
+        <v>knoxroadblog@gmail.com</v>
       </c>
       <c r="C44" t="str">
-        <v>http://www.jungleindierock.com</v>
+        <v>http://www.knoxroad.com</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Kings of A&amp;R</v>
+        <v>Largehearted Boy</v>
       </c>
       <c r="B45" t="str">
-        <v>dean@kingsofar.com</v>
+        <v>boy@largeheartedboy.com</v>
       </c>
       <c r="C45" t="str">
-        <v>http://www.kingsofar.com</v>
+        <v>http://blog.largeheartedboy.com</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Knox Road</v>
+        <v>Loudersoft</v>
       </c>
       <c r="B46" t="str">
-        <v>knoxroadblog@gmail.com</v>
+        <v>promo@loudersoft.com</v>
       </c>
       <c r="C46" t="str">
-        <v>http://www.knoxroad.com</v>
+        <v>http://loudersoft.com</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Largehearted Boy</v>
+        <v>lyriquediscorde</v>
       </c>
       <c r="B47" t="str">
-        <v>boy@largeheartedboy.com</v>
+        <v>lyrique.discorde@gmail.com</v>
       </c>
       <c r="C47" t="str">
-        <v>http://blog.largeheartedboy.com</v>
+        <v>http://lyriquediscorde.com</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Loudersoft</v>
+        <v>Maimed and Tamed</v>
       </c>
       <c r="B48" t="str">
-        <v>promo@loudersoft.com</v>
+        <v>info@maimedandtamed.com</v>
       </c>
       <c r="C48" t="str">
-        <v>http://loudersoft.com</v>
+        <v>http://maimedandtamed.com</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>lyriquediscorde</v>
+        <v>The Modern Folk Music of America</v>
       </c>
       <c r="B49" t="str">
-        <v>lyrique.discorde@gmail.com</v>
+        <v>modern.folk@gmail.com</v>
       </c>
       <c r="C49" t="str">
-        <v>http://lyriquediscorde.com</v>
+        <v>http://www.themodernfolk.net</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Maimed and Tamed</v>
+        <v>Muruch</v>
       </c>
       <c r="B50" t="str">
-        <v>info@maimedandtamed.com</v>
+        <v>muruch@gmail.com</v>
       </c>
       <c r="C50" t="str">
-        <v>http://maimedandtamed.com</v>
+        <v>http://www.muruch.com</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>The Modern Folk Music of America</v>
+        <v>The Music Ninja</v>
       </c>
       <c r="B51" t="str">
-        <v>modern.folk@gmail.com</v>
+        <v>blas@themusicninja.com</v>
       </c>
       <c r="C51" t="str">
-        <v>http://www.themodernfolk.net</v>
+        <v>http://www.themusicninja.com</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mostly Junkfood</v>
+        <v>MusicBoxPete</v>
       </c>
       <c r="B52" t="str">
-        <v>press@mostlyjunkfood.com</v>
+        <v>musicboxpete@gmail.com</v>
       </c>
       <c r="C52" t="str">
-        <v>http://mostlyjunkfood.com</v>
+        <v>http://www.musicboxpete.com</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Muruch</v>
+        <v>Needcoffee.com</v>
       </c>
       <c r="B53" t="str">
-        <v>muruch@gmail.com</v>
+        <v>loonies@needcoffee.com</v>
       </c>
       <c r="C53" t="str">
-        <v>http://www.muruch.com</v>
+        <v>http://www.needcoffee.com</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>The Music Ninja</v>
+        <v>Now This Sound Is Brave</v>
       </c>
       <c r="B54" t="str">
-        <v>blas@themusicninja.com</v>
+        <v>jennifer@nowthissound.com</v>
       </c>
       <c r="C54" t="str">
-        <v>http://www.themusicninja.com</v>
+        <v>http://www.nowthissound.com</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>MusicBoxPete</v>
+        <v>Obscure Sound</v>
       </c>
       <c r="B55" t="str">
-        <v>musicboxpete@gmail.com</v>
+        <v>mike@obscuresound.com</v>
       </c>
       <c r="C55" t="str">
-        <v>http://www.musicboxpete.com</v>
+        <v>http://obscuresound.com</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Needcoffee.com</v>
+        <v>Oh So Fresh! Music</v>
       </c>
       <c r="B56" t="str">
-        <v>loonies@needcoffee.com</v>
+        <v>osfeditor@gmail.com</v>
       </c>
       <c r="C56" t="str">
-        <v>http://www.needcoffee.com</v>
+        <v>http://www.ohsofreshmusic.com</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Newdust</v>
+        <v>Pigeons and Planes</v>
       </c>
       <c r="B57" t="str">
-        <v>travis@newdust.com</v>
+        <v>pigeonsandplanes@gmail.com</v>
       </c>
       <c r="C57" t="str">
-        <v>http://www.newdust.com</v>
+        <v>http://pigeonsandplanes.com</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Now This Sound Is Brave</v>
+        <v>Popa's Tunes</v>
       </c>
       <c r="B58" t="str">
-        <v>jennifer@nowthissound.com</v>
+        <v>msubject2change@gmail.com</v>
       </c>
       <c r="C58" t="str">
-        <v>http://www.nowthissound.com</v>
+        <v>http://popatunes.blogspot.com</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Now Tune In</v>
+        <v>Popdose</v>
       </c>
       <c r="B59" t="str">
-        <v>info@nowtunein.com</v>
+        <v>creighton.keith@gmail.com</v>
       </c>
       <c r="C59" t="str">
-        <v>http://www.nowtunein.com</v>
+        <v>http://www.popdose.com</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Obscure Sound</v>
+        <v>PowerPop</v>
       </c>
       <c r="B60" t="str">
-        <v>mike@obscuresound.com</v>
+        <v>ssimels@gmail.com</v>
       </c>
       <c r="C60" t="str">
-        <v>http://obscuresound.com</v>
+        <v>http://www.powerpop.blogspot.com</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Oh So Fresh! Music</v>
+        <v>Powerpopulist</v>
       </c>
       <c r="B61" t="str">
-        <v>osfeditor@gmail.com</v>
+        <v>powerpopulist@yahoo.com</v>
       </c>
       <c r="C61" t="str">
-        <v>http://www.ohsofreshmusic.com</v>
+        <v>http://powerpopulist.blogspot.com</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Pigeons and Planes</v>
+        <v>Rawblog</v>
       </c>
       <c r="B62" t="str">
-        <v>pigeonsandplanes@gmail.com</v>
+        <v>rawkblog@gmail.com</v>
       </c>
       <c r="C62" t="str">
-        <v>http://pigeonsandplanes.com</v>
+        <v>http://www.rawblog.net</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Popa's Tunes</v>
+        <v>Rollo &amp; Grady</v>
       </c>
       <c r="B63" t="str">
-        <v>msubject2change@gmail.com</v>
+        <v>rollogrady@gmail.com</v>
       </c>
       <c r="C63" t="str">
-        <v>http://popatunes.blogspot.com</v>
+        <v>http://www.rollogrady.com</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Popdose</v>
+        <v>Ryan's Smashing Life</v>
       </c>
       <c r="B64" t="str">
-        <v>creighton.keith@gmail.com</v>
+        <v>rsl@rslblog.com</v>
       </c>
       <c r="C64" t="str">
-        <v>http://www.popdose.com</v>
+        <v>http://www.rslblog.com</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>PowerPop</v>
+        <v>Side One: Track One</v>
       </c>
       <c r="B65" t="str">
-        <v>ssimels@gmail.com</v>
+        <v>sideonetrackone@gmail.com</v>
       </c>
       <c r="C65" t="str">
-        <v>http://www.powerpop.blogspot.com</v>
+        <v>http://www.sideonetrackone.com</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Powerpopulist</v>
+        <v>The Singles Jukebox</v>
       </c>
       <c r="B66" t="str">
-        <v>powerpopulist@yahoo.com</v>
+        <v>info@thesinglesjukebox.com</v>
       </c>
       <c r="C66" t="str">
-        <v>http://powerpopulist.blogspot.com</v>
+        <v>http://www.thesinglesjukebox.com</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Pretty Much Amazing</v>
+        <v>skatterbrain</v>
       </c>
       <c r="B67" t="str">
-        <v>editor@gmail.com</v>
+        <v>skatterbrainpop@gmail.com</v>
       </c>
       <c r="C67" t="str">
-        <v>http://prettymuchamazing.com</v>
+        <v>http://skatterbrain.org</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rawblog</v>
+        <v>Sleeping Hedgehog</v>
       </c>
       <c r="B68" t="str">
-        <v>rawkblog@gmail.com</v>
+        <v>editor@sleepinghedgehog.com</v>
       </c>
       <c r="C68" t="str">
-        <v>http://www.rawblog.net</v>
+        <v>http://sleepinghedgehod.com</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rollo &amp; Grady</v>
+        <v>songsfortheday</v>
       </c>
       <c r="B69" t="str">
-        <v>rollogrady@gmail.com</v>
+        <v>songsfortheday@gmail.com</v>
       </c>
       <c r="C69" t="str">
-        <v>http://www.rollogrady.com</v>
+        <v>http://songsfortheday.wordpress.com</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Ryan's Smashing Life</v>
+        <v>Sound In The Signals Magazine</v>
       </c>
       <c r="B70" t="str">
-        <v>rsl@rslblog.com</v>
+        <v>soundinthesignals@gmail.com</v>
       </c>
       <c r="C70" t="str">
-        <v>http://www.rslblog.com</v>
+        <v>http://www.soundinthesignals.tk</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Side One: Track One</v>
+        <v>The Sound of Indie</v>
       </c>
       <c r="B71" t="str">
-        <v>sideonetrackone@gmail.com</v>
+        <v>kevin@thesoundofindie.com</v>
       </c>
       <c r="C71" t="str">
-        <v>http://www.sideonetrackone.com</v>
+        <v>http://www.thesoundofindie.com</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>The Singles Jukebox</v>
+        <v>Speakers in Code</v>
       </c>
       <c r="B72" t="str">
-        <v>info@thesinglesjukebox.com</v>
+        <v>jason.speakersincode@gmail.com</v>
       </c>
       <c r="C72" t="str">
-        <v>http://www.thesinglesjukebox.com</v>
+        <v>http://www.speakersincode.com</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>skatterbrain</v>
+        <v>The Stark Online</v>
       </c>
       <c r="B73" t="str">
-        <v>skatterbrainpop@gmail.com</v>
+        <v>starkny@thestarkonline.com</v>
       </c>
       <c r="C73" t="str">
-        <v>http://skatterbrain.org</v>
+        <v>http://www.thestarkonline.com</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Sleeping Hedgehog</v>
+        <v>Stricklysocial</v>
       </c>
       <c r="B74" t="str">
-        <v>editor@sleepinghedgehog.com</v>
+        <v>submissions@strictlysocial.com</v>
       </c>
       <c r="C74" t="str">
-        <v>http://sleepinghedgehod.com</v>
+        <v>http://www.strictlysocial.com</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>songsfortheday</v>
+        <v>Sunset in the Rearview</v>
       </c>
       <c r="B75" t="str">
-        <v>songsfortheday@gmail.com</v>
+        <v>music@sunsetintherearview.com</v>
       </c>
       <c r="C75" t="str">
-        <v>http://songsfortheday.wordpress.com</v>
+        <v>http://sunsetintherearview.com</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Sound In The Signals Magazine</v>
+        <v>The University of Music</v>
       </c>
       <c r="B76" t="str">
-        <v>soundinthesignals@gmail.com</v>
+        <v>theuofmusic@gmail.com</v>
       </c>
       <c r="C76" t="str">
-        <v>http://www.soundinthesignals.tk</v>
+        <v>http://uofmusic.com</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>The Sound of Indie</v>
+        <v>We All Want Someone To Shout For</v>
       </c>
       <c r="B77" t="str">
-        <v>kevin@thesoundofindie.com</v>
+        <v>weallwantsomeone@gmail.com</v>
       </c>
       <c r="C77" t="str">
-        <v>http://www.thesoundofindie.com</v>
+        <v>http://www.weallwantsomeone.org</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Speakers in Code</v>
+        <v>We Listen For You</v>
       </c>
       <c r="B78" t="str">
-        <v>jason.speakersincode@gmail.com</v>
+        <v>welistenforyoublog@gmail.com</v>
       </c>
       <c r="C78" t="str">
-        <v>http://www.speakersincode.com</v>
+        <v>http://www.welistenforyou.com</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>The Stark Online</v>
+        <v>What's Hip</v>
       </c>
       <c r="B79" t="str">
-        <v>starkny@thestarkonline.com</v>
+        <v>whatshipmusic@gmail.com</v>
       </c>
       <c r="C79" t="str">
-        <v>http://www.thestarkonline.com</v>
+        <v>http://whatship.net</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Stricklysocial</v>
+        <v>Wongie's Music World</v>
       </c>
       <c r="B80" t="str">
-        <v>submissions@strictlysocial.com</v>
+        <v>wongiesworld@yahoo.com</v>
       </c>
       <c r="C80" t="str">
-        <v>http://www.strictlysocial.com</v>
+        <v>http://www.wongiesmusicworld.blogspot.com</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Sunset in the Rearview</v>
+        <v>The World in a Paper Cup</v>
       </c>
       <c r="B81" t="str">
-        <v>music@sunsetintherearview.com</v>
+        <v>emma@theworldinapapercup.com</v>
       </c>
       <c r="C81" t="str">
-        <v>http://sunsetintherearview.com</v>
+        <v>http://www.theworldinapapercup.com</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>The University of Music</v>
+        <v>Yours Truly</v>
       </c>
       <c r="B82" t="str">
-        <v>theuofmusic@gmail.com</v>
+        <v>me@yourstru.ly</v>
       </c>
       <c r="C82" t="str">
-        <v>http://uofmusic.com</v>
+        <v>http://yourstru.ly</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>We All Want Someone To Shout For</v>
+        <v>A Good Day For Airplay</v>
       </c>
       <c r="B83" t="str">
-        <v>weallwantsomeone@gmail.com</v>
+        <v>gooddayairplay@gmail.com</v>
       </c>
       <c r="C83" t="str">
-        <v>http://www.weallwantsomeone.org</v>
+        <v>http://www.agooddayforairplay.com</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>We Listen For You</v>
+        <v>AWmusic.ca</v>
       </c>
       <c r="B84" t="str">
-        <v>welistenforyoublog@gmail.com</v>
+        <v>acheng88@gmail.com</v>
       </c>
       <c r="C84" t="str">
-        <v>http://www.welistenforyou.com</v>
+        <v>http://www.awmusic.ca</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>What's Hip</v>
+        <v>The Delete Bin</v>
       </c>
       <c r="B85" t="str">
-        <v>whatshipmusic@gmail.com</v>
+        <v>clippernolan@gmail.com</v>
       </c>
       <c r="C85" t="str">
-        <v>http://whatship.net</v>
+        <v>http://www.thedeletebin.com</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Wongie's Music World</v>
+        <v>Hillydilly</v>
       </c>
       <c r="B86" t="str">
-        <v>wongiesworld@yahoo.com</v>
+        <v>submit@hillydilly.com</v>
       </c>
       <c r="C86" t="str">
-        <v>http://www.wongiesmusicworld.blogspot.com</v>
+        <v>http://hillydilly.com</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>The World in a Paper Cup</v>
+        <v>radio free canuckistan</v>
       </c>
       <c r="B87" t="str">
-        <v>emma@theworldinapapercup.com</v>
+        <v>mmmbarclay@gmail.com</v>
       </c>
       <c r="C87" t="str">
-        <v>http://www.theworldinapapercup.com</v>
+        <v>http://www.radiofreecanuckistan.blogspot.com</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Yours Truly</v>
+        <v>Said the Gramophone</v>
       </c>
       <c r="B88" t="str">
-        <v>me@yourstru.ly</v>
+        <v>jordan@saidthegramophone.com</v>
       </c>
       <c r="C88" t="str">
-        <v>http://yourstru.ly</v>
+        <v>http://www.saidthegramophone.com</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>A Good Day For Airplay</v>
+        <v>Soft Signal</v>
       </c>
       <c r="B89" t="str">
-        <v>gooddayairplay@gmail.com</v>
+        <v>contact@softsignal.net</v>
       </c>
       <c r="C89" t="str">
-        <v>http://www.agooddayforairplay.com</v>
+        <v>http://www.softsignal.net</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>AWmusic.ca</v>
+        <v>Blog Musicologas</v>
       </c>
       <c r="B90" t="str">
-        <v>acheng88@gmail.com</v>
+        <v>musicologas@gmail.com</v>
       </c>
       <c r="C90" t="str">
-        <v>http://www.awmusic.ca</v>
+        <v>http://musicologas.blogspot.com</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>The Delete Bin</v>
+        <v>indieHearts</v>
       </c>
       <c r="B91" t="str">
-        <v>clippernolan@gmail.com</v>
+        <v>hola@indiehearts.com</v>
       </c>
       <c r="C91" t="str">
-        <v>http://www.thedeletebin.com</v>
+        <v>http://www.indiehearts.com</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Hillydilly</v>
+        <v>Sonido Indie</v>
       </c>
       <c r="B92" t="str">
-        <v>submit@hillydilly.com</v>
+        <v>sonidoindie@gmail.com</v>
       </c>
       <c r="C92" t="str">
-        <v>http://hillydilly.com</v>
+        <v>http://sonidoindie.blogspot.com</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>radio free canuckistan</v>
+        <v>All, Everyone, United</v>
       </c>
       <c r="B93" t="str">
-        <v>mmmbarclay@gmail.com</v>
+        <v>alleveryoneunited@gmail.com</v>
       </c>
       <c r="C93" t="str">
-        <v>http://www.radiofreecanuckistan.blogspot.com</v>
+        <v>http://alleveryone.blogspot.com</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Said the Gramophone</v>
+        <v>One Chord To Another</v>
       </c>
       <c r="B94" t="str">
-        <v>jordan@saidthegramophone.com</v>
+        <v>veslau@onechord.net</v>
       </c>
       <c r="C94" t="str">
-        <v>http://www.saidthegramophone.com</v>
+        <v>http://www.onechord.net</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Soft Signal</v>
+        <v>alain finkielkrautrock</v>
       </c>
       <c r="B95" t="str">
-        <v>contact@softsignal.net</v>
+        <v>alainfinkelkrautrock@gmail.com</v>
       </c>
       <c r="C95" t="str">
-        <v>http://www.softsignal.net</v>
+        <v>http://www.alainfinkiekrautrock.com</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Blog Musicologas</v>
+        <v>My Head is a Jukebox</v>
       </c>
       <c r="B96" t="str">
-        <v>musicologas@gmail.com</v>
+        <v>myheadisajukebox@gmail.com</v>
       </c>
       <c r="C96" t="str">
-        <v>http://musicologas.blogspot.com</v>
+        <v>http://myheadisajukebox.blogspot.com</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>indieHearts</v>
+        <v>das klienicum</v>
       </c>
       <c r="B97" t="str">
-        <v>hola@indiehearts.com</v>
+        <v>klienicum@yahoo.de</v>
       </c>
       <c r="C97" t="str">
-        <v>http://www.indiehearts.com</v>
+        <v>http://dasklienicum.blogspot.com</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Sonido Indie</v>
+        <v>No Fear Of Pop</v>
       </c>
       <c r="B98" t="str">
-        <v>sonidoindie@gmail.com</v>
+        <v>submissions@nofearofpop.net</v>
       </c>
       <c r="C98" t="str">
-        <v>http://sonidoindie.blogspot.com</v>
+        <v>http://nofearofpop.net</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>All, Everyone, United</v>
+        <v>Sexyloser</v>
       </c>
       <c r="B99" t="str">
-        <v>alleveryoneunited@gmail.com</v>
+        <v>dirk.huppertz@gmx.de</v>
       </c>
       <c r="C99" t="str">
-        <v>http://alleveryone.blogspot.com</v>
+        <v>http://www.sexy-loser.blogspot.com</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>One Chord To Another</v>
+        <v>Barrygruff</v>
       </c>
       <c r="B100" t="str">
-        <v>veslau@onechord.net</v>
+        <v>barrygruff@gmail.com</v>
       </c>
       <c r="C100" t="str">
-        <v>http://www.onechord.net</v>
+        <v>http://barrygruff.com</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>alain finkielkrautrock</v>
+        <v>The G-Man</v>
       </c>
       <c r="B101" t="str">
-        <v>alainfinkelkrautrock@gmail.com</v>
+        <v>bands@thegmanworld.com</v>
       </c>
       <c r="C101" t="str">
-        <v>http://www.alainfinkiekrautrock.com</v>
+        <v>http://www.thegmanworld.com</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>My Head is a Jukebox</v>
+        <v>mp3hugger</v>
       </c>
       <c r="B102" t="str">
-        <v>myheadisajukebox@gmail.com</v>
+        <v>contact@mp3hugger.com</v>
       </c>
       <c r="C102" t="str">
-        <v>http://myheadisajukebox.blogspot.com</v>
+        <v>http://www.mp3hugger.com</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>das klienicum</v>
+        <v>Indie for Bunnies</v>
       </c>
       <c r="B103" t="str">
-        <v>klienicum@yahoo.de</v>
+        <v>indieforbunnies@gmail.com</v>
       </c>
       <c r="C103" t="str">
-        <v>http://dasklienicum.blogspot.com</v>
+        <v>http://www.indieforbunnies.com</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>No Fear Of Pop</v>
+        <v>polaroid - un blog alla radio</v>
       </c>
       <c r="B104" t="str">
-        <v>submissions@nofearofpop.net</v>
+        <v>blog@polaroidallaradio.it</v>
       </c>
       <c r="C104" t="str">
-        <v>http://nofearofpop.net</v>
+        <v>http://polaroid.blogspot.com</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Sexyloser</v>
+        <v>Fine Fine Music</v>
       </c>
       <c r="B105" t="str">
-        <v>dirk.huppertz@gmx.de</v>
+        <v>mail@finefinemusic.com</v>
       </c>
       <c r="C105" t="str">
-        <v>http://www.sexy-loser.blogspot.com</v>
+        <v>http://www.finefinemusic.com</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Barrygruff</v>
+        <v>alltomorrowmusic</v>
       </c>
       <c r="B106" t="str">
-        <v>barrygruff@gmail.com</v>
+        <v>alltomorrowmusic@gmail.com</v>
       </c>
       <c r="C106" t="str">
-        <v>http://barrygruff.com</v>
+        <v>http://www.alltomorrowmusic.com</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>The G-Man</v>
+        <v>Bolachas</v>
       </c>
       <c r="B107" t="str">
-        <v>bands@thegmanworld.com</v>
+        <v>submit@bolachas.org</v>
       </c>
       <c r="C107" t="str">
-        <v>http://www.thegmanworld.com</v>
+        <v>http://bolachas.org</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>mp3hugger</v>
+        <v>ZME Music</v>
       </c>
       <c r="B108" t="str">
-        <v>contact@mp3hugger.com</v>
+        <v>tibipuiu@gmail.com</v>
       </c>
       <c r="C108" t="str">
-        <v>http://www.mp3hugger.com</v>
+        <v>http://www.zmemusic.com</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Nialler9</v>
+        <v>In The Riff</v>
       </c>
       <c r="B109" t="str">
-        <v>promo@nialler9.com</v>
+        <v>mail@intheriff.com</v>
       </c>
       <c r="C109" t="str">
-        <v>http://nialler9.com</v>
+        <v>http://www.intheriff.com</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Indie for Bunnies</v>
+        <v>17 Seconds</v>
       </c>
       <c r="B110" t="str">
-        <v>indieforbunnies@gmail.com</v>
+        <v>seventeensecondsblog@hotmail.co.uk</v>
       </c>
       <c r="C110" t="str">
-        <v>http://www.indieforbunnies.com</v>
+        <v>http://17seconds.co.uk</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>polaroid - un blog alla radio</v>
+        <v>Aye Tunes</v>
       </c>
       <c r="B111" t="str">
-        <v>blog@polaroidallaradio.it</v>
+        <v>jim@ayetunes.org.uk</v>
       </c>
       <c r="C111" t="str">
-        <v>http://polaroid.blogspot.com</v>
+        <v>http://blog.ayetunes.org.uk</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Music Eye Reviews</v>
+        <v>The Blue Walrus</v>
       </c>
       <c r="B112" t="str">
-        <v>justinas@aliveway.net</v>
+        <v>walrae@thebluewalrus.com</v>
       </c>
       <c r="C112" t="str">
-        <v>http://www.musiceyereviews.com</v>
+        <v>http://www.thebluewalrus.com</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Fine Fine Music</v>
+        <v>Bynar's Indie Disco</v>
       </c>
       <c r="B113" t="str">
-        <v>mail@finefinemusic.com</v>
+        <v>info@djbynar.com</v>
       </c>
       <c r="C113" t="str">
-        <v>http://www.finefinemusic.com</v>
+        <v>http://www.djbynar.com</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>alltomorrowmusic</v>
+        <v>Cougar Microbes</v>
       </c>
       <c r="B114" t="str">
-        <v>alltomorrowmusic@gmail.com</v>
+        <v>team@cougarmicrobes.com</v>
       </c>
       <c r="C114" t="str">
-        <v>http://www.alltomorrowmusic.com</v>
+        <v>http://www.cougarmicrobes.com</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Bolachas</v>
+        <v>Misfit City</v>
       </c>
       <c r="B115" t="str">
-        <v>submit@bolachas.org</v>
+        <v>misfitcitymail@gmail.com</v>
       </c>
       <c r="C115" t="str">
-        <v>http://bolachas.org</v>
+        <v>http://misfitcity.org</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>ZME Music</v>
+        <v>GoldFlakePaint</v>
       </c>
       <c r="B116" t="str">
-        <v>tibipuiu@gmail.com</v>
+        <v>mail@goldflakepaint.co.uk</v>
       </c>
       <c r="C116" t="str">
-        <v>http://www.zmemusic.com</v>
+        <v>http://www.goldflakepaint.co.uk</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>In The Riff</v>
+        <v>Hey Man, Check My Band</v>
       </c>
       <c r="B117" t="str">
-        <v>mail@intheriff.com</v>
+        <v>heymancheckmyband@gmail.com</v>
       </c>
       <c r="C117" t="str">
-        <v>http://www.intheriff.com</v>
+        <v>http://heymancheckmyband.wordpress.com</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Jungle Indie Rock</v>
+        <v>[last year's girl]</v>
       </c>
       <c r="B118" t="str">
-        <v>jimdoindierockmusic@yahoo.com</v>
+        <v>lisamarie@pixlet.net</v>
       </c>
       <c r="C118" t="str">
-        <v>http://jungleindierockspain.tumblr.com</v>
+        <v>http://lastyearsgirl.pixlet.net</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>17 Seconds</v>
+        <v>The Mad Mackerel</v>
       </c>
       <c r="B119" t="str">
-        <v>seventeensecondsblog@hotmail.co.uk</v>
+        <v>madmackerel@me.com</v>
       </c>
       <c r="C119" t="str">
-        <v>http://17seconds.co.uk</v>
+        <v>http://madmackerel.wordpress.com</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Aye Tunes</v>
+        <v>The Metaphorical  Boat</v>
       </c>
       <c r="B120" t="str">
-        <v>jim@ayetunes.org.uk</v>
+        <v>christophermcbride@outlook.com</v>
       </c>
       <c r="C120" t="str">
-        <v>http://blog.ayetunes.org.uk</v>
+        <v>http://metaphoricalboat.blogspot.ie</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>The Blue Walrus</v>
+        <v>Music Liberation</v>
       </c>
       <c r="B121" t="str">
-        <v>walrae@thebluewalrus.com</v>
+        <v>musicliberation@hotmail.co.uk</v>
       </c>
       <c r="C121" t="str">
-        <v>http://www.thebluewalrus.com</v>
+        <v>http://www.musicliberation.blogspot.com</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Bynar's Indie Disco</v>
+        <v>Music Like Dirt</v>
       </c>
       <c r="B122" t="str">
-        <v>info@djbynar.com</v>
+        <v>musiclikedirt@gmail.com</v>
       </c>
       <c r="C122" t="str">
-        <v>http://www.djbynar.com</v>
+        <v>http://www.musiclikedirt.com</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Cougar Microbes</v>
+        <v>My Band's Better Than Your Band</v>
       </c>
       <c r="B123" t="str">
-        <v>team@cougarmicrobes.com</v>
+        <v>ollierussian@gmail.com</v>
       </c>
       <c r="C123" t="str">
-        <v>http://www.cougarmicrobes.com</v>
+        <v>http://mybandsbetterthanyourband.com</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Misfit City</v>
+        <v>The Real Brit Jean</v>
       </c>
       <c r="B124" t="str">
-        <v>misfitcitymail@gmail.com</v>
+        <v>brit@therealbritjean.com</v>
       </c>
       <c r="C124" t="str">
-        <v>http://misfitcity.org</v>
+        <v>http://therealbritjean.com</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>GoldFlakePaint</v>
+        <v>No Rock &amp; Roll Fun</v>
       </c>
       <c r="B125" t="str">
-        <v>mail@goldflakepaint.co.uk</v>
+        <v>simonb@gmail.com</v>
       </c>
       <c r="C125" t="str">
-        <v>http://www.goldflakepaint.co.uk</v>
+        <v>http://xrrf.blogspot.com</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Hey Man, Check My Band</v>
+        <v>Song, by Toad</v>
       </c>
       <c r="B126" t="str">
-        <v>heymancheckmyband@gmail.com</v>
+        <v>toad@songbytoad.com</v>
       </c>
       <c r="C126" t="str">
-        <v>http://heymancheckmyband.wordpress.com</v>
+        <v>http://www.songbytoad.com</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>[last year's girl]</v>
+        <v>Spools Paradise</v>
       </c>
       <c r="B127" t="str">
-        <v>lisamarie@pixlet.net</v>
+        <v>spoolsparadise@live.co.uk</v>
       </c>
       <c r="C127" t="str">
-        <v>http://lastyearsgirl.pixlet.net</v>
+        <v>http://spoolsparadise.blogspot.com</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>The Mad Mackerel</v>
+        <v>Wake the Deaf</v>
       </c>
       <c r="B128" t="str">
-        <v>madmackerel@me.com</v>
+        <v>wakethedeaf@hotmail.co.uk</v>
       </c>
       <c r="C128" t="str">
-        <v>http://madmackerel.wordpress.com</v>
+        <v>http://wakethedeaf.co.uk</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>The Metaphorical  Boat</v>
+        <v>Doubtful Sounds</v>
       </c>
       <c r="B129" t="str">
-        <v>christophermcbride@outlook.com</v>
+        <v>doubtfulsounds@iprimus.com.au</v>
       </c>
       <c r="C129" t="str">
-        <v>http://metaphoricalboat.blogspot.ie</v>
+        <v>http://doubtfulsounds.net</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>The Monitors</v>
+        <v>Indie30.com</v>
       </c>
       <c r="B130" t="str">
-        <v>info@the-monitors.com</v>
+        <v>info@indie30.com</v>
       </c>
       <c r="C130" t="str">
-        <v>http://www.the-monitors.com</v>
+        <v>http://www.indie30.com</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Music Liberation</v>
+        <v>Oceans Never Listen</v>
       </c>
       <c r="B131" t="str">
-        <v>musicliberation@hotmail.co.uk</v>
+        <v>oceansneverlisten@gmail.com</v>
       </c>
       <c r="C131" t="str">
-        <v>http://www.musicliberation.blogspot.com</v>
+        <v>http://oceansneverlisten.blogspot.com</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Music Like Dirt</v>
+        <v>Songs That Should Be Mainstream</v>
       </c>
       <c r="B132" t="str">
-        <v>musiclikedirt@gmail.com</v>
+        <v>songs.that.should.be.famous@gmail.com</v>
       </c>
       <c r="C132" t="str">
-        <v>http://www.musiclikedirt.com</v>
+        <v>http://songs-that-should-be-mainstream.blogspot.com.au</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>My Band's Better Than Your Band</v>
+        <v>Gold Soundz</v>
       </c>
       <c r="B133" t="str">
-        <v>ollierussian@gmail.com</v>
+        <v>marc@goldsoundzblog.com</v>
       </c>
       <c r="C133" t="str">
-        <v>http://mybandsbetterthanyourband.com</v>
+        <v>http://goldsoundzblog.com</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>The Real Brit Jean</v>
+        <v>Hi-Hi-Whoopee</v>
       </c>
       <c r="B134" t="str">
-        <v>brit@therealbritjean.com</v>
+        <v>hihiwhoopee@gmail.com</v>
       </c>
       <c r="C134" t="str">
-        <v>http://therealbritjean.com</v>
+        <v>http://hihiwhoopee.tumblr.com</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>No Rock &amp; Roll Fun</v>
+        <v>Keep Cool Fool</v>
       </c>
       <c r="B135" t="str">
-        <v>simonb@gmail.com</v>
+        <v>kokubunj@gmail.com</v>
       </c>
       <c r="C135" t="str">
-        <v>http://xrrf.blogspot.com</v>
+        <v>http://blog.livedoor.jp/summerbreeze1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Song, by Toad</v>
+        <v>Honest Listener</v>
       </c>
       <c r="B136" t="str">
-        <v>toad@songbytoad.com</v>
+        <v>honestlistener@gmail.com</v>
       </c>
       <c r="C136" t="str">
-        <v>http://www.songbytoad.com</v>
+        <v>http://honestlistener.blogspot.jp</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Spools Paradise</v>
+        <v>Lights and Music</v>
       </c>
       <c r="B137" t="str">
-        <v>spoolsparadise@live.co.uk</v>
+        <v>lightsandmusic@gmail.com</v>
       </c>
       <c r="C137" t="str">
-        <v>http://spoolsparadise.blogspot.com</v>
+        <v>http://lightsandmusic.net</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Wake the Deaf</v>
+        <v>music-islands.com mp3 blog</v>
       </c>
       <c r="B138" t="str">
-        <v>wakethedeaf@hotmail.co.uk</v>
+        <v>fishthemusic@gmail.com</v>
       </c>
       <c r="C138" t="str">
-        <v>http://wakethedeaf.co.uk</v>
+        <v>http://music-islands.com/blog</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Doubtful Sounds</v>
+        <v>Public Rhythm</v>
       </c>
       <c r="B139" t="str">
-        <v>doubtfulsounds@iprimus.com.au</v>
+        <v>info@publicrhythm.com</v>
       </c>
       <c r="C139" t="str">
-        <v>http://doubtfulsounds.net</v>
+        <v>http://publicrhythm.com</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Indie30.com</v>
+        <v>sittingbythechurchwithdan</v>
       </c>
       <c r="B140" t="str">
-        <v>info@indie30.com</v>
+        <v>sittingbythechurchwithdan@gmail.com</v>
       </c>
       <c r="C140" t="str">
-        <v>http://www.indie30.com</v>
+        <v>http://sittingbythechurchwithdan.wordpress.com</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Oceans Never Listen</v>
+        <v>Anti-Gravity Bunny</v>
       </c>
       <c r="B141" t="str">
-        <v>oceansneverlisten@gmail.com</v>
+        <v>justin@antigravitybunny.com</v>
       </c>
       <c r="C141" t="str">
-        <v>http://oceansneverlisten.blogspot.com</v>
+        <v>http://antigravitybunny.com</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Songs That Should Be Mainstream</v>
+        <v>Avant Music News</v>
       </c>
       <c r="B142" t="str">
-        <v>songs.that.should.be.famous@gmail.com</v>
+        <v>mike@avantmusicnews.com</v>
       </c>
       <c r="C142" t="str">
-        <v>http://songs-that-should-be-mainstream.blogspot.com.au</v>
+        <v>http://avantmusicnews.com</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Woozy</v>
+        <v>Microphones in the Trees</v>
       </c>
       <c r="B143" t="str">
-        <v>wooozy@spli-t.com</v>
+        <v>apenina@mundo-r.com</v>
       </c>
       <c r="C143" t="str">
-        <v>http://www.wooozy.cn</v>
+        <v>http://calmintrees.blogspot.com</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Gold Soundz</v>
+        <v>Music For Maniacs</v>
       </c>
       <c r="B144" t="str">
-        <v>marc@goldsoundzblog.com</v>
+        <v>mrfab3@hotmail.com</v>
       </c>
       <c r="C144" t="str">
-        <v>http://goldsoundzblog.com</v>
+        <v>http://musicformaniacs.blogspot.com</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Hi-Hi-Whoopee</v>
+        <v>2kLIFE</v>
       </c>
       <c r="B145" t="str">
-        <v>hihiwhoopee@gmail.com</v>
+        <v>2klifeblog@gmail.com</v>
       </c>
       <c r="C145" t="str">
-        <v>http://hihiwhoopee.tumblr.com</v>
+        <v>http://www.2klife.net</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Keep Cool Fool</v>
+        <v>2Lsonacloud</v>
       </c>
       <c r="B146" t="str">
-        <v>kokubunj@gmail.com</v>
+        <v>2Lsonacloud@gmail.com</v>
       </c>
       <c r="C146" t="str">
-        <v>http://blog.livedoor.jp/summerbreeze1</v>
+        <v>http://www.2lsonacloud.com</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Honest Listener</v>
+        <v>2words The Top</v>
       </c>
       <c r="B147" t="str">
-        <v>honestlistener@gmail.com</v>
+        <v>2wordsthetop@gmail.com</v>
       </c>
       <c r="C147" t="str">
-        <v>http://honestlistener.blogspot.jp</v>
+        <v>http://2wordsthetop.com</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Lights and Music</v>
+        <v>718UNLIMITED.COM</v>
       </c>
       <c r="B148" t="str">
-        <v>lightsandmusic@gmail.com</v>
+        <v>718unlimited@gmail.com</v>
       </c>
       <c r="C148" t="str">
-        <v>http://lightsandmusic.net</v>
+        <v>http://www.718unlimited.com</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>music-islands.com mp3 blog</v>
+        <v>808Crate</v>
       </c>
       <c r="B149" t="str">
-        <v>fishthemusic@gmail.com</v>
+        <v>808CrateMusic@gmail.com</v>
       </c>
       <c r="C149" t="str">
-        <v>http://music-islands.com/blog</v>
+        <v>http://www.808crate.com</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Public Rhythm</v>
+        <v>Adam's World</v>
       </c>
       <c r="B150" t="str">
-        <v>info@publicrhythm.com</v>
+        <v>adamsworldblog@gmail.com</v>
       </c>
       <c r="C150" t="str">
-        <v>http://publicrhythm.com</v>
+        <v>http://adambernard.blogspot.com</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>sittingbythechurchwithdan</v>
+        <v>AGirlandHerHipHop</v>
       </c>
       <c r="B151" t="str">
-        <v>sittingbythechurchwithdan@gmail.com</v>
+        <v>rog@agirlandherhiphop.com</v>
       </c>
       <c r="C151" t="str">
-        <v>http://sittingbythechurchwithdan.wordpress.com</v>
+        <v>http://www.agirlandherhiphop.com</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Anti-Gravity Bunny</v>
+        <v>AllNewMusic.net</v>
       </c>
       <c r="B152" t="str">
-        <v>justin@antigravitybunny.com</v>
+        <v>info@allnewmusic.net</v>
       </c>
       <c r="C152" t="str">
-        <v>http://antigravitybunny.com</v>
+        <v>http://allnewmusic.net</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Avant Music News</v>
+        <v>Analog Giant</v>
       </c>
       <c r="B153" t="str">
-        <v>mike@avantmusicnews.com</v>
+        <v>analoggiant@gmail.com</v>
       </c>
       <c r="C153" t="str">
-        <v>http://avantmusicnews.com</v>
+        <v>http://www.analoggiant.com</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Microphones in the Trees</v>
+        <v>Artistic Manifesto</v>
       </c>
       <c r="B154" t="str">
-        <v>apenina@mundo-r.com</v>
+        <v>artisticmanifesto@gmail.com</v>
       </c>
       <c r="C154" t="str">
-        <v>http://calmintrees.blogspot.com</v>
+        <v>http://www.artisticmanifesto.com</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Music For Maniacs</v>
+        <v>ATLJunkie</v>
       </c>
       <c r="B155" t="str">
-        <v>mrfab3@hotmail.com</v>
+        <v>atljunkie09@gmail.com</v>
       </c>
       <c r="C155" t="str">
-        <v>http://musicformaniacs.blogspot.com</v>
+        <v>http://www.atljunkie.com</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Wrong Division Blog</v>
+        <v>Audio Politics</v>
       </c>
       <c r="B156" t="str">
-        <v>wrongdivision@kdhx.org</v>
+        <v>brandonbelt12@gmail.com</v>
       </c>
       <c r="C156" t="str">
-        <v>http://wrongdivision.blogspot.com</v>
+        <v>http://www.audiopolitics.com</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2kLIFE</v>
+        <v>AUDIOFEIGN</v>
       </c>
       <c r="B157" t="str">
-        <v>2klifeblog@gmail.com</v>
+        <v>AudioFeign@gmail.com</v>
       </c>
       <c r="C157" t="str">
-        <v>http://www.2klife.net</v>
+        <v>http://audiofeign.com</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2Lsonacloud</v>
+        <v>Back2Pluto</v>
       </c>
       <c r="B158" t="str">
-        <v>2Lsonacloud@gmail.com</v>
+        <v>backtopluto@gmail.com</v>
       </c>
       <c r="C158" t="str">
-        <v>http://www.2lsonacloud.com</v>
+        <v>http://back2pluto.com</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2words The Top</v>
+        <v>Backpacks &amp; Traps</v>
       </c>
       <c r="B159" t="str">
-        <v>2wordsthetop@gmail.com</v>
+        <v>BackpacksAndTraps@gmail.com</v>
       </c>
       <c r="C159" t="str">
-        <v>http://2wordsthetop.com</v>
+        <v>http://www.backpacksandtraps.com</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>40s and Phillies</v>
+        <v>BEATSPILL</v>
       </c>
       <c r="B160" t="str">
-        <v>JJ@40sandPhillies.com</v>
+        <v>beatspillblog@gmail.com</v>
       </c>
       <c r="C160" t="str">
-        <v>http://40sandphillies.com</v>
+        <v>http://beatspill.com</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>718UNLIMITED.COM</v>
+        <v>Brain of BMW</v>
       </c>
       <c r="B161" t="str">
-        <v>718unlimited@gmail.com</v>
+        <v>submissions.brainofbmw@gmail.com</v>
       </c>
       <c r="C161" t="str">
-        <v>http://www.718unlimited.com</v>
+        <v>http://brainofbmw.com</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>808Crate</v>
+        <v>Brick To Ya Face</v>
       </c>
       <c r="B162" t="str">
-        <v>808CrateMusic@gmail.com</v>
+        <v>bricktoyaface@gmail.com</v>
       </c>
       <c r="C162" t="str">
-        <v>http://www.808crate.com</v>
+        <v>http://bricktoyaface.com</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>ACT LIVE MUSIC</v>
+        <v>CeezWorld</v>
       </c>
       <c r="B163" t="str">
-        <v>info@actlivemusic.com</v>
+        <v>ceezworld215@gmail.com</v>
       </c>
       <c r="C163" t="str">
-        <v>http://www.actlivemusic.com</v>
+        <v>http://www.ceezworld.com</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Adam's World</v>
+        <v>ChopsAndKicks</v>
       </c>
       <c r="B164" t="str">
-        <v>adamsworldblog@gmail.com</v>
+        <v>chopsandkicks@gmail.com</v>
       </c>
       <c r="C164" t="str">
-        <v>http://adambernard.blogspot.com</v>
+        <v>http://chopsandkicks.com</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>AGirlandHerHipHop</v>
+        <v>The Chronicles of Aqua</v>
       </c>
       <c r="B165" t="str">
-        <v>rog@agirlandherhiphop.com</v>
+        <v>contentofaqua@gmail.com</v>
       </c>
       <c r="C165" t="str">
-        <v>http://www.agirlandherhiphop.com</v>
+        <v>http://www.aqualeague.com</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>AllNewMusic.net</v>
+        <v>The Chuckness</v>
       </c>
       <c r="B166" t="str">
-        <v>info@allnewmusic.net</v>
+        <v>press@thechuckness.com</v>
       </c>
       <c r="C166" t="str">
-        <v>http://allnewmusic.net</v>
+        <v>http://www.thechuckness.com</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Analog Giant</v>
+        <v>CollegeDJ.net</v>
       </c>
       <c r="B167" t="str">
-        <v>analoggiant@gmail.com</v>
+        <v>collegedj@gmail.com</v>
       </c>
       <c r="C167" t="str">
-        <v>http://www.analoggiant.com</v>
+        <v>http://www.collegedj.net</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Artistic Manifesto</v>
+        <v>Cracked Atoms</v>
       </c>
       <c r="B168" t="str">
-        <v>artisticmanifesto@gmail.com</v>
+        <v>crackedatoms@gmail.com</v>
       </c>
       <c r="C168" t="str">
-        <v>http://www.artisticmanifesto.com</v>
+        <v>http://crackedatoms.com</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>ATLJunkie</v>
+        <v>CULTURE KING</v>
       </c>
       <c r="B169" t="str">
-        <v>atljunkie09@gmail.com</v>
+        <v>culturekingblog@gmail.com</v>
       </c>
       <c r="C169" t="str">
-        <v>http://www.atljunkie.com</v>
+        <v>http://culturekingmedia.com</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Audio Politics</v>
+        <v>Fashionably Early</v>
       </c>
       <c r="B170" t="str">
-        <v>brandonbelt12@gmail.com</v>
+        <v>fashionablyearlysubmissions@gmail.com</v>
       </c>
       <c r="C170" t="str">
-        <v>http://www.audiopolitics.com</v>
+        <v>http://fashionably-early.com</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>AUDIOFEIGN</v>
+        <v>The Fresh Heir</v>
       </c>
       <c r="B171" t="str">
-        <v>AudioFeign@gmail.com</v>
+        <v>thefreshheir90@gmail.com</v>
       </c>
       <c r="C171" t="str">
-        <v>http://audiofeign.com</v>
+        <v>http://thefreshheir.com</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>#AvaTheAnarchist Blogazine</v>
+        <v>Good*Fella Media</v>
       </c>
       <c r="B172" t="str">
-        <v>info@AvaTheAnarchist.com</v>
+        <v>info@GoodFellaMedia.com</v>
       </c>
       <c r="C172" t="str">
-        <v>http://www.avatheanarchist.com</v>
+        <v>http://www.goodfellamedia.com</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Back2Pluto</v>
+        <v>GRANDGOOD</v>
       </c>
       <c r="B173" t="str">
-        <v>backtopluto@gmail.com</v>
+        <v>people@grandgood.com</v>
       </c>
       <c r="C173" t="str">
-        <v>http://back2pluto.com</v>
+        <v>http://grandgood.com</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Backpacks &amp; Traps</v>
+        <v>HeatCasters.com</v>
       </c>
       <c r="B174" t="str">
-        <v>BackpacksAndTraps@gmail.com</v>
+        <v>info@heatcasters.com</v>
       </c>
       <c r="C174" t="str">
-        <v>http://www.backpacksandtraps.com</v>
+        <v>http://www.heatcasters.com</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>BEATSPILL</v>
+        <v>Highbrow Hip Hop</v>
       </c>
       <c r="B175" t="str">
-        <v>beatspillblog@gmail.com</v>
+        <v>tom@highbrowhiphop.com</v>
       </c>
       <c r="C175" t="str">
-        <v>http://beatspill.com</v>
+        <v>http://highbrowhiphop.com</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Brain of BMW</v>
+        <v>Hip Hop Isn't Dead</v>
       </c>
       <c r="B176" t="str">
-        <v>submissions.brainofbmw@gmail.com</v>
+        <v>max.hiphopisntdead@gmail.com</v>
       </c>
       <c r="C176" t="str">
-        <v>http://brainofbmw.com</v>
+        <v>http://hiphopisntdead.blogspot.com</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Brick To Ya Face</v>
+        <v>Hip Hop Push</v>
       </c>
       <c r="B177" t="str">
-        <v>bricktoyaface@gmail.com</v>
+        <v>realhiphoppush@gmail.com</v>
       </c>
       <c r="C177" t="str">
-        <v>http://bricktoyaface.com</v>
+        <v>http://www.hiphoppush.com</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>CeezWorld</v>
+        <v>HipHopSince1987</v>
       </c>
       <c r="B178" t="str">
-        <v>ceezworld215@gmail.com</v>
+        <v>HHS1987submissions@gmail.com</v>
       </c>
       <c r="C178" t="str">
-        <v>http://www.ceezworld.com</v>
+        <v>https://hiphopsince1987.com</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>ChopsAndKicks</v>
+        <v>HotNewHipHop.com</v>
       </c>
       <c r="B179" t="str">
-        <v>chopsandkicks@gmail.com</v>
+        <v>submissions@hotnewhiphop.com</v>
       </c>
       <c r="C179" t="str">
-        <v>http://chopsandkicks.com</v>
+        <v>http://www.hotnewhiphop.com</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>The Chronicles of Aqua</v>
+        <v>IndieRapBLOG.com</v>
       </c>
       <c r="B180" t="str">
-        <v>contentofaqua@gmail.com</v>
+        <v>indierapblog@gmail.com</v>
       </c>
       <c r="C180" t="str">
-        <v>http://www.aqualeague.com</v>
+        <v>http://indierapblog.com</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>The Chuckness</v>
+        <v>Loud Music 247</v>
       </c>
       <c r="B181" t="str">
-        <v>press@thechuckness.com</v>
+        <v>media@LoudMusic247.com</v>
       </c>
       <c r="C181" t="str">
-        <v>http://www.thechuckness.com</v>
+        <v>http://www.loudmusic247.com</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>CollegeDJ.net</v>
+        <v>luvindiehiphop</v>
       </c>
       <c r="B182" t="str">
-        <v>collegedj@gmail.com</v>
+        <v>luvindiehiphop@gmail.com</v>
       </c>
       <c r="C182" t="str">
-        <v>http://www.collegedj.net</v>
+        <v>http://www.luvindiehiphop.com</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Cracked Atoms</v>
+        <v>MixtapeBreak</v>
       </c>
       <c r="B183" t="str">
-        <v>crackedatoms@gmail.com</v>
+        <v>mixtapebreak@gmail.com</v>
       </c>
       <c r="C183" t="str">
-        <v>http://crackedatoms.com</v>
+        <v>http://mixtapebreak.com</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>CULTURE KING</v>
+        <v>Nah Right</v>
       </c>
       <c r="B184" t="str">
-        <v>culturekingblog@gmail.com</v>
+        <v>nah.right.music@gmail.com</v>
       </c>
       <c r="C184" t="str">
-        <v>http://culturekingmedia.com</v>
+        <v>http://nahright.com</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Earmilk</v>
+        <v>Notes from a Different Kitchen</v>
       </c>
       <c r="B185" t="str">
-        <v>press@earmilk.com</v>
+        <v>different.kitchen@gmail.com</v>
       </c>
       <c r="C185" t="str">
-        <v>http://www.earmilk.com</v>
+        <v>http://www.different-kitchen.com</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Fashionably Early</v>
+        <v>Praverb Dot Net</v>
       </c>
       <c r="B186" t="str">
-        <v>fashionablyearlysubmissions@gmail.com</v>
+        <v>praverb@gmail.com</v>
       </c>
       <c r="C186" t="str">
-        <v>http://fashionably-early.com</v>
+        <v>http://www.praverb.net</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>The Fresh Heir</v>
+        <v>Scratched Vinyl</v>
       </c>
       <c r="B187" t="str">
-        <v>thefreshheir90@gmail.com</v>
+        <v>cheech@scratchedvinyl.com</v>
       </c>
       <c r="C187" t="str">
-        <v>http://thefreshheir.com</v>
+        <v>http://www.scratchedvinyl.com</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Go Hard Magazine</v>
+        <v>Sugar Cayne</v>
       </c>
       <c r="B188" t="str">
-        <v>gohardmagazine@yahoo.com</v>
+        <v>info@sugarcayne.com</v>
       </c>
       <c r="C188" t="str">
-        <v>http://www.gohardmagazine.blogspot.com</v>
+        <v>http://www.sugarcayne.com</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Good*Fella Media</v>
+        <v>the9elements</v>
       </c>
       <c r="B189" t="str">
-        <v>info@GoodFellaMedia.com</v>
+        <v>the9elements@gmail.com</v>
       </c>
       <c r="C189" t="str">
-        <v>http://www.goodfellamedia.com</v>
+        <v>http://www.the9elements.com</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>GRANDGOOD</v>
+        <v>UnsungHipHop.com</v>
       </c>
       <c r="B190" t="str">
-        <v>people@grandgood.com</v>
+        <v>unsunghiphop@gmail.com</v>
       </c>
       <c r="C190" t="str">
-        <v>http://grandgood.com</v>
+        <v>http://www.unsunghiphop.com</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>HeatCasters.com</v>
+        <v>The Word is Bond</v>
       </c>
       <c r="B191" t="str">
-        <v>info@heatcasters.com</v>
+        <v>music@thewordisbond.com</v>
       </c>
       <c r="C191" t="str">
-        <v>http://www.heatcasters.com</v>
+        <v>http://www.thewordisbond.com</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Highbrow Hip Hop</v>
+        <v>Bound 2 Hip Hop</v>
       </c>
       <c r="B192" t="str">
-        <v>tom@highbrowhiphop.com</v>
+        <v>submissions@bound2hiphop.com</v>
       </c>
       <c r="C192" t="str">
-        <v>http://highbrowhiphop.com</v>
+        <v>http://www.bound2hiphop.com</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Hip Hop Isn't Dead</v>
+        <v>Cabezas Underground</v>
       </c>
       <c r="B193" t="str">
-        <v>max.hiphopisntdead@gmail.com</v>
+        <v>erick_uheads@cabezasunderground.com</v>
       </c>
       <c r="C193" t="str">
-        <v>http://hiphopisntdead.blogspot.com</v>
+        <v>http://www.cabezasunderground.com</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Hip Hop Push</v>
+        <v>Blog Macacos Me Mordam</v>
       </c>
       <c r="B194" t="str">
-        <v>realhiphoppush@gmail.com</v>
+        <v>blogmacacosmemordam@gmail.com</v>
       </c>
       <c r="C194" t="str">
-        <v>http://www.hiphoppush.com</v>
+        <v>http://www.blogmacacosmemordam.com</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>HipHopSince1987</v>
+        <v>Blackout Hip Hop</v>
       </c>
       <c r="B195" t="str">
-        <v>HHS1987submissions@gmail.com</v>
+        <v>blackouthiphop@gmail.com</v>
       </c>
       <c r="C195" t="str">
-        <v>https://hiphopsince1987.com</v>
+        <v>http://www.blackouthiphop.com</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>HotNewHipHop.com</v>
+        <v>BBaRaK.cz</v>
       </c>
       <c r="B196" t="str">
-        <v>submissions@hotnewhiphop.com</v>
+        <v>bobby@bbarak.cz</v>
       </c>
       <c r="C196" t="str">
-        <v>http://www.hotnewhiphop.com</v>
+        <v>http://www.bbarak.cz</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>IndieRapBLOG.com</v>
+        <v>BEAT TROTTERZ</v>
       </c>
       <c r="B197" t="str">
-        <v>indierapblog@gmail.com</v>
+        <v>beattrotterz@gmail.com</v>
       </c>
       <c r="C197" t="str">
-        <v>http://indierapblog.com</v>
+        <v>http://beattrotterz.wordpress.com</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Loud Music 247</v>
+        <v>World Maze Music</v>
       </c>
       <c r="B198" t="str">
-        <v>media@LoudMusic247.com</v>
+        <v>worldmazemusic@gmail.com</v>
       </c>
       <c r="C198" t="str">
-        <v>http://www.loudmusic247.com</v>
+        <v>http://worldmazemusic.blogspot.com</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>luvindiehiphop</v>
+        <v>Popkiller</v>
       </c>
       <c r="B199" t="str">
-        <v>luvindiehiphop@gmail.com</v>
+        <v>redakcja@popkiller.pl</v>
       </c>
       <c r="C199" t="str">
-        <v>http://www.luvindiehiphop.com</v>
+        <v>http://www.popkiller.pl</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>MixtapeBreak</v>
+        <v>U Call That Love</v>
       </c>
       <c r="B200" t="str">
-        <v>mixtapebreak@gmail.com</v>
+        <v>ucallthatlove@gmail.com</v>
       </c>
       <c r="C200" t="str">
-        <v>http://mixtapebreak.com</v>
+        <v>http://ucallthatlove.com</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Nah Right</v>
+        <v>The Lost Tapes</v>
       </c>
       <c r="B201" t="str">
-        <v>nah.right.music@gmail.com</v>
+        <v>lost.tapes.claaa7@gmail.com</v>
       </c>
       <c r="C201" t="str">
-        <v>http://nahright.com</v>
+        <v>http://claaa7.blogspot.com</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Notes from a Different Kitchen</v>
+        <v>The 273</v>
       </c>
       <c r="B202" t="str">
-        <v>different.kitchen@gmail.com</v>
+        <v>2wo7even3hree@gmail.com</v>
       </c>
       <c r="C202" t="str">
-        <v>http://www.different-kitchen.com</v>
+        <v>http://the273.com</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Pothoes in My Blog</v>
+        <v>All That Dope Shit</v>
       </c>
       <c r="B203" t="str">
-        <v>pothoesmusic@gmail.com</v>
+        <v>allthatdopeshitpromo@gmail.com</v>
       </c>
       <c r="C203" t="str">
-        <v>http://potholesinmyblog.com</v>
+        <v>http://allthatdopeshit.blogspot.co.uk</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Praverb Dot Net</v>
+        <v>Can't Stop Fanatics</v>
       </c>
       <c r="B204" t="str">
-        <v>praverb@gmail.com</v>
+        <v>cantstopfanatics@gmail.com</v>
       </c>
       <c r="C204" t="str">
-        <v>http://www.praverb.net</v>
+        <v>http://cantstopfanaticsblogspot.com</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Rock the Dub</v>
+        <v>Hip Hop Life and Times</v>
       </c>
       <c r="B205" t="str">
-        <v>khal@rockthedub.com</v>
+        <v>hhlifeandtimes@gmail.com</v>
       </c>
       <c r="C205" t="str">
-        <v>http://www.rockthedub.com</v>
+        <v>http://hiphoplifeandtimes.com</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Scratched Vinyl</v>
+        <v>256UP</v>
       </c>
       <c r="B206" t="str">
-        <v>cheech@scratchedvinyl.com</v>
+        <v>256hiphop@gmail.com</v>
       </c>
       <c r="C206" t="str">
-        <v>http://www.scratchedvinyl.com</v>
+        <v>http://256up.blogspot.com</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Sugar Cayne</v>
+        <v>Sampling-Love Blog</v>
       </c>
       <c r="B207" t="str">
-        <v>info@sugarcayne.com</v>
+        <v>info@sampling-love.com</v>
       </c>
       <c r="C207" t="str">
-        <v>http://www.sugarcayne.com</v>
+        <v>http://samplinglove.blog94.fc2.com</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>the9elements</v>
+        <v>BamaLoveSoul</v>
       </c>
       <c r="B208" t="str">
-        <v>the9elements@gmail.com</v>
+        <v>submit2@bamalovesoul.com</v>
       </c>
       <c r="C208" t="str">
-        <v>http://www.the9elements.com</v>
+        <v>http://bamalovesoul.com</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>UnsungHipHop.com</v>
+        <v>Funk It</v>
       </c>
       <c r="B209" t="str">
-        <v>unsunghiphop@gmail.com</v>
+        <v>funkit@virose.net</v>
       </c>
       <c r="C209" t="str">
-        <v>http://www.unsunghiphop.com</v>
+        <v>http://funkit.virose.net</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>The Word is Bond</v>
+        <v>Grown Folks Music</v>
       </c>
       <c r="B210" t="str">
-        <v>music@thewordisbond.com</v>
+        <v>music@grownfolksmusic.com</v>
       </c>
       <c r="C210" t="str">
-        <v>http://www.thewordisbond.com</v>
+        <v>http://grownfolksmusic.com</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Boi-1da.net</v>
+        <v>Kick Mag</v>
       </c>
       <c r="B211" t="str">
-        <v>submissions@boi-1da.net</v>
+        <v>blakcitrus@gmail.com</v>
       </c>
       <c r="C211" t="str">
-        <v>http://boi-1da.net</v>
+        <v>http://www.kickmag.net</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Bound 2 Hip Hop</v>
+        <v>Live For The Funk</v>
       </c>
       <c r="B212" t="str">
-        <v>submissions@bound2hiphop.com</v>
+        <v>submissions@liveforthefunk.com</v>
       </c>
       <c r="C212" t="str">
-        <v>http://www.bound2hiphop.com</v>
+        <v>http://www.liveforthefunk.com</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Cabezas Underground</v>
+        <v>Soul-Sides</v>
       </c>
       <c r="B213" t="str">
-        <v>erick_uheads@cabezasunderground.com</v>
+        <v>soulsides@gmail.com</v>
       </c>
       <c r="C213" t="str">
-        <v>http://www.cabezasunderground.com</v>
+        <v>http://soul-sides.com</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Blog Macacos Me Mordam</v>
+        <v>Urban Radio Nation</v>
       </c>
       <c r="B214" t="str">
-        <v>blogmacacosmemordam@gmail.com</v>
+        <v>urbanradionation@gmail.com</v>
       </c>
       <c r="C214" t="str">
-        <v>http://www.blogmacacosmemordam.com</v>
+        <v>http://www.urbanradionation.com</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Blackout Hip Hop</v>
+        <v>Beats, Rymes and Basslines</v>
       </c>
       <c r="B215" t="str">
-        <v>blackouthiphop@gmail.com</v>
+        <v>djthageneral@hotmail.com</v>
       </c>
       <c r="C215" t="str">
-        <v>http://www.blackouthiphop.com</v>
+        <v>http://beatsrymesandbasslines.blogspot.com</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>BBaRaK.cz</v>
+        <v>PinBoard</v>
       </c>
       <c r="B216" t="str">
-        <v>bobby@bbarak.cz</v>
+        <v>info@pinboardblog.com</v>
       </c>
       <c r="C216" t="str">
-        <v>http://www.bbarak.cz</v>
+        <v>http://pinboardblog.com</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>BEAT TROTTERZ</v>
+        <v>UK Soul Features</v>
       </c>
       <c r="B217" t="str">
-        <v>beattrotterz@gmail.com</v>
+        <v>info@soulfeatures.com</v>
       </c>
       <c r="C217" t="str">
-        <v>http://beattrotterz.wordpress.com</v>
+        <v>http://www.soulfeatures.com</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>World Maze Music</v>
+        <v>Cultura Soul</v>
       </c>
       <c r="B218" t="str">
-        <v>worldmazemusic@gmail.com</v>
+        <v>culturasoul@gmail.com</v>
       </c>
       <c r="C218" t="str">
-        <v>http://worldmazemusic.blogspot.com</v>
+        <v>http://culturasoul.tumblr.com</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>boombap.org</v>
+        <v>Dub Dot Dash</v>
       </c>
       <c r="B219" t="str">
-        <v>bapboomblog@gmail.com</v>
+        <v>dubdotdub@gmail.com</v>
       </c>
       <c r="C219" t="str">
-        <v>http://boombap.org</v>
+        <v>http://dubdotdash.blogspot.com</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>ACTUAL FACTS</v>
+        <v>WeLove Music</v>
       </c>
       <c r="B220" t="str">
-        <v>actualfactsblog@gmail.com</v>
+        <v>sue.miod@gmail.com</v>
       </c>
       <c r="C220" t="str">
-        <v>http://actual-facts.tumblr.com</v>
+        <v>http://welove-music.blogspot.com</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Popkiller</v>
+        <v>7INCHCRUST</v>
       </c>
       <c r="B221" t="str">
-        <v>redakcja@popkiller.pl</v>
+        <v>7inchcrust@gmail.com</v>
       </c>
       <c r="C221" t="str">
-        <v>http://www.popkiller.pl</v>
+        <v>http://7inchcrust.blogspot.com</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>U Call That Love</v>
+        <v>The Bent Unit</v>
       </c>
       <c r="B222" t="str">
-        <v>ucallthatlove@gmail.com</v>
+        <v>thebentunit@gmail.com</v>
       </c>
       <c r="C222" t="str">
-        <v>http://ucallthatlove.com</v>
+        <v>http://www.thebentunit.com</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>The Lost Tapes</v>
+        <v>Cut &amp; Paste</v>
       </c>
       <c r="B223" t="str">
-        <v>lost.tapes.claaa7@gmail.com</v>
+        <v>cowboysareindians@yahoo.com</v>
       </c>
       <c r="C223" t="str">
-        <v>http://claaa7.blogspot.com</v>
+        <v>http://cutnpasteyoface.blogspot.com</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>The 273</v>
+        <v>Dr. Drunk Ruins It For Everyone</v>
       </c>
       <c r="B224" t="str">
-        <v>2wo7even3hree@gmail.com</v>
+        <v>drdrunk@earthlink.net</v>
       </c>
       <c r="C224" t="str">
-        <v>http://the273.com</v>
+        <v>http://drdrunkruinsitforeveryone.blogspot.com</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>All In A Days Work</v>
+        <v>Free Punk For The Punx</v>
       </c>
       <c r="B225" t="str">
-        <v>aBoyCalledMatt@hotmail.co.uk</v>
+        <v>fpftpblogspot@gmail.com</v>
       </c>
       <c r="C225" t="str">
-        <v>http://www.thatkiddfromldn.com</v>
+        <v>http://freepunkforthepunx.blogspot.com</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>All That Dope Shit</v>
+        <v>FUCK YEAH POP PUNK</v>
       </c>
       <c r="B226" t="str">
-        <v>allthatdopeshitpromo@gmail.com</v>
+        <v>fyppblog@gmail.com</v>
       </c>
       <c r="C226" t="str">
-        <v>http://allthatdopeshit.blogspot.co.uk</v>
+        <v>http://fuckyeahpoppunk.com</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Can't Stop Fanatics</v>
+        <v>JadedPunk</v>
       </c>
       <c r="B227" t="str">
-        <v>cantstopfanatics@gmail.com</v>
+        <v>dan@jadedpunk.com</v>
       </c>
       <c r="C227" t="str">
-        <v>http://cantstopfanaticsblogspot.com</v>
+        <v>http://www.jadedpunk.com</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Hip Hop Life and Times</v>
+        <v>MUSTARD RELICS</v>
       </c>
       <c r="B228" t="str">
-        <v>hhlifeandtimes@gmail.com</v>
+        <v>mustard_relics@yahoo.com</v>
       </c>
       <c r="C228" t="str">
-        <v>http://hiphoplifeandtimes.com</v>
+        <v>http://mustard-relics.com</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Hip-HopKings.com</v>
+        <v>The Ruckus</v>
       </c>
       <c r="B229" t="str">
-        <v>r.maxwell@hip-hopkings.com</v>
+        <v>hello@whatstheruckus.com</v>
       </c>
       <c r="C229" t="str">
-        <v>http://www.hip-hopkings.com</v>
+        <v>http://www.whatstheruckus.com</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>MusicCrib</v>
+        <v>[shiny grey monotone]</v>
       </c>
       <c r="B230" t="str">
-        <v>musiccrib.moz@gmail.com</v>
+        <v>shiny.grey.monotone@gmail.com</v>
       </c>
       <c r="C230" t="str">
-        <v>http://www.musiccrib.net</v>
+        <v>http://shinygreymonotone.blogspot.com</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>256UP</v>
+        <v>Strange Reaction</v>
       </c>
       <c r="B231" t="str">
-        <v>256hiphop@gmail.com</v>
+        <v>scott@strangereaction.com</v>
       </c>
       <c r="C231" t="str">
-        <v>http://256up.blogspot.com</v>
+        <v>http://strangereaction.com</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Sampling-Love Blog</v>
+        <v>Stuff You Will Hate</v>
       </c>
       <c r="B232" t="str">
-        <v>info@sampling-love.com</v>
+        <v>stuffyouwillhate@gmail.com</v>
       </c>
       <c r="C232" t="str">
-        <v>http://samplinglove.blog94.fc2.com</v>
+        <v>http://www.stuffyouwillhate.com</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>BamaLoveSoul</v>
+        <v>The Styrofoam Drone</v>
       </c>
       <c r="B233" t="str">
-        <v>submit2@bamalovesoul.com</v>
+        <v>styrofoamdrone@gmail.com</v>
       </c>
       <c r="C233" t="str">
-        <v>http://bamalovesoul.com</v>
+        <v>http://styrofoamdrone.com</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Funk It</v>
+        <v>TERMINAL ESCAPE</v>
       </c>
       <c r="B234" t="str">
-        <v>funkit@virose.net</v>
+        <v>iamtheverybadman@gmail.com</v>
       </c>
       <c r="C234" t="str">
-        <v>http://funkit.virose.net</v>
+        <v>http://terminalescape.blogspot.com</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Grown Folks Music</v>
+        <v>Toxicbreed's Funhouse</v>
       </c>
       <c r="B235" t="str">
-        <v>music@grownfolksmusic.com</v>
+        <v>ballardwayne@gmail.com</v>
       </c>
       <c r="C235" t="str">
-        <v>http://grownfolksmusic.com</v>
+        <v>http://toxicbreedsfunhouse.blogspot.com</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Kick Mag</v>
+        <v>Pop Punk's Not Dead</v>
       </c>
       <c r="B236" t="str">
-        <v>blakcitrus@gmail.com</v>
+        <v>poppunksnotdead@hotmail.com</v>
       </c>
       <c r="C236" t="str">
-        <v>http://www.kickmag.net</v>
+        <v>http://www.popunksnotdead.net</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Live For The Funk</v>
+        <v>The Ruckus Canada</v>
       </c>
       <c r="B237" t="str">
-        <v>submissions@liveforthefunk.com</v>
+        <v>meli@whatstheruckus.com</v>
       </c>
       <c r="C237" t="str">
-        <v>http://www.liveforthefunk.com</v>
+        <v>http://www.whatstheruckus.com</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>RnB Music</v>
+        <v>ThePUnkShe.com</v>
       </c>
       <c r="B238" t="str">
-        <v>contact@rnbmusicblog.com</v>
+        <v>bobby@thepunksite.com</v>
       </c>
       <c r="C238" t="str">
-        <v>http://www.rnbmusicblog.com</v>
+        <v>http://www.thepunksite.com</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Soul-Sides</v>
+        <v>CRUCIFIED FOR YOUR SINS</v>
       </c>
       <c r="B239" t="str">
-        <v>soulsides@gmail.com</v>
+        <v>toxicboys@hotmail.com</v>
       </c>
       <c r="C239" t="str">
-        <v>http://soul-sides.com</v>
+        <v>http://crucifiedforyoursins.blogspot.com</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Urban Radio Nation</v>
+        <v>Noisepop</v>
       </c>
       <c r="B240" t="str">
-        <v>urbanradionation@gmail.com</v>
+        <v>joelunsm@gmail.com</v>
       </c>
       <c r="C240" t="str">
-        <v>http://www.urbanradionation.com</v>
+        <v>http://indie-byte.blogspot.com</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Beats, Rymes and Basslines</v>
+        <v>A Whole Orchestra</v>
       </c>
       <c r="B241" t="str">
-        <v>djthageneral@hotmail.com</v>
+        <v>awholeorchestra@hotmail.com</v>
       </c>
       <c r="C241" t="str">
-        <v>http://beatsrymesandbasslines.blogspot.com</v>
+        <v>http://awholeorchestra.blogspot.be</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>PinBoard</v>
+        <v>Music Approved by a Banana</v>
       </c>
       <c r="B242" t="str">
-        <v>info@pinboardblog.com</v>
+        <v>banaanapprovedmusic@hotmail.com</v>
       </c>
       <c r="C242" t="str">
-        <v>http://pinboardblog.com</v>
+        <v>http://banaanapprovedmusicv3.blogspot.com</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>UK Soul Features</v>
+        <v>Killed By Death Records</v>
       </c>
       <c r="B243" t="str">
-        <v>info@soulfeatures.com</v>
+        <v>info@kbdrecords.com</v>
       </c>
       <c r="C243" t="str">
-        <v>http://www.soulfeatures.com</v>
+        <v>http://www.kbdrecords.com</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Cultura Soul</v>
+        <v>Pay No More Than</v>
       </c>
       <c r="B244" t="str">
-        <v>culturasoul@gmail.com</v>
+        <v>zolicoeur@laposte.net</v>
       </c>
       <c r="C244" t="str">
-        <v>http://culturasoul.tumblr.com</v>
+        <v>http://paynomorethan.blogspot.com</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Dub Dot Dash</v>
+        <v>I lost my panties in the moshpit</v>
       </c>
       <c r="B245" t="str">
-        <v>dubdotdub@gmail.com</v>
+        <v>fichtenstein@t-online.de</v>
       </c>
       <c r="C245" t="str">
-        <v>http://dubdotdash.blogspot.com</v>
+        <v>http://fichtenstein.wordpress.com</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>WeLove Music</v>
+        <v>Postpunk.de</v>
       </c>
       <c r="B246" t="str">
-        <v>sue.miod@gmail.com</v>
+        <v>olaf@post-punk.com</v>
       </c>
       <c r="C246" t="str">
-        <v>http://welove-music.blogspot.com</v>
+        <v>http://www.postpunk.de</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>7INCHCRUST</v>
+        <v>OLD-FAST-AND-LOUD</v>
       </c>
       <c r="B247" t="str">
-        <v>7inchcrust@gmail.com</v>
+        <v>dannyveldhuizen@yahoo.co.uk</v>
       </c>
       <c r="C247" t="str">
-        <v>http://7inchcrust.blogspot.com</v>
+        <v>http://www.old-fast-and-loud.blogspot.com</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>The Bent Unit</v>
+        <v>R-EVOLUTION-PUNK</v>
       </c>
       <c r="B248" t="str">
-        <v>thebentunit@gmail.com</v>
+        <v>revolutionpunkfrisland@hotmail.es</v>
       </c>
       <c r="C248" t="str">
-        <v>http://www.thebentunit.com</v>
+        <v>http://wilfullyobscure.blogspot.com</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>Cut &amp; Paste</v>
+        <v>The Elementary Revolt</v>
       </c>
       <c r="B249" t="str">
-        <v>cowboysareindians@yahoo.com</v>
+        <v>elementaryrevolt@gmail.com</v>
       </c>
       <c r="C249" t="str">
-        <v>http://cutnpasteyoface.blogspot.com</v>
+        <v>http://www.theelementaryrevolt.net</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>Dr. Drunk Ruins It For Everyone</v>
+        <v>AlterNAtion</v>
       </c>
       <c r="B250" t="str">
-        <v>drdrunk@earthlink.net</v>
+        <v>elephant1@op.pl</v>
       </c>
       <c r="C250" t="str">
-        <v>http://drdrunkruinsitforeveryone.blogspot.com</v>
+        <v>http://alternation-lunatikk666.blogspot.com</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>The Ruckus UK</v>
+      </c>
+      <c r="B251" t="str">
+        <v>lizzie@whatstheruckus.com</v>
+      </c>
+      <c r="C251" t="str">
+        <v>http://www.whatstheruckus.com</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>The Dog's Space</v>
+      </c>
+      <c r="B252" t="str">
+        <v>svenkur@yahoo.com.au</v>
+      </c>
+      <c r="C252" t="str">
+        <v>http://thedogsspace.blogspot.com</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Scanner Web Zine</v>
+      </c>
+      <c r="B253" t="str">
+        <v>stevescannernz@yahoo.com</v>
+      </c>
+      <c r="C253" t="str">
+        <v>http://www.scannerzine.com</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>THe small takeover</v>
+      </c>
+      <c r="B254" t="str">
+        <v>smalltakeover@gmail.com</v>
+      </c>
+      <c r="C254" t="str">
+        <v>http://smalltakeover.blogspot.com</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Drug Punk</v>
+      </c>
+      <c r="B255" t="str">
+        <v>menefreghismo85@gmail.com</v>
+      </c>
+      <c r="C255" t="str">
+        <v>http://drugpunk.blogspot.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C250"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C255"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Satellite" sheetId="5" r:id="rId5"/>
     <sheet name="Blogs" sheetId="6" r:id="rId6"/>
     <sheet name="Podcasts" sheetId="7" r:id="rId7"/>
-    <sheet name="Music Library" sheetId="8" r:id="rId8"/>
+    <sheet name="GeneralInternational" sheetId="8" r:id="rId8"/>
     <sheet name="Family" sheetId="9" r:id="rId9"/>
-    <sheet name="Press" sheetId="10" r:id="rId10"/>
+    <sheet name="GeneralNational" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -1733,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4842,9 +4842,969 @@
         <v>6142219923</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Kaieidoscope</v>
+      </c>
+      <c r="B98" t="str">
+        <v>jfromholt@wyso.org</v>
+      </c>
+      <c r="C98" t="str">
+        <v>http://ww.wyso.org</v>
+      </c>
+      <c r="D98" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E98" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Yellow Springs</v>
+      </c>
+      <c r="H98" t="str">
+        <v>150 E. South College St</v>
+      </c>
+      <c r="I98" t="str">
+        <v>45387</v>
+      </c>
+      <c r="J98" t="str">
+        <v>9377676420</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Liz's FOund Sound</v>
+      </c>
+      <c r="B99" t="str">
+        <v>liz@913thesummit.com</v>
+      </c>
+      <c r="C99" t="str">
+        <v>http://www.wapsfm.com</v>
+      </c>
+      <c r="D99" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E99" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Akron</v>
+      </c>
+      <c r="H99" t="str">
+        <v>65 Steiner Ave</v>
+      </c>
+      <c r="I99" t="str">
+        <v>44301</v>
+      </c>
+      <c r="J99" t="str">
+        <v>3307613104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Radio U</v>
+      </c>
+      <c r="B100" t="str">
+        <v>dj@radiou.com</v>
+      </c>
+      <c r="C100" t="str">
+        <v>http://www.radiou.com</v>
+      </c>
+      <c r="D100" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E100" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Westerville</v>
+      </c>
+      <c r="H100" t="str">
+        <v>PO Box 1887</v>
+      </c>
+      <c r="I100" t="str">
+        <v>43086</v>
+      </c>
+      <c r="J100" t="str">
+        <v>6148397100</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>SHAKIn' IT</v>
+      </c>
+      <c r="B101" t="str">
+        <v>shakinitradio@aol.com</v>
+      </c>
+      <c r="C101" t="str">
+        <v>http://www.wcbe.org</v>
+      </c>
+      <c r="D101" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E101" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Columbus</v>
+      </c>
+      <c r="H101" t="str">
+        <v>540 Jack Gibbs Blvd</v>
+      </c>
+      <c r="I101" t="str">
+        <v>43215</v>
+      </c>
+      <c r="J101" t="str">
+        <v>6148219223</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>WAIF</v>
+      </c>
+      <c r="B102" t="str">
+        <v>waifcincinnati@gmail.com</v>
+      </c>
+      <c r="C102" t="str">
+        <v>http://www.waif883.org</v>
+      </c>
+      <c r="D102" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E102" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Cincinnati</v>
+      </c>
+      <c r="H102" t="str">
+        <v>1434 E. McMillan Ave</v>
+      </c>
+      <c r="I102" t="str">
+        <v>45206</v>
+      </c>
+      <c r="J102" t="str">
+        <v>5139618900</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>WAPS</v>
+      </c>
+      <c r="B103" t="str">
+        <v>music@913thesummit.com</v>
+      </c>
+      <c r="C103" t="str">
+        <v>http://www.wapsfm.com</v>
+      </c>
+      <c r="D103" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E103" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Akron</v>
+      </c>
+      <c r="H103" t="str">
+        <v>65 Steiner Ave.</v>
+      </c>
+      <c r="I103" t="str">
+        <v>44301</v>
+      </c>
+      <c r="J103" t="str">
+        <v>3307613104</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>WCBE</v>
+      </c>
+      <c r="B104" t="str">
+        <v>mbrennan@wcbe.org</v>
+      </c>
+      <c r="C104" t="str">
+        <v>http://www.wcbe.org</v>
+      </c>
+      <c r="D104" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E104" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Ohio</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Columbus</v>
+      </c>
+      <c r="H104" t="str">
+        <v>540 Jack Gibbs Blvd</v>
+      </c>
+      <c r="I104" t="str">
+        <v>43215</v>
+      </c>
+      <c r="J104" t="str">
+        <v>6148219223</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Get Behind Me, Now Stay There</v>
+      </c>
+      <c r="B105" t="str">
+        <v>edward@justimagineitink.com</v>
+      </c>
+      <c r="C105" t="str">
+        <v>http://www.kskq.org</v>
+      </c>
+      <c r="D105" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E105" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Oregon</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Ashland</v>
+      </c>
+      <c r="H105" t="str">
+        <v>330 Hersey St #2</v>
+      </c>
+      <c r="I105" t="str">
+        <v>97520</v>
+      </c>
+      <c r="J105" t="str">
+        <v>5414823999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Heartwood Hotel</v>
+      </c>
+      <c r="B106" t="str">
+        <v>music@klcc.org</v>
+      </c>
+      <c r="C106" t="str">
+        <v>http://www.klcc.org</v>
+      </c>
+      <c r="D106" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E106" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Oregon</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Eugene</v>
+      </c>
+      <c r="H106" t="str">
+        <v>136 W. 8th Ave</v>
+      </c>
+      <c r="I106" t="str">
+        <v>97401</v>
+      </c>
+      <c r="J106" t="str">
+        <v>5414636004</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>KMUN</v>
+      </c>
+      <c r="B107" t="str">
+        <v>coastradio@coastradio.org</v>
+      </c>
+      <c r="C107" t="str">
+        <v>http://www.coastradio.org</v>
+      </c>
+      <c r="D107" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E107" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Oregon</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Astoria</v>
+      </c>
+      <c r="H107" t="str">
+        <v>1445 Exchange Ave. PO Box 269</v>
+      </c>
+      <c r="I107" t="str">
+        <v>97103</v>
+      </c>
+      <c r="J107" t="str">
+        <v>5033250010</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>KPOV</v>
+      </c>
+      <c r="B108" t="str">
+        <v>musicdirector@kpov.org</v>
+      </c>
+      <c r="C108" t="str">
+        <v>http://www.kpov.org</v>
+      </c>
+      <c r="D108" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E108" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Oregon</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Bend</v>
+      </c>
+      <c r="H108" t="str">
+        <v>501 NW Bond St</v>
+      </c>
+      <c r="I108" t="str">
+        <v>97702</v>
+      </c>
+      <c r="J108" t="str">
+        <v>5413220863</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>WDIY</v>
+      </c>
+      <c r="B109" t="str">
+        <v>info@wdiy.org</v>
+      </c>
+      <c r="C109" t="str">
+        <v>http://www.wdiyfm.org</v>
+      </c>
+      <c r="D109" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E109" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Pennsylvania</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Bethlehem</v>
+      </c>
+      <c r="H109" t="str">
+        <v>301 Broadway</v>
+      </c>
+      <c r="I109" t="str">
+        <v>18015</v>
+      </c>
+      <c r="J109" t="str">
+        <v>6106948100</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>WYEP</v>
+      </c>
+      <c r="B110" t="str">
+        <v>mike@wyep.org</v>
+      </c>
+      <c r="C110" t="str">
+        <v>http://www.wyep.org</v>
+      </c>
+      <c r="D110" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E110" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Pennsylvania</v>
+      </c>
+      <c r="G110" t="str">
+        <v>pittsburgh</v>
+      </c>
+      <c r="H110" t="str">
+        <v>67 Bedford Sq</v>
+      </c>
+      <c r="I110" t="str">
+        <v>15203</v>
+      </c>
+      <c r="J110" t="str">
+        <v>4123819900</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>WEVL</v>
+      </c>
+      <c r="B111" t="str">
+        <v>braincraig@wevl.org</v>
+      </c>
+      <c r="C111" t="str">
+        <v>http://wevl.org</v>
+      </c>
+      <c r="D111" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E111" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Tennessee</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Memphis</v>
+      </c>
+      <c r="H111" t="str">
+        <v>PO Box 40952</v>
+      </c>
+      <c r="I111" t="str">
+        <v>38174</v>
+      </c>
+      <c r="J111" t="str">
+        <v>9015280560</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>High Plains Morning</v>
+      </c>
+      <c r="B112" t="str">
+        <v>hpm@hppr.org</v>
+      </c>
+      <c r="C112" t="str">
+        <v>http://www.hppr.org</v>
+      </c>
+      <c r="D112" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E112" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Amarillo</v>
+      </c>
+      <c r="H112" t="str">
+        <v>101 SW 5th Ave #100</v>
+      </c>
+      <c r="I112" t="str">
+        <v>79101</v>
+      </c>
+      <c r="J112" t="str">
+        <v>8063679088</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>KACC</v>
+      </c>
+      <c r="B113" t="str">
+        <v>mossman@kaccradio.com</v>
+      </c>
+      <c r="C113" t="str">
+        <v>http://www.kaccradio.com</v>
+      </c>
+      <c r="D113" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E113" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Alvin</v>
+      </c>
+      <c r="H113" t="str">
+        <v>3100 Mustang Rd</v>
+      </c>
+      <c r="I113" t="str">
+        <v>77511</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2817563897</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>KNON</v>
+      </c>
+      <c r="B114" t="str">
+        <v>christian@knon.org</v>
+      </c>
+      <c r="C114" t="str">
+        <v>http://www.knon.org</v>
+      </c>
+      <c r="D114" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E114" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="G114" t="str">
+        <v>Dallas</v>
+      </c>
+      <c r="H114" t="str">
+        <v>PO Box 710909</v>
+      </c>
+      <c r="I114" t="str">
+        <v>75371</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2148289500</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>KOOP</v>
+      </c>
+      <c r="B115" t="str">
+        <v>info@koop.org</v>
+      </c>
+      <c r="C115" t="str">
+        <v>http://www.koop.org</v>
+      </c>
+      <c r="D115" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E115" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Austin</v>
+      </c>
+      <c r="H115" t="str">
+        <v>PO Box 2116</v>
+      </c>
+      <c r="I115" t="str">
+        <v>78768</v>
+      </c>
+      <c r="J115" t="str">
+        <v>5124721369</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>KPCW</v>
+      </c>
+      <c r="B116" t="str">
+        <v>info@kpcw.org</v>
+      </c>
+      <c r="C116" t="str">
+        <v>http://ww.kpcw.org</v>
+      </c>
+      <c r="D116" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E116" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Utah</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Park City</v>
+      </c>
+      <c r="H116" t="str">
+        <v>PO Box 1372</v>
+      </c>
+      <c r="I116" t="str">
+        <v>84060</v>
+      </c>
+      <c r="J116" t="str">
+        <v>4356457629</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>KRCL</v>
+      </c>
+      <c r="B117" t="str">
+        <v>ebayh@krcl.org</v>
+      </c>
+      <c r="C117" t="str">
+        <v>http://www.krcl.org</v>
+      </c>
+      <c r="D117" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E117" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Utah</v>
+      </c>
+      <c r="G117" t="str">
+        <v>Salt Lake City</v>
+      </c>
+      <c r="H117" t="str">
+        <v>1971 W. N. Temple</v>
+      </c>
+      <c r="I117" t="str">
+        <v>84116</v>
+      </c>
+      <c r="J117" t="str">
+        <v>8013631818</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Out of the Box</v>
+      </c>
+      <c r="B118" t="str">
+        <v>paul.shugrue@whrv.org</v>
+      </c>
+      <c r="C118" t="str">
+        <v>http://whro.org/radio</v>
+      </c>
+      <c r="D118" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E118" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Virginia</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Norfolk</v>
+      </c>
+      <c r="H118" t="str">
+        <v>5200 Hampton Blvd</v>
+      </c>
+      <c r="I118" t="str">
+        <v>23508</v>
+      </c>
+      <c r="J118" t="str">
+        <v>7578899400</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>WNRN</v>
+      </c>
+      <c r="B119" t="str">
+        <v>info@wnrn.org</v>
+      </c>
+      <c r="C119" t="str">
+        <v>http://www.wnrn.org</v>
+      </c>
+      <c r="D119" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E119" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Virginia</v>
+      </c>
+      <c r="G119" t="str">
+        <v>Charlottesville</v>
+      </c>
+      <c r="H119" t="str">
+        <v>2250 Old Ivy Rd #2</v>
+      </c>
+      <c r="I119" t="str">
+        <v>22903</v>
+      </c>
+      <c r="J119" t="str">
+        <v>4349790919</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Crossroads</v>
+      </c>
+      <c r="B120" t="str">
+        <v>crossroads@kyrs.org</v>
+      </c>
+      <c r="C120" t="str">
+        <v>http://www.kyrs.org</v>
+      </c>
+      <c r="D120" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E120" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Washington</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Spokane</v>
+      </c>
+      <c r="H120" t="str">
+        <v>KYRS Music Librarian, 35 W. Main #340</v>
+      </c>
+      <c r="I120" t="str">
+        <v>99201</v>
+      </c>
+      <c r="J120" t="str">
+        <v>5097473807</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>KBCS</v>
+      </c>
+      <c r="B121" t="str">
+        <v>clinde@kbcs.fm</v>
+      </c>
+      <c r="C121" t="str">
+        <v>http://kbcs.fm</v>
+      </c>
+      <c r="D121" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E121" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Washington</v>
+      </c>
+      <c r="G121" t="str">
+        <v>Bellevue</v>
+      </c>
+      <c r="H121" t="str">
+        <v>3000 Landerholm Cir. SE</v>
+      </c>
+      <c r="I121" t="str">
+        <v>98007</v>
+      </c>
+      <c r="J121" t="str">
+        <v>4255646171</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>KNDD</v>
+      </c>
+      <c r="B122" t="str">
+        <v>gmichaels@entercom.com</v>
+      </c>
+      <c r="C122" t="str">
+        <v>http://www.1077theend.com</v>
+      </c>
+      <c r="D122" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E122" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Washington</v>
+      </c>
+      <c r="G122" t="str">
+        <v>Seattle</v>
+      </c>
+      <c r="H122" t="str">
+        <v>1100 Olive Way #1650</v>
+      </c>
+      <c r="I122" t="str">
+        <v>98101</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2066223251</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>KSER</v>
+      </c>
+      <c r="B123" t="str">
+        <v>music@kser.org</v>
+      </c>
+      <c r="C123" t="str">
+        <v>http://www.kser.org</v>
+      </c>
+      <c r="D123" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E123" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Washington</v>
+      </c>
+      <c r="G123" t="str">
+        <v>Everett</v>
+      </c>
+      <c r="H123" t="str">
+        <v>2623 Wetmore Ave</v>
+      </c>
+      <c r="I123" t="str">
+        <v>98201</v>
+      </c>
+      <c r="J123" t="str">
+        <v>4253039070</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>KUPS</v>
+      </c>
+      <c r="B124" t="str">
+        <v>programming@kups.net</v>
+      </c>
+      <c r="C124" t="str">
+        <v>https://www.facebook.com/KUPSTheSound</v>
+      </c>
+      <c r="D124" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E124" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Washington</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Tacoma</v>
+      </c>
+      <c r="H124" t="str">
+        <v>1500 N. Warner</v>
+      </c>
+      <c r="I124" t="str">
+        <v>98416</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2538792974</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>EclecTopia</v>
+      </c>
+      <c r="B125" t="str">
+        <v>feedback@wvpubcast.org</v>
+      </c>
+      <c r="C125" t="str">
+        <v>http://www.wvpubcast.org</v>
+      </c>
+      <c r="D125" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E125" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F125" t="str">
+        <v>West Virginia</v>
+      </c>
+      <c r="G125" t="str">
+        <v>Charleston</v>
+      </c>
+      <c r="H125" t="str">
+        <v>600 Capitol St</v>
+      </c>
+      <c r="I125" t="str">
+        <v>25301</v>
+      </c>
+      <c r="J125" t="str">
+        <v>3045564900</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>WHYS</v>
+      </c>
+      <c r="B126" t="str">
+        <v>whys@whysradio.org</v>
+      </c>
+      <c r="C126" t="str">
+        <v>http://www.whysradio.org</v>
+      </c>
+      <c r="D126" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E126" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Wisconsin</v>
+      </c>
+      <c r="G126" t="str">
+        <v>Eau Claire</v>
+      </c>
+      <c r="H126" t="str">
+        <v>405 S. Farwell St. #23</v>
+      </c>
+      <c r="I126" t="str">
+        <v>54703</v>
+      </c>
+      <c r="J126" t="str">
+        <v>7158319497</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>WORT</v>
+      </c>
+      <c r="B127" t="str">
+        <v>musicdirector@wortfm.org</v>
+      </c>
+      <c r="C127" t="str">
+        <v>http://www.wortfm.org</v>
+      </c>
+      <c r="D127" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E127" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Wisconsin</v>
+      </c>
+      <c r="G127" t="str">
+        <v>Madison</v>
+      </c>
+      <c r="H127" t="str">
+        <v xml:space="preserve">118 S. Bedford St. </v>
+      </c>
+      <c r="I127" t="str">
+        <v>53703</v>
+      </c>
+      <c r="J127" t="str">
+        <v>6082562001</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J127"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/EmailBlast/Excel/Radio.xlsx
+++ b/EmailBlast/Excel/Radio.xlsx
@@ -2543,7 +2543,7 @@
         <v>KPRI</v>
       </c>
       <c r="B26" t="str">
-        <v>info@kprifm@.com</v>
+        <v>info@kprifm.com</v>
       </c>
       <c r="C26" t="str">
         <v>http://www.kprifm.com</v>
@@ -5824,38 +5824,1664 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A82:C82"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="82">
-      <c r="A82" t="str">
+    <row r="1">
+      <c r="A1" t="str">
         <v>Name</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Website</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Continent</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="F1" t="str">
+        <v>State</v>
+      </c>
+      <c r="G1" t="str">
+        <v>City</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Zip Code</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Phone Number</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Adventures In Plasticland</v>
+      </c>
+      <c r="B2" t="str">
+        <v>spacedman40@htomail.com</v>
+      </c>
+      <c r="C2" t="str">
+        <v>http://www.hamiltonparanormal.com/stan</v>
+      </c>
+      <c r="D2" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F2" t="str">
+        <v>ON</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Cambridge</v>
+      </c>
+      <c r="H2" t="str">
+        <v>19 Norfolk Ave</v>
+      </c>
+      <c r="I2" t="str">
+        <v>N1R3T5</v>
+      </c>
+      <c r="J2" t="str">
+        <v>5198869878</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Do Not Touch This Amp</v>
+      </c>
+      <c r="B3" t="str">
+        <v>dntta@yahoo.ca</v>
+      </c>
+      <c r="C3" t="str">
+        <v>http://www.dntta.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F3" t="str">
+        <v>BC</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Kamloops</v>
+      </c>
+      <c r="H3" t="str">
+        <v>House 8, U. College of the Cariboo, 900 McGill Rd.</v>
+      </c>
+      <c r="I3" t="str">
+        <v>V2C 5N3</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2503773988</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Synaptic Sandwich</v>
+      </c>
+      <c r="B4" t="str">
+        <v>djcyber@synapticsandwich</v>
+      </c>
+      <c r="C4" t="str">
+        <v>http://www.citr.ca</v>
+      </c>
+      <c r="D4" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F4" t="str">
+        <v>BC</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Vancouver</v>
+      </c>
+      <c r="H4" t="str">
+        <v>#233-6138 SUB Blvd</v>
+      </c>
+      <c r="I4" t="str">
+        <v>V6T 1Z1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>6048222487</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>The Unending Subtieties of River Power</v>
+      </c>
+      <c r="B5" t="str">
+        <v>onair@cjmp.ca</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://www.facebook.com/UnendingSubtleties</v>
+      </c>
+      <c r="D5" t="str">
+        <v>North America</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Powell River</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4476C Marine Ave</v>
+      </c>
+      <c r="I5" t="str">
+        <v>V8A 2K2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>6044850088</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Freak Zone</v>
+      </c>
+      <c r="B6" t="str">
+        <v>stuart.6music@bbc.co.uk</v>
+      </c>
+      <c r="C6" t="str">
+        <v>http://www.bbc.co.uk/programmes/b007214x</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>Manchester</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Rm. 2018 BBC Manchester, Oxford Rd.</v>
+      </c>
+      <c r="I6" t="str">
+        <v>M601SJUK</v>
+      </c>
+      <c r="J6" t="str">
+        <v>08700100600</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Resonance FM</v>
+      </c>
+      <c r="B7" t="str">
+        <v>info@resonancefm.com</v>
+      </c>
+      <c r="C7" t="str">
+        <v>http://www.resonancefm.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="E7" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>London</v>
+      </c>
+      <c r="H7" t="str">
+        <v>144 Borough High St.</v>
+      </c>
+      <c r="I7" t="str">
+        <v>SE11LBUK</v>
+      </c>
+      <c r="J7" t="str">
+        <v>02074071210</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>The Art of Bleep!</v>
+      </c>
+      <c r="B8" t="str">
+        <v>artofbleep@yahoo.com.au</v>
+      </c>
+      <c r="C8" t="str">
+        <v>http://www.pbsfm.org.au</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F8" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H8" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I8" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J8" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Contact</v>
+      </c>
+      <c r="B9" t="str">
+        <v>contact.adrian@rocketmail.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v>http://www.pbsfm.org.au</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F9" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H9" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I9" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J9" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Far Side Virtual</v>
+      </c>
+      <c r="B10" t="str">
+        <v>farsidevirtual@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://www.facebook.com/farsidevirtual</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F10" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H10" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I10" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J10" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Lullabies for Insomniacs</v>
+      </c>
+      <c r="B11" t="str">
+        <v>izabelcaligiore@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://www.facebook.com/LullabiesForInsomniacs</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F11" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H11" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I11" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J11" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Peeking Through The Wool</v>
+      </c>
+      <c r="B12" t="str">
+        <v>peekingthroughthewool@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://www.facebook.com/PeekingThroughTheWool</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F12" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H12" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I12" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J12" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>The Sound Barrier</v>
+      </c>
+      <c r="B13" t="str">
+        <v>pbs.sound.barrier@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://www.facebook.com/TheSoundBarrierOnPbs</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F13" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H13" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I13" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J13" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Zero Sum</v>
+      </c>
+      <c r="B14" t="str">
+        <v>katesarah@live.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>http://www.pbsfm.org.au</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="F14" t="str">
+        <v>MDC</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Fitzroy</v>
+      </c>
+      <c r="H14" t="str">
+        <v>PO Box 2917</v>
+      </c>
+      <c r="I14" t="str">
+        <v>VIC3065</v>
+      </c>
+      <c r="J14" t="str">
+        <v>61384151067</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Chin Ottawa</v>
+      </c>
+      <c r="B15" t="str">
+        <v>chinottawa@chinradio.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>http://chinradio.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F15" t="str">
+        <v>ON</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Ottawa</v>
+      </c>
+      <c r="H15" t="str">
+        <v>30 Murray St. #100</v>
+      </c>
+      <c r="I15" t="str">
+        <v>K1N5M4</v>
+      </c>
+      <c r="J15" t="str">
+        <v>6132440979</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>CHIN Toronto</v>
+      </c>
+      <c r="B16" t="str">
+        <v>info@chinradio.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>http://chinradio.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F16" t="str">
+        <v>On</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="H16" t="str">
+        <v xml:space="preserve">622 College St. </v>
+      </c>
+      <c r="I16" t="str">
+        <v>M6G1B6</v>
+      </c>
+      <c r="J16" t="str">
+        <v>4165319991</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>World Beat Canada Radio</v>
+      </c>
+      <c r="B17" t="str">
+        <v>calkoat@telus.net</v>
+      </c>
+      <c r="C17" t="str">
+        <v>http://worldbeatinternational.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="F17" t="str">
+        <v>BC</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Vancouver</v>
+      </c>
+      <c r="H17" t="str">
+        <v>3222 E 8th Ave</v>
+      </c>
+      <c r="I17" t="str">
+        <v>V5M1X*</v>
+      </c>
+      <c r="J17" t="str">
+        <v>6048898647</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Back 2 Your Roots</v>
+      </c>
+      <c r="B18" t="str">
+        <v>98@ujimaradio.com</v>
+      </c>
+      <c r="C18" t="str">
+        <v>http://www.ujimaradio.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Europe</v>
+      </c>
+      <c r="E18" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Bristol</v>
+      </c>
+      <c r="H18" t="str">
+        <v>97-107 Wilder St.</v>
+      </c>
+      <c r="I18" t="str">
+        <v>BS2 8QU UK</v>
+      </c>
+      <c r="J18" t="str">
+        <v>01179428313</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B81" t="str">
         <v>email</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C81" t="str">
         <v>address</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A82:C82"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J81"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Website</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Continent</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="F1" t="str">
+        <v>State</v>
+      </c>
+      <c r="G1" t="str">
+        <v>City</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="I1" t="str">
+        <v>ZipCode</v>
+      </c>
+      <c r="J1" t="str">
+        <v>PhoneNumber</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Esoterica</v>
+      </c>
+      <c r="B2" t="str">
+        <v>info@wqna.org</v>
+      </c>
+      <c r="C2" t="str">
+        <v>http://www.wqna.org</v>
+      </c>
+      <c r="D2" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E2" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F2" t="str">
+        <v>IL</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Springfield</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2201 Toronto Rd</v>
+      </c>
+      <c r="I2" t="str">
+        <v>62712</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2175290312</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Hollow Earth Radio</v>
+      </c>
+      <c r="B3" t="str">
+        <v>info@hollowearthradio.org</v>
+      </c>
+      <c r="C3" t="str">
+        <v>http://www.hollowearthradio.org</v>
+      </c>
+      <c r="D3" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E3" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F3" t="str">
+        <v>WA</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Seattle</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2018 A E. Union St.</v>
+      </c>
+      <c r="I3" t="str">
+        <v>98122</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2069051250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Music For Nimrods</v>
+      </c>
+      <c r="B4" t="str">
+        <v>reverenddan@hotmail.com</v>
+      </c>
+      <c r="C4" t="str">
+        <v>http://www.musicfornimrods.net</v>
+      </c>
+      <c r="D4" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E4" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F4" t="str">
+        <v>California</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Los Angeles</v>
+      </c>
+      <c r="H4" t="str">
+        <v>1 LMU Dr</v>
+      </c>
+      <c r="I4" t="str">
+        <v>90045</v>
+      </c>
+      <c r="J4" t="str">
+        <v>3103385958</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>New Dreamers</v>
+      </c>
+      <c r="B5" t="str">
+        <v>music@klcc.org</v>
+      </c>
+      <c r="C5" t="str">
+        <v>http://wwwklcc.org</v>
+      </c>
+      <c r="D5" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E5" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Oregon</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Eugene</v>
+      </c>
+      <c r="H5" t="str">
+        <v>136 W. 8th Ave</v>
+      </c>
+      <c r="I5" t="str">
+        <v>97401</v>
+      </c>
+      <c r="J5" t="str">
+        <v>5414635522</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>The New Edge</v>
+      </c>
+      <c r="B6" t="str">
+        <v>newedge@wmbr.org</v>
+      </c>
+      <c r="C6" t="str">
+        <v>http://wmbr.org/newedge</v>
+      </c>
+      <c r="D6" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E6" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F6" t="str">
+        <v>MA</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Cambridge</v>
+      </c>
+      <c r="H6" t="str">
+        <v>3 Ames St</v>
+      </c>
+      <c r="I6" t="str">
+        <v>02142</v>
+      </c>
+      <c r="J6" t="str">
+        <v>6172538810</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>No Pigeon Holes Radio Show</v>
+      </c>
+      <c r="B7" t="str">
+        <v>campaudj@comcast.net</v>
+      </c>
+      <c r="C7" t="str">
+        <v>http://www.doncampau.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E7" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F7" t="str">
+        <v>California</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Santa Clara</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1275 Franklin Mall, PMB 9150</v>
+      </c>
+      <c r="I7" t="str">
+        <v>95050</v>
+      </c>
+      <c r="J7" t="str">
+        <v>4082602999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Music Outside the Box</v>
+      </c>
+      <c r="B8" t="str">
+        <v>lilyelove18@yahoo.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>http://www.berkshireradio.org</v>
+      </c>
+      <c r="D8" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E8" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F8" t="str">
+        <v>MA</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Great Garrington</v>
+      </c>
+      <c r="H8" t="str">
+        <v>PO Box 152</v>
+      </c>
+      <c r="I8" t="str">
+        <v>01230</v>
+      </c>
+      <c r="J8" t="str">
+        <v>4136449797</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Pushing The Envelope</v>
+      </c>
+      <c r="B9" t="str">
+        <v>musicdirector@whus.org</v>
+      </c>
+      <c r="C9" t="str">
+        <v>http://www.whus.org</v>
+      </c>
+      <c r="D9" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E9" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F9" t="str">
+        <v>CT</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Storrs</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Student Union Rm. 412, 2110 Hillside Rd. #3008R</v>
+      </c>
+      <c r="I9" t="str">
+        <v>06268</v>
+      </c>
+      <c r="J9" t="str">
+        <v>8604299487</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>The Space Parlour</v>
+      </c>
+      <c r="B10" t="str">
+        <v>nick@kdhx.org</v>
+      </c>
+      <c r="C10" t="str">
+        <v>http://www.kdhx.org</v>
+      </c>
+      <c r="D10" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve">United States </v>
+      </c>
+      <c r="F10" t="str">
+        <v>MO</v>
+      </c>
+      <c r="G10" t="str">
+        <v>St. Louis</v>
+      </c>
+      <c r="H10" t="str">
+        <v>3504 Magnolia St</v>
+      </c>
+      <c r="I10" t="str">
+        <v>63118</v>
+      </c>
+      <c r="J10" t="str">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Spaceways</v>
+      </c>
+      <c r="B11" t="str">
+        <v>spacewaysradio@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>http://www.kpfk.org</v>
+      </c>
+      <c r="D11" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E11" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F11" t="str">
+        <v>California</v>
+      </c>
+      <c r="G11" t="str">
+        <v>North Hollywood</v>
+      </c>
+      <c r="H11" t="str">
+        <v>3729 Cahuenga Blvd</v>
+      </c>
+      <c r="I11" t="str">
+        <v>91604</v>
+      </c>
+      <c r="J11" t="str">
+        <v>8189852711</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Transfigured Night</v>
+      </c>
+      <c r="B12" t="str">
+        <v>newmusic@wkcr.org</v>
+      </c>
+      <c r="C12" t="str">
+        <v>http://www.wkcr.org</v>
+      </c>
+      <c r="D12" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E12" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F12" t="str">
+        <v>New York</v>
+      </c>
+      <c r="G12" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2920 Broadway Mailcode 2612</v>
+      </c>
+      <c r="I12" t="str">
+        <v>10027</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2128549920</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Wrong Division</v>
+      </c>
+      <c r="B13" t="str">
+        <v>wrongdivision@kdhx.org</v>
+      </c>
+      <c r="C13" t="str">
+        <v>http://www.kdhx.org</v>
+      </c>
+      <c r="D13" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E13" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F13" t="str">
+        <v>MO</v>
+      </c>
+      <c r="G13" t="str">
+        <v>St. Louis</v>
+      </c>
+      <c r="H13" t="str">
+        <v>3504 Magnolia</v>
+      </c>
+      <c r="I13" t="str">
+        <v>63118</v>
+      </c>
+      <c r="J13" t="str">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>African Abstract</v>
+      </c>
+      <c r="B14" t="str">
+        <v>chazokfr@yahoo.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>http://www.wcsb.org</v>
+      </c>
+      <c r="D14" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E14" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F14" t="str">
+        <v>OH</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Cleveland</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3100 Chester Ave</v>
+      </c>
+      <c r="I14" t="str">
+        <v>44115</v>
+      </c>
+      <c r="J14" t="str">
+        <v>2166873721</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Afrodicia</v>
+      </c>
+      <c r="B15" t="str">
+        <v>pd@kpfk.org</v>
+      </c>
+      <c r="C15" t="str">
+        <v>http://www.afrodicia.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E15" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F15" t="str">
+        <v>California</v>
+      </c>
+      <c r="G15" t="str">
+        <v>North Hollywood</v>
+      </c>
+      <c r="H15" t="str">
+        <v>3729 Cahuenga Blvd</v>
+      </c>
+      <c r="I15" t="str">
+        <v>91604</v>
+      </c>
+      <c r="J15" t="str">
+        <v>8189852711</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Culture Cafe</v>
+      </c>
+      <c r="B16" t="str">
+        <v>wwuh@hartford.edu</v>
+      </c>
+      <c r="C16" t="str">
+        <v>http://www.wwuh.org</v>
+      </c>
+      <c r="D16" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E16" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F16" t="str">
+        <v>CT</v>
+      </c>
+      <c r="G16" t="str">
+        <v>West Hartford</v>
+      </c>
+      <c r="H16" t="str">
+        <v>200 Bloomfield Ave.</v>
+      </c>
+      <c r="I16" t="str">
+        <v>06117</v>
+      </c>
+      <c r="J16" t="str">
+        <v>8607684701</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Earthsongs</v>
+      </c>
+      <c r="B17" t="str">
+        <v>sbeatty@knda.org</v>
+      </c>
+      <c r="C17" t="str">
+        <v>http://www.earthsongs.net</v>
+      </c>
+      <c r="D17" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E17" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F17" t="str">
+        <v>AK</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Anchorage</v>
+      </c>
+      <c r="H17" t="str">
+        <v>3600 San Jeronimo Dr #480</v>
+      </c>
+      <c r="I17" t="str">
+        <v>99508</v>
+      </c>
+      <c r="J17" t="str">
+        <v>9077933500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Folks of the World</v>
+      </c>
+      <c r="B18" t="str">
+        <v>folksoftheworld@kdhx.org</v>
+      </c>
+      <c r="C18" t="str">
+        <v>http://www.kdhx.org</v>
+      </c>
+      <c r="D18" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E18" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F18" t="str">
+        <v>MO</v>
+      </c>
+      <c r="G18" t="str">
+        <v>St. Louis</v>
+      </c>
+      <c r="H18" t="str">
+        <v>3504 Magnolia St</v>
+      </c>
+      <c r="I18" t="str">
+        <v>63118</v>
+      </c>
+      <c r="J18" t="str">
+        <v>3146643688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Global JazzWire</v>
+      </c>
+      <c r="B19" t="str">
+        <v>chad@globaljazzwire.com</v>
+      </c>
+      <c r="C19" t="str">
+        <v>http://kgou.org</v>
+      </c>
+      <c r="D19" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E19" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F19" t="str">
+        <v>OK</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Norman</v>
+      </c>
+      <c r="H19" t="str">
+        <v>860 Van Vleet Oval</v>
+      </c>
+      <c r="I19" t="str">
+        <v>73019</v>
+      </c>
+      <c r="J19" t="str">
+        <v>4053253388</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>International Pulse!</v>
+      </c>
+      <c r="B20" t="str">
+        <v>worldmusicdirector@wvkr.org</v>
+      </c>
+      <c r="C20" t="str">
+        <v>http://www.wvkr.org</v>
+      </c>
+      <c r="D20" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E20" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F20" t="str">
+        <v>NY</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Poughkeepsie</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Box 726, Vassar, 124 Raymond Ave</v>
+      </c>
+      <c r="I20" t="str">
+        <v>12604</v>
+      </c>
+      <c r="J20" t="str">
+        <v>8454375476</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>KILI</v>
+      </c>
+      <c r="B21" t="str">
+        <v>on.air.person@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>http://www.kiliradio.org</v>
+      </c>
+      <c r="D21" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E21" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F21" t="str">
+        <v>South Dakota</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Porcupine</v>
+      </c>
+      <c r="H21" t="str">
+        <v>PO Box 150</v>
+      </c>
+      <c r="I21" t="str">
+        <v>57772</v>
+      </c>
+      <c r="J21" t="str">
+        <v>6058675002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>KNBA</v>
+      </c>
+      <c r="B22" t="str">
+        <v>feedback@knba.org</v>
+      </c>
+      <c r="C22" t="str">
+        <v>http://www.knba.org</v>
+      </c>
+      <c r="D22" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E22" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F22" t="str">
+        <v>AK</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Anchorage</v>
+      </c>
+      <c r="H22" t="str">
+        <v>3600 San Jeronimo Dr #480</v>
+      </c>
+      <c r="I22" t="str">
+        <v>99508</v>
+      </c>
+      <c r="J22" t="str">
+        <v>9072795622</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>KUYI</v>
+      </c>
+      <c r="B23" t="str">
+        <v>info@kuyi.net</v>
+      </c>
+      <c r="C23" t="str">
+        <v>http://www.kuyi.net</v>
+      </c>
+      <c r="D23" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E23" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F23" t="str">
+        <v>AZ</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Keams Canyon</v>
+      </c>
+      <c r="H23" t="str">
+        <v>PO Box 1500</v>
+      </c>
+      <c r="I23" t="str">
+        <v>86034</v>
+      </c>
+      <c r="J23" t="str">
+        <v>9287385530</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>KWSO</v>
+      </c>
+      <c r="B24" t="str">
+        <v>bigb@wstribes.org</v>
+      </c>
+      <c r="C24" t="str">
+        <v>http://www.kwso.org</v>
+      </c>
+      <c r="D24" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E24" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F24" t="str">
+        <v>OR</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Warm Springs</v>
+      </c>
+      <c r="H24" t="str">
+        <v>PO Box 489</v>
+      </c>
+      <c r="I24" t="str">
+        <v>97761</v>
+      </c>
+      <c r="J24" t="str">
+        <v>5415531968</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Maggie Cuts to the Chase</v>
+      </c>
+      <c r="B25" t="str">
+        <v>welchshenpa@aol.com</v>
+      </c>
+      <c r="C25" t="str">
+        <v>http://www.berkshireradio.org</v>
+      </c>
+      <c r="D25" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E25" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F25" t="str">
+        <v>MA</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Great Barrington</v>
+      </c>
+      <c r="H25" t="str">
+        <v>PO Box 152</v>
+      </c>
+      <c r="I25" t="str">
+        <v>01230</v>
+      </c>
+      <c r="J25" t="str">
+        <v>4136449797</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Music From Everywhere But Here</v>
+      </c>
+      <c r="B26" t="str">
+        <v>music@wbgufm</v>
+      </c>
+      <c r="C26" t="str">
+        <v>http://wbgufm.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E26" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F26" t="str">
+        <v>OH</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Bowling Green</v>
+      </c>
+      <c r="H26" t="str">
+        <v>120 West Hall, BGSU</v>
+      </c>
+      <c r="I26" t="str">
+        <v>43403</v>
+      </c>
+      <c r="J26" t="str">
+        <v>4193728810</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Music of the World</v>
+      </c>
+      <c r="B27" t="str">
+        <v>keulmusic@glaciercity.us</v>
+      </c>
+      <c r="C27" t="str">
+        <v>http://www.glaciercity.us</v>
+      </c>
+      <c r="D27" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E27" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F27" t="str">
+        <v>AK</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Girdwood</v>
+      </c>
+      <c r="H27" t="str">
+        <v>124 Egloff Box 29</v>
+      </c>
+      <c r="I27" t="str">
+        <v>99587</v>
+      </c>
+      <c r="J27" t="str">
+        <v>9077542489</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Native American Public Telecommunications</v>
+      </c>
+      <c r="B28" t="str">
+        <v>visionmaker@unl.edu</v>
+      </c>
+      <c r="C28" t="str">
+        <v>http://www.nativetelecom.org</v>
+      </c>
+      <c r="D28" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E28" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F28" t="str">
+        <v>NE</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Lincoln</v>
+      </c>
+      <c r="H28" t="str">
+        <v>1800 33rd St</v>
+      </c>
+      <c r="I28" t="str">
+        <v>68503</v>
+      </c>
+      <c r="J28" t="str">
+        <v>4024723522</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Planet Waves</v>
+      </c>
+      <c r="B29" t="str">
+        <v>info@kzfr.org</v>
+      </c>
+      <c r="C29" t="str">
+        <v>http://www.kzfr.org</v>
+      </c>
+      <c r="D29" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E29" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F29" t="str">
+        <v>CA</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Chico</v>
+      </c>
+      <c r="H29" t="str">
+        <v>341 Broadway #411</v>
+      </c>
+      <c r="I29" t="str">
+        <v>95928</v>
+      </c>
+      <c r="J29" t="str">
+        <v>5308950131</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Route 66</v>
+      </c>
+      <c r="B30" t="str">
+        <v>md@wruw.org</v>
+      </c>
+      <c r="C30" t="str">
+        <v>http://wruw.org</v>
+      </c>
+      <c r="D30" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E30" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F30" t="str">
+        <v>OH</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Cleveland</v>
+      </c>
+      <c r="H30" t="str">
+        <v>11220 Bellflower Rd.</v>
+      </c>
+      <c r="I30" t="str">
+        <v>44106</v>
+      </c>
+      <c r="J30" t="str">
+        <v>2163682208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Spin the Globe</v>
+      </c>
+      <c r="B31" t="str">
+        <v>spintheglobe@gmail.com</v>
+      </c>
+      <c r="C31" t="str">
+        <v>http://www.earball.net/spintheglobe</v>
+      </c>
+      <c r="D31" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E31" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F31" t="str">
+        <v>WA</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Olympia</v>
+      </c>
+      <c r="H31" t="str">
+        <v>SEM 1 ANNEX B, 2700 Evergreen Pkwy</v>
+      </c>
+      <c r="I31" t="str">
+        <v>98505</v>
+      </c>
+      <c r="J31" t="str">
+        <v>6896360867</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Splinters &amp; Candy</v>
+      </c>
+      <c r="B32" t="str">
+        <v>alex@splintersandcandy.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>http://splintersandcandy.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E32" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F32" t="str">
+        <v>NY</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Poughkeepsie</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Box 726, 124 Raymond Ave.</v>
+      </c>
+      <c r="I32" t="str">
+        <v>12604</v>
+      </c>
+      <c r="J32" t="str">
+        <v>8454375476</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Tropical Beat</v>
+      </c>
+      <c r="B33" t="str">
+        <v>music@klcc.org</v>
+      </c>
+      <c r="C33" t="str">
+        <v>http://www.klcc.org</v>
+      </c>
+      <c r="D33" t="str">
+        <v>North America</v>
+      </c>
+      <c r="E33" t="str">
+        <v>United States</v>
+      </c>
+      <c r="F33" t="str">
+        <v>OR</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Eugene</v>
+      </c>
+      <c r="H33" t="str">
+        <v>136 W. 8th Ave</v>
+      </c>
+      <c r="I33" t="str">
+        <v>97401</v>
+      </c>
+      <c r="J33" t="str">
+        <v>5414636004</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J34"/>
   </ignoredErrors>
 </worksheet>
 </file>
